--- a/data_clean/Yara International 14.01.2021.xlsx
+++ b/data_clean/Yara International 14.01.2021.xlsx
@@ -1491,7 +1491,7 @@
         <v>1.525354467787129</v>
       </c>
       <c r="K2">
-        <v>55.81859094160516</v>
+        <v>0.0581859094160516</v>
       </c>
       <c r="L2">
         <v>0.004188183799072509</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.004149517092167546</v>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1633,7 +1633,7 @@
         <v>7.368421052630382</v>
       </c>
       <c r="K4">
-        <v>88.0503144654071</v>
+        <v>0.380503144654071</v>
       </c>
       <c r="L4">
         <v>0.007797628377936581</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000565783174479</v>
+        <v>0.0005657831744789732</v>
       </c>
       <c r="V4">
-        <v>1.000565783174479</v>
+        <v>0.0005657831744789732</v>
       </c>
       <c r="W4">
-        <v>1.0018281535649</v>
+        <v>0.001828153564899626</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1704,7 +1704,7 @@
         <v>9.584487534624213</v>
       </c>
       <c r="K5">
-        <v>90.55221146296618</v>
+        <v>0.4055221146296618</v>
       </c>
       <c r="L5">
         <v>0.01241842893792407</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000413223140496</v>
+        <v>0.0004132231404958553</v>
       </c>
       <c r="V5">
-        <v>1.000413223140496</v>
+        <v>0.0004132231404958553</v>
       </c>
       <c r="W5">
-        <v>1.000521376433785</v>
+        <v>0.0005213764337852478</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1775,7 +1775,7 @@
         <v>15.41624143460831</v>
       </c>
       <c r="K6">
-        <v>93.90847165605261</v>
+        <v>0.4390847165605262</v>
       </c>
       <c r="L6">
         <v>0.01642368871278594</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000508706711015</v>
+        <v>0.0005087067110154386</v>
       </c>
       <c r="V6">
-        <v>1.000508706711015</v>
+        <v>0.0005087067110154386</v>
       </c>
       <c r="W6">
-        <v>1.001302761855133</v>
+        <v>0.001302761855132895</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1846,7 +1846,7 @@
         <v>3.291808736713775</v>
       </c>
       <c r="K7">
-        <v>76.69980044903639</v>
+        <v>0.2669980044903639</v>
       </c>
       <c r="L7">
         <v>0.01736625464530922</v>
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000208594075928</v>
+        <v>0.0002085940759282146</v>
       </c>
       <c r="V7">
-        <v>1.000208594075928</v>
+        <v>0.0002085940759282146</v>
       </c>
       <c r="W7">
-        <v>0.9992193598750976</v>
+        <v>-0.0007806401249024209</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1917,7 +1917,7 @@
         <v>3.567763607399209</v>
       </c>
       <c r="K8">
-        <v>78.10744850324294</v>
+        <v>0.2810744850324294</v>
       </c>
       <c r="L8">
         <v>0.01740598056004933</v>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000186205869209</v>
+        <v>0.0001862058692090329</v>
       </c>
       <c r="V8">
-        <v>1.000186205869209</v>
+        <v>0.0001862058692090329</v>
       </c>
       <c r="W8">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1988,7 +1988,7 @@
         <v>2.764682051578492</v>
       </c>
       <c r="K9">
-        <v>73.43733185699679</v>
+        <v>0.2343733185699679</v>
       </c>
       <c r="L9">
         <v>0.01672311298483662</v>
@@ -2018,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000107048441747</v>
+        <v>0.0001070484417471373</v>
       </c>
       <c r="V9">
-        <v>1.000107048441747</v>
+        <v>0.0001070484417471373</v>
       </c>
       <c r="W9">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2059,7 +2059,7 @@
         <v>1.875782828344133</v>
       </c>
       <c r="K10">
-        <v>65.22685961735863</v>
+        <v>0.1522685961735862</v>
       </c>
       <c r="L10">
         <v>0.0153453175691656</v>
@@ -2089,13 +2089,13 @@
         <v>0.09027777777777146</v>
       </c>
       <c r="U10">
-        <v>1.000025337256989</v>
+        <v>2.533725698872225E-05</v>
       </c>
       <c r="V10">
-        <v>1.000025337256989</v>
+        <v>2.533725698872225E-05</v>
       </c>
       <c r="W10">
-        <v>0.9994791666666667</v>
+        <v>-0.0005208333333333037</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2130,7 +2130,7 @@
         <v>2.045003623976632</v>
       </c>
       <c r="K11">
-        <v>67.15931658911964</v>
+        <v>0.1715931658911964</v>
       </c>
       <c r="L11">
         <v>0.01395884338275162</v>
@@ -2160,13 +2160,13 @@
         <v>0.1974999999999909</v>
       </c>
       <c r="U11">
-        <v>1.000046329810337</v>
+        <v>4.632981033725336E-05</v>
       </c>
       <c r="V11">
-        <v>1.000046329810337</v>
+        <v>4.632981033725336E-05</v>
       </c>
       <c r="W11">
-        <v>1.000260552371026</v>
+        <v>0.0002605523710264013</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2201,7 +2201,7 @@
         <v>2.223130777274102</v>
       </c>
       <c r="K12">
-        <v>68.97426542382715</v>
+        <v>0.1897426542382715</v>
       </c>
       <c r="L12">
         <v>0.01280051815150892</v>
@@ -2231,13 +2231,13 @@
         <v>0.2238636363636601</v>
       </c>
       <c r="U12">
-        <v>1.000061594735072</v>
+        <v>6.159473507150182E-05</v>
       </c>
       <c r="V12">
-        <v>1.000061594735072</v>
+        <v>6.159473507150182E-05</v>
       </c>
       <c r="W12">
-        <v>1.000260484501172</v>
+        <v>0.0002604845011722201</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2272,7 +2272,7 @@
         <v>1.872106554865897</v>
       </c>
       <c r="K13">
-        <v>65.1823502750687</v>
+        <v>0.151823502750687</v>
       </c>
       <c r="L13">
         <v>0.01164161519377314</v>
@@ -2302,13 +2302,13 @@
         <v>0.2249999999999659</v>
       </c>
       <c r="U13">
-        <v>1.000029611029516</v>
+        <v>2.961102951637429E-05</v>
       </c>
       <c r="V13">
-        <v>1.000029611029516</v>
+        <v>2.961102951637429E-05</v>
       </c>
       <c r="W13">
-        <v>0.9997395833333332</v>
+        <v>-0.0002604166666667629</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2343,7 +2343,7 @@
         <v>2.370726589178921</v>
       </c>
       <c r="K14">
-        <v>70.33280589382981</v>
+        <v>0.2033280589382982</v>
       </c>
       <c r="L14">
         <v>0.01094186508804087</v>
@@ -2373,13 +2373,13 @@
         <v>0.1798076923076906</v>
       </c>
       <c r="U14">
-        <v>1.000085186131698</v>
+        <v>8.518613169772316E-05</v>
       </c>
       <c r="V14">
-        <v>1.000085186131698</v>
+        <v>8.518613169772316E-05</v>
       </c>
       <c r="W14">
-        <v>1.000781453503517</v>
+        <v>0.0007814535035166603</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2414,7 +2414,7 @@
         <v>2.545680987183524</v>
       </c>
       <c r="K15">
-        <v>71.79667309003058</v>
+        <v>0.2179667309003058</v>
       </c>
       <c r="L15">
         <v>0.01059969937544469</v>
@@ -2444,13 +2444,13 @@
         <v>0.1821428571428783</v>
       </c>
       <c r="U15">
-        <v>1.000091620975477</v>
+        <v>9.162097547710246E-05</v>
       </c>
       <c r="V15">
-        <v>1.000091620975477</v>
+        <v>9.162097547710246E-05</v>
       </c>
       <c r="W15">
-        <v>1.000260281103592</v>
+        <v>0.0002602811035918862</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2485,7 +2485,7 @@
         <v>2.149773308246094</v>
       </c>
       <c r="K16">
-        <v>68.25168346617187</v>
+        <v>0.1825168346617186</v>
       </c>
       <c r="L16">
         <v>0.01029091389459494</v>
@@ -2515,13 +2515,13 @@
         <v>0.1708333333333485</v>
       </c>
       <c r="U16">
-        <v>1.000062029352289</v>
+        <v>6.202935228949435E-05</v>
       </c>
       <c r="V16">
-        <v>1.000062029352289</v>
+        <v>6.202935228949435E-05</v>
       </c>
       <c r="W16">
-        <v>0.9997397866250325</v>
+        <v>-0.0002602133749675106</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2556,7 +2556,7 @@
         <v>2.149773308246094</v>
       </c>
       <c r="K17">
-        <v>68.25168346617187</v>
+        <v>0.1825168346617186</v>
       </c>
       <c r="L17">
         <v>0.009975242641211713</v>
@@ -2586,13 +2586,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U17">
-        <v>1.000054272316777</v>
+        <v>5.427231677668232E-05</v>
       </c>
       <c r="V17">
-        <v>1.000208405696422</v>
+        <v>0.0002084056964222203</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2627,7 +2627,7 @@
         <v>2.149773308246093</v>
       </c>
       <c r="K18">
-        <v>68.25168346617187</v>
+        <v>0.1825168346617186</v>
       </c>
       <c r="L18">
         <v>0.0096348133742368</v>
@@ -2657,13 +2657,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U18">
-        <v>1.000047884739516</v>
+        <v>4.788473951644612E-05</v>
       </c>
       <c r="V18">
-        <v>1.000225725795249</v>
+        <v>0.0002257257952493763</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2698,7 +2698,7 @@
         <v>2.149773308246093</v>
       </c>
       <c r="K19">
-        <v>68.25168346617187</v>
+        <v>0.1825168346617186</v>
       </c>
       <c r="L19">
         <v>0.009264096512750147</v>
@@ -2728,13 +2728,13 @@
         <v>0.1062499999999318</v>
       </c>
       <c r="U19">
-        <v>1.000042562174825</v>
+        <v>4.256217482501157E-05</v>
       </c>
       <c r="V19">
-        <v>1.000104157625206</v>
+        <v>0.0001041576252061027</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2769,7 +2769,7 @@
         <v>2.340712695785562</v>
       </c>
       <c r="K20">
-        <v>70.06626755837044</v>
+        <v>0.2006626755837044</v>
       </c>
       <c r="L20">
         <v>0.008972114231993455</v>
@@ -2799,13 +2799,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U20">
-        <v>1.000051789242156</v>
+        <v>5.178924215587521E-05</v>
       </c>
       <c r="V20">
-        <v>1.000086788981271</v>
+        <v>8.678898127079115E-05</v>
       </c>
       <c r="W20">
-        <v>1.000260281103592</v>
+        <v>0.0002602811035918862</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2840,7 +2840,7 @@
         <v>3.345656840729905</v>
       </c>
       <c r="K21">
-        <v>76.98851895926421</v>
+        <v>0.2698851895926421</v>
       </c>
       <c r="L21">
         <v>0.009236414716392322</v>
@@ -2870,13 +2870,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U21">
-        <v>1.000111721887894</v>
+        <v>0.0001117218878943227</v>
       </c>
       <c r="V21">
-        <v>1.000086781449598</v>
+        <v>8.678144959750611E-05</v>
       </c>
       <c r="W21">
-        <v>1.001301066874837</v>
+        <v>0.001301066874837442</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2911,7 +2911,7 @@
         <v>3.557224029139169</v>
       </c>
       <c r="K22">
-        <v>78.05681718506838</v>
+        <v>0.2805681718506838</v>
       </c>
       <c r="L22">
         <v>0.009863964517604762</v>
@@ -2941,13 +2941,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U22">
-        <v>1.000113471694393</v>
+        <v>0.0001134716943929082</v>
       </c>
       <c r="V22">
-        <v>1.000156193054615</v>
+        <v>0.00015619305461545</v>
       </c>
       <c r="W22">
-        <v>1.000259875259875</v>
+        <v>0.000259875259875253</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2982,7 +2982,7 @@
         <v>3.557224029139169</v>
       </c>
       <c r="K23">
-        <v>78.05681718506838</v>
+        <v>0.2805681718506838</v>
       </c>
       <c r="L23">
         <v>0.01061599454275632</v>
@@ -3012,13 +3012,13 @@
         <v>0.21875</v>
       </c>
       <c r="U23">
-        <v>1.000103144381844</v>
+        <v>0.0001031443818437783</v>
       </c>
       <c r="V23">
-        <v>1.000138816588582</v>
+        <v>0.0001388165885822801</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3053,7 +3053,7 @@
         <v>3.557224029139169</v>
       </c>
       <c r="K24">
-        <v>78.05681718506838</v>
+        <v>0.2805681718506838</v>
       </c>
       <c r="L24">
         <v>0.01134557919193189</v>
@@ -3083,13 +3083,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U24">
-        <v>1.00009416559251</v>
+        <v>9.416559250996492E-05</v>
       </c>
       <c r="V24">
-        <v>1.000156146986363</v>
+        <v>0.000156146986363126</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3124,7 +3124,7 @@
         <v>3.803985584362243</v>
       </c>
       <c r="K25">
-        <v>79.18395085832141</v>
+        <v>0.2918395085832141</v>
       </c>
       <c r="L25">
         <v>0.0120676101733683</v>
@@ -3154,13 +3154,13 @@
         <v>0.2937500000000455</v>
       </c>
       <c r="U25">
-        <v>1.000097158079024</v>
+        <v>9.715807902432871E-05</v>
       </c>
       <c r="V25">
-        <v>1.000208163477718</v>
+        <v>0.0002081634777177932</v>
       </c>
       <c r="W25">
-        <v>1.000259807742271</v>
+        <v>0.0002598077422708567</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3195,7 +3195,7 @@
         <v>3.019637695890495</v>
       </c>
       <c r="K26">
-        <v>75.12213598199766</v>
+        <v>0.2512213598199766</v>
       </c>
       <c r="L26">
         <v>0.01258998723368825</v>
@@ -3225,13 +3225,13 @@
         <v>0.3124999999999432</v>
       </c>
       <c r="U26">
-        <v>1.0000789639239</v>
+        <v>7.896392389961093E-05</v>
       </c>
       <c r="V26">
-        <v>1.000173433462252</v>
+        <v>0.0001734334622522926</v>
       </c>
       <c r="W26">
-        <v>0.9997402597402597</v>
+        <v>-0.0002597402597402931</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3266,7 +3266,7 @@
         <v>3.019637695890494</v>
       </c>
       <c r="K27">
-        <v>75.12213598199766</v>
+        <v>0.2512213598199766</v>
       </c>
       <c r="L27">
         <v>0.01291103547672531</v>
@@ -3296,13 +3296,13 @@
         <v>0.3374999999999773</v>
       </c>
       <c r="U27">
-        <v>1.000072884020699</v>
+        <v>7.288402069915989E-05</v>
       </c>
       <c r="V27">
-        <v>1.000156063049472</v>
+        <v>0.0001560630494719106</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3337,7 +3337,7 @@
         <v>2.072598679629211</v>
       </c>
       <c r="K28">
-        <v>67.45425926822712</v>
+        <v>0.1745425926822712</v>
       </c>
       <c r="L28">
         <v>0.0128461433929582</v>
@@ -3367,13 +3367,13 @@
         <v>0.34375</v>
       </c>
       <c r="U28">
-        <v>1.000048200204369</v>
+        <v>4.820020436868688E-05</v>
       </c>
       <c r="V28">
-        <v>1.000138701064531</v>
+        <v>0.0001387010645306219</v>
       </c>
       <c r="W28">
-        <v>0.9994803845154586</v>
+        <v>-0.0005196154845413803</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3408,7 +3408,7 @@
         <v>1.778952831165132</v>
       </c>
       <c r="K29">
-        <v>64.01522225259471</v>
+        <v>0.1401522225259471</v>
       </c>
       <c r="L29">
         <v>0.01240998926940509</v>
@@ -3438,13 +3438,13 @@
         <v>0.2750000000000341</v>
       </c>
       <c r="U29">
-        <v>1.000035459869755</v>
+        <v>3.545986975539428E-05</v>
       </c>
       <c r="V29">
-        <v>1.000069340914607</v>
+        <v>6.934091460664149E-05</v>
       </c>
       <c r="W29">
-        <v>0.9997400571874189</v>
+        <v>-0.0002599428125811265</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3479,7 +3479,7 @@
         <v>1.548077402868704</v>
       </c>
       <c r="K30">
-        <v>60.75472437084645</v>
+        <v>0.1075472437084646</v>
       </c>
       <c r="L30">
         <v>0.01163742687390942</v>
@@ -3509,13 +3509,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U30">
-        <v>1.000024038731204</v>
+        <v>2.403873120382372E-05</v>
       </c>
       <c r="V30">
-        <v>1.000034668053389</v>
+        <v>3.466805338869783E-05</v>
       </c>
       <c r="W30">
-        <v>0.9997399895995839</v>
+        <v>-0.0002600104004161219</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3550,7 +3550,7 @@
         <v>1.215871496855807</v>
       </c>
       <c r="K31">
-        <v>54.87102923527191</v>
+        <v>0.04871029235271906</v>
       </c>
       <c r="L31">
         <v>0.0104774381995694</v>
@@ -3580,13 +3580,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U31">
-        <v>1.000005085404888</v>
+        <v>5.085404887861245E-06</v>
       </c>
       <c r="V31">
-        <v>1.000017333425778</v>
+        <v>1.733342577825425E-05</v>
       </c>
       <c r="W31">
-        <v>0.999479843953186</v>
+        <v>-0.000520156046813991</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3621,7 +3621,7 @@
         <v>1.092482721500884</v>
       </c>
       <c r="K32">
-        <v>52.20988017130551</v>
+        <v>0.02209880171305512</v>
       </c>
       <c r="L32">
         <v>0.009025624827042696</v>
@@ -3651,13 +3651,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U32">
-        <v>1.000104100700077</v>
+        <v>0.0001041007000774918</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.9997397866250325</v>
+        <v>-0.0002602133749675106</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3692,7 +3692,7 @@
         <v>0.9001660273404647</v>
       </c>
       <c r="K33">
-        <v>47.37301974608854</v>
+        <v>-0.02626980253911454</v>
       </c>
       <c r="L33">
         <v>0.007267289149631272</v>
@@ -3722,13 +3722,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U33">
-        <v>1.000095415708895</v>
+        <v>9.541570889526341E-05</v>
       </c>
       <c r="V33">
-        <v>0.9999653337493284</v>
+        <v>-3.466625067161111E-05</v>
       </c>
       <c r="W33">
-        <v>0.9994794377928162</v>
+        <v>-0.0005205622071837723</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3763,7 +3763,7 @@
         <v>0.6151811427368417</v>
       </c>
       <c r="K34">
-        <v>38.08743963506463</v>
+        <v>-0.1191256036493537</v>
       </c>
       <c r="L34">
         <v>0.004932261547910736</v>
@@ -3793,13 +3793,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U34">
-        <v>0.9999913266722176</v>
+        <v>-8.673327782426909E-06</v>
       </c>
       <c r="V34">
-        <v>0.999878663916382</v>
+        <v>-0.0001213360836179733</v>
       </c>
       <c r="W34">
-        <v>0.9986979166666666</v>
+        <v>-0.00130208333333337</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3834,7 +3834,7 @@
         <v>0.5767408811415314</v>
       </c>
       <c r="K35">
-        <v>36.57803815703577</v>
+        <v>-0.1342196184296423</v>
       </c>
       <c r="L35">
         <v>0.002287192348913535</v>
@@ -3864,13 +3864,13 @@
         <v>-0.3374999999999773</v>
       </c>
       <c r="U35">
-        <v>0.9999653063879613</v>
+        <v>-3.469361203867205E-05</v>
       </c>
       <c r="V35">
-        <v>0.9998439775327647</v>
+        <v>-0.0001560224672353394</v>
       </c>
       <c r="W35">
-        <v>0.9997392438070404</v>
+        <v>-0.0002607561929596214</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3905,7 +3905,7 @@
         <v>0.9713898433466962</v>
       </c>
       <c r="K36">
-        <v>49.27436583002948</v>
+        <v>-0.007256341699705182</v>
       </c>
       <c r="L36">
         <v>0.0001907336119638661</v>
@@ -3935,13 +3935,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U36">
-        <v>0.9999739788882045</v>
+        <v>-2.602111179550448E-05</v>
       </c>
       <c r="V36">
-        <v>0.9998612917208496</v>
+        <v>-0.0001387082791504124</v>
       </c>
       <c r="W36">
-        <v>1.001564945226917</v>
+        <v>0.00156494522691708</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3976,7 +3976,7 @@
         <v>0.9084890928767673</v>
       </c>
       <c r="K37">
-        <v>47.60252999441319</v>
+        <v>-0.0239747000558681</v>
       </c>
       <c r="L37">
         <v>-0.001536374786734686</v>
@@ -4006,13 +4006,13 @@
         <v>-0.4375000000000568</v>
       </c>
       <c r="U37">
-        <v>0.9999913260703629</v>
+        <v>-8.673929637104116E-06</v>
       </c>
       <c r="V37">
-        <v>0.9998265905977423</v>
+        <v>-0.0001734094022577404</v>
       </c>
       <c r="W37">
-        <v>0.9997395833333332</v>
+        <v>-0.0002604166666667629</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4047,7 +4047,7 @@
         <v>0.9084890928767673</v>
       </c>
       <c r="K38">
-        <v>47.60252999441319</v>
+        <v>-0.0239747000558681</v>
       </c>
       <c r="L38">
         <v>-0.002924151757412354</v>
@@ -4077,13 +4077,13 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="U38">
-        <v>0.9999826519902506</v>
+        <v>-1.73480097493961E-05</v>
       </c>
       <c r="V38">
-        <v>0.9998265605217059</v>
+        <v>-0.0001734394782940685</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4118,7 +4118,7 @@
         <v>0.7475759143350419</v>
       </c>
       <c r="K39">
-        <v>42.77787924420421</v>
+        <v>-0.07222120755795791</v>
       </c>
       <c r="L39">
         <v>-0.004293099640699117</v>
@@ -4148,13 +4148,13 @@
         <v>-0.4562500000000114</v>
       </c>
       <c r="U39">
-        <v>0.9999653033785832</v>
+        <v>-3.469662141675212E-05</v>
       </c>
       <c r="V39">
-        <v>0.9997744895658057</v>
+        <v>-0.000225510434194276</v>
       </c>
       <c r="W39">
-        <v>0.9992185464964836</v>
+        <v>-0.0007814535035164383</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4189,7 +4189,7 @@
         <v>0.5445280102621703</v>
       </c>
       <c r="K40">
-        <v>35.25530172610735</v>
+        <v>-0.1474469827389265</v>
       </c>
       <c r="L40">
         <v>-0.006118304823086825</v>
@@ -4219,13 +4219,13 @@
         <v>-0.4875000000000682</v>
       </c>
       <c r="U40">
-        <v>0.9999306043493724</v>
+        <v>-6.939565062757946E-05</v>
       </c>
       <c r="V40">
-        <v>0.999652982614429</v>
+        <v>-0.0003470173855709691</v>
       </c>
       <c r="W40">
-        <v>0.9984358706986444</v>
+        <v>-0.001564129301355632</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4260,7 +4260,7 @@
         <v>0.8304315978012293</v>
       </c>
       <c r="K41">
-        <v>45.36807596627862</v>
+        <v>-0.04631924033721374</v>
       </c>
       <c r="L41">
         <v>-0.007509558643342201</v>
@@ -4290,13 +4290,13 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="U41">
-        <v>0.9999739748249808</v>
+        <v>-2.602517501915091E-05</v>
       </c>
       <c r="V41">
-        <v>0.999774360398514</v>
+        <v>-0.0002256396014860274</v>
       </c>
       <c r="W41">
-        <v>1.001566579634465</v>
+        <v>0.001566579634464826</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4331,7 +4331,7 @@
         <v>0.8805901219308698</v>
       </c>
       <c r="K42">
-        <v>46.82520192261438</v>
+        <v>-0.03174798077385615</v>
       </c>
       <c r="L42">
         <v>-0.008427038607146478</v>
@@ -4361,13 +4361,13 @@
         <v>-0.3499999999999659</v>
       </c>
       <c r="U42">
-        <v>0.9999739741476533</v>
+        <v>-2.602585234667831E-05</v>
       </c>
       <c r="V42">
-        <v>0.999791670283502</v>
+        <v>-0.0002083297164979792</v>
       </c>
       <c r="W42">
-        <v>1.000260688216893</v>
+        <v>0.0002606882168925129</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4402,7 +4402,7 @@
         <v>0.9861870148354059</v>
       </c>
       <c r="K43">
-        <v>49.65227380248132</v>
+        <v>-0.003477261975186829</v>
       </c>
       <c r="L43">
         <v>-0.00877855314613689</v>
@@ -4432,13 +4432,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>0.9998610845821252</v>
+        <v>-0.0001389154178748075</v>
       </c>
       <c r="W43">
-        <v>1.000521240552515</v>
+        <v>0.0005212405525150121</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4473,7 +4473,7 @@
         <v>1.041764326890441</v>
       </c>
       <c r="K44">
-        <v>51.02275092037794</v>
+        <v>0.01022750920377935</v>
       </c>
       <c r="L44">
         <v>-0.008638157403561436</v>
@@ -4503,13 +4503,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U44">
-        <v>0.9999826489801937</v>
+        <v>-1.735101980626652E-05</v>
       </c>
       <c r="V44">
-        <v>0.999895798961463</v>
+        <v>-0.0001042010385370329</v>
       </c>
       <c r="W44">
-        <v>1.000260484501172</v>
+        <v>0.0002604845011722201</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4544,7 +4544,7 @@
         <v>1.041764326890441</v>
       </c>
       <c r="K45">
-        <v>51.02275092037794</v>
+        <v>0.01022750920377935</v>
       </c>
       <c r="L45">
         <v>-0.008177491260866187</v>
@@ -4574,13 +4574,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U45">
-        <v>0.9999739730186962</v>
+        <v>-2.60269813038283E-05</v>
       </c>
       <c r="V45">
-        <v>0.9999131567520626</v>
+        <v>-8.684324793739595E-05</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4615,7 +4615,7 @@
         <v>1.164927345294915</v>
       </c>
       <c r="K46">
-        <v>53.80907344658367</v>
+        <v>0.03809073446583677</v>
       </c>
       <c r="L46">
         <v>-0.00733263150118994</v>
@@ -4645,13 +4645,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>0.9999826298419314</v>
+        <v>-1.737015806857478E-05</v>
       </c>
       <c r="W46">
-        <v>1.000520833333333</v>
+        <v>0.0005208333333333037</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4686,7 +4686,7 @@
         <v>1.359395269091472</v>
       </c>
       <c r="K47">
-        <v>57.61625815308734</v>
+        <v>0.07616258153087341</v>
       </c>
       <c r="L47">
         <v>-0.005997536375040437</v>
@@ -4716,13 +4716,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U47">
-        <v>1.000026027658725</v>
+        <v>2.602765872516954E-05</v>
       </c>
       <c r="V47">
-        <v>1.000052111379388</v>
+        <v>5.211137938831989E-05</v>
       </c>
       <c r="W47">
-        <v>1.000780843310776</v>
+        <v>0.0007808433107756585</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4757,7 +4757,7 @@
         <v>1.272562764293897</v>
       </c>
       <c r="K48">
-        <v>55.99681488617949</v>
+        <v>0.05996814886179491</v>
       </c>
       <c r="L48">
         <v>-0.004523794083630575</v>
@@ -4787,13 +4787,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U48">
-        <v>1.000017351320869</v>
+        <v>1.735132086944091E-05</v>
       </c>
       <c r="V48">
-        <v>1.000069478218578</v>
+        <v>6.947821857838932E-05</v>
       </c>
       <c r="W48">
-        <v>0.9997399219765929</v>
+        <v>-0.0002600780234071065</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4828,7 +4828,7 @@
         <v>1.47427592022557</v>
       </c>
       <c r="K49">
-        <v>59.58413563234153</v>
+        <v>0.09584135632341528</v>
       </c>
       <c r="L49">
         <v>-0.00275890527308738</v>
@@ -4858,13 +4858,13 @@
         <v>0.2812499999999432</v>
       </c>
       <c r="U49">
-        <v>1.000043377549515</v>
+        <v>4.337754951522221E-05</v>
       </c>
       <c r="V49">
-        <v>1.000208420175073</v>
+        <v>0.0002084201750729431</v>
       </c>
       <c r="W49">
-        <v>1.000780437044745</v>
+        <v>0.0007804370447450637</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4899,7 +4899,7 @@
         <v>1.686605558048384</v>
       </c>
       <c r="K50">
-        <v>62.77830971486471</v>
+        <v>0.1277830971486471</v>
       </c>
       <c r="L50">
         <v>-0.0006355629803465607</v>
@@ -4929,13 +4929,13 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="U50">
-        <v>1.000060725935179</v>
+        <v>6.072593517947311E-05</v>
       </c>
       <c r="V50">
-        <v>1.000277835660207</v>
+        <v>0.0002778356602071153</v>
       </c>
       <c r="W50">
-        <v>1.000779828437744</v>
+        <v>0.0007798284377438236</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4970,7 +4970,7 @@
         <v>1.761107185354648</v>
       </c>
       <c r="K51">
-        <v>63.78264468311266</v>
+        <v>0.1378264468311265</v>
       </c>
       <c r="L51">
         <v>0.001666575714522529</v>
@@ -5000,13 +5000,13 @@
         <v>0.3937499999999545</v>
       </c>
       <c r="U51">
-        <v>1.00002602382047</v>
+        <v>2.602382047034446E-05</v>
       </c>
       <c r="V51">
-        <v>1.000190958961183</v>
+        <v>0.0001909589611832629</v>
       </c>
       <c r="W51">
-        <v>1.00025974025974</v>
+        <v>0.0002597402597404042</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5041,7 +5041,7 @@
         <v>1.839529950940145</v>
       </c>
       <c r="K52">
-        <v>64.78290360455932</v>
+        <v>0.1478290360455933</v>
       </c>
       <c r="L52">
         <v>0.004018856093550297</v>
@@ -5071,13 +5071,13 @@
         <v>0.46875</v>
       </c>
       <c r="U52">
-        <v>1.000026023143249</v>
+        <v>2.602314324895438E-05</v>
       </c>
       <c r="V52">
-        <v>1.000225635685151</v>
+        <v>0.0002256356851513264</v>
       </c>
       <c r="W52">
-        <v>1.000259672812256</v>
+        <v>0.0002596728122563619</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5112,7 +5112,7 @@
         <v>2.16973106919501</v>
       </c>
       <c r="K53">
-        <v>68.4515822266915</v>
+        <v>0.184515822266915</v>
       </c>
       <c r="L53">
         <v>0.006616085383039205</v>
@@ -5142,13 +5142,13 @@
         <v>0.5625</v>
       </c>
       <c r="U53">
-        <v>1.000060719087479</v>
+        <v>6.071908747884436E-05</v>
       </c>
       <c r="V53">
-        <v>1.000294995488304</v>
+        <v>0.0002949954883044725</v>
       </c>
       <c r="W53">
-        <v>1.001038421599169</v>
+        <v>0.001038421599169448</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5183,7 +5183,7 @@
         <v>2.256626100314675</v>
       </c>
       <c r="K54">
-        <v>69.29337390302884</v>
+        <v>0.1929337390302883</v>
       </c>
       <c r="L54">
         <v>0.009266489188640266</v>
@@ -5213,13 +5213,13 @@
         <v>0.6374999999999886</v>
       </c>
       <c r="U54">
-        <v>1.000069389029594</v>
+        <v>6.938902959441329E-05</v>
       </c>
       <c r="V54">
-        <v>1.000364298724954</v>
+        <v>0.0003642987249543594</v>
       </c>
       <c r="W54">
-        <v>1.000259336099585</v>
+        <v>0.0002593360995850613</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5254,7 +5254,7 @@
         <v>1.770728661861113</v>
       </c>
       <c r="K55">
-        <v>63.90841103407452</v>
+        <v>0.1390841103407452</v>
       </c>
       <c r="L55">
         <v>0.01146149539254588</v>
@@ -5284,13 +5284,13 @@
         <v>0.6374999999999886</v>
       </c>
       <c r="U55">
-        <v>1.000034692107546</v>
+        <v>3.469210754558638E-05</v>
       </c>
       <c r="V55">
-        <v>1.000416189782541</v>
+        <v>0.0004161897825409877</v>
       </c>
       <c r="W55">
-        <v>0.9992221934145709</v>
+        <v>-0.0007778065854291416</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5325,7 +5325,7 @@
         <v>1.846279648911298</v>
       </c>
       <c r="K56">
-        <v>64.86641780323659</v>
+        <v>0.1486641780323659</v>
       </c>
       <c r="L56">
         <v>0.01329348695677836</v>
@@ -5355,13 +5355,13 @@
         <v>0.6187499999999773</v>
       </c>
       <c r="U56">
-        <v>1.000052036356067</v>
+        <v>5.203635606743084E-05</v>
       </c>
       <c r="V56">
-        <v>1.000329346507194</v>
+        <v>0.0003293465071936286</v>
       </c>
       <c r="W56">
-        <v>1.000259470679813</v>
+        <v>0.0002594706798131341</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5396,7 +5396,7 @@
         <v>1.490639742027873</v>
       </c>
       <c r="K57">
-        <v>59.84967303276859</v>
+        <v>0.0984967303276858</v>
       </c>
       <c r="L57">
         <v>0.01445572083985923</v>
@@ -5426,13 +5426,13 @@
         <v>0.5812499999999545</v>
       </c>
       <c r="U57">
-        <v>1.000026016824213</v>
+        <v>2.601682421299323E-05</v>
       </c>
       <c r="V57">
-        <v>1.000259924795093</v>
+        <v>0.0002599247950927364</v>
       </c>
       <c r="W57">
-        <v>0.9992217898832685</v>
+        <v>-0.0007782101167315147</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5467,7 +5467,7 @@
         <v>1.396269026197127</v>
       </c>
       <c r="K58">
-        <v>58.26845863016484</v>
+        <v>0.08268458630164832</v>
       </c>
       <c r="L58">
         <v>0.01499064531537518</v>
@@ -5497,13 +5497,13 @@
         <v>0.5062500000000227</v>
       </c>
       <c r="U58">
-        <v>1.000034688196474</v>
+        <v>3.468819647411969E-05</v>
       </c>
       <c r="V58">
-        <v>1.0002078858014</v>
+        <v>0.0002078858013996321</v>
       </c>
       <c r="W58">
-        <v>0.9997403946002078</v>
+        <v>-0.0002596053997921954</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5538,7 +5538,7 @@
         <v>2.329241829315111</v>
       </c>
       <c r="K59">
-        <v>69.96313120919429</v>
+        <v>0.1996313120919428</v>
       </c>
       <c r="L59">
         <v>0.01638343868972954</v>
@@ -5568,13 +5568,13 @@
         <v>0.5187500000000682</v>
       </c>
       <c r="U59">
-        <v>1.000164763217912</v>
+        <v>0.000164763217912256</v>
       </c>
       <c r="V59">
-        <v>1.000433005403907</v>
+        <v>0.0004330054039074493</v>
       </c>
       <c r="W59">
-        <v>1.003635419371592</v>
+        <v>0.00363541937159173</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5609,7 +5609,7 @@
         <v>1.724416967643469</v>
       </c>
       <c r="K60">
-        <v>63.29489898659062</v>
+        <v>0.1329489898659062</v>
       </c>
       <c r="L60">
         <v>0.01767304943797629</v>
@@ -5639,13 +5639,13 @@
         <v>0.4937500000000341</v>
       </c>
       <c r="U60">
-        <v>1.000130054796421</v>
+        <v>0.0001300547964209198</v>
       </c>
       <c r="V60">
-        <v>1.000346254393103</v>
+        <v>0.0003462543931025408</v>
       </c>
       <c r="W60">
-        <v>0.9987063389391979</v>
+        <v>-0.001293661060802087</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5680,7 +5680,7 @@
         <v>1.635035275689911</v>
       </c>
       <c r="K61">
-        <v>62.04984391572604</v>
+        <v>0.1204984391572603</v>
       </c>
       <c r="L61">
         <v>0.01865848197030345</v>
@@ -5710,13 +5710,13 @@
         <v>0.4125000000000227</v>
       </c>
       <c r="U61">
-        <v>1.000138707076662</v>
+        <v>0.0001387070766616372</v>
       </c>
       <c r="V61">
-        <v>1.000294214361122</v>
+        <v>0.0002942143611222026</v>
       </c>
       <c r="W61">
-        <v>0.999740932642487</v>
+        <v>-0.0002590673575130209</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5751,7 +5751,7 @@
         <v>1.13821686446449</v>
       </c>
       <c r="K62">
-        <v>53.23205907598867</v>
+        <v>0.03232059075988669</v>
       </c>
       <c r="L62">
         <v>0.01857103461324769</v>
@@ -5781,13 +5781,13 @@
         <v>0.2812500000000568</v>
       </c>
       <c r="U62">
-        <v>1.000078011909818</v>
+        <v>7.801190981826522E-05</v>
       </c>
       <c r="V62">
-        <v>1.000103809820409</v>
+        <v>0.0001038098204089177</v>
       </c>
       <c r="W62">
-        <v>0.9979269240735943</v>
+        <v>-0.00207307592640571</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5822,7 +5822,7 @@
         <v>1.33812338805528</v>
       </c>
       <c r="K63">
-        <v>57.23065749614934</v>
+        <v>0.0723065749614934</v>
       </c>
       <c r="L63">
         <v>0.01824526911653799</v>
@@ -5852,13 +5852,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U63">
-        <v>1.000138677021218</v>
+        <v>0.0001386770212175037</v>
       </c>
       <c r="V63">
-        <v>1.000207598090098</v>
+        <v>0.0002075980900977381</v>
       </c>
       <c r="W63">
-        <v>1.001298364061283</v>
+        <v>0.001298364061282697</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5893,7 +5893,7 @@
         <v>1.674808059366066</v>
       </c>
       <c r="K64">
-        <v>62.61413986329167</v>
+        <v>0.1261413986329167</v>
       </c>
       <c r="L64">
         <v>0.01848668991938237</v>
@@ -5923,13 +5923,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U64">
-        <v>1.000251317249029</v>
+        <v>0.0002513172490292703</v>
       </c>
       <c r="V64">
-        <v>1.00029403625294</v>
+        <v>0.0002940362529402218</v>
       </c>
       <c r="W64">
-        <v>1.00207468879668</v>
+        <v>0.002074688796680491</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5964,7 +5964,7 @@
         <v>1.422701802185942</v>
       </c>
       <c r="K65">
-        <v>58.7237686826449</v>
+        <v>0.08723768682644906</v>
       </c>
       <c r="L65">
         <v>0.0186099372091014</v>
@@ -5994,13 +5994,13 @@
         <v>0.2437500000000909</v>
       </c>
       <c r="U65">
-        <v>1.000225262300621</v>
+        <v>0.000225262300621365</v>
       </c>
       <c r="V65">
-        <v>1.000172911659433</v>
+        <v>0.000172911659433117</v>
       </c>
       <c r="W65">
-        <v>0.9989648033126295</v>
+        <v>-0.00103519668737051</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6035,7 +6035,7 @@
         <v>1.271588457589619</v>
       </c>
       <c r="K66">
-        <v>55.97794148588432</v>
+        <v>0.05977941485884319</v>
       </c>
       <c r="L66">
         <v>0.01830192446214449</v>
@@ -6065,13 +6065,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U66">
-        <v>1.000147253718156</v>
+        <v>0.0001472537181561595</v>
       </c>
       <c r="V66">
-        <v>1.000103729059696</v>
+        <v>0.0001037290596963558</v>
       </c>
       <c r="W66">
-        <v>0.9992227979274612</v>
+        <v>-0.0007772020725388407</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6106,7 +6106,7 @@
         <v>1.271588457589619</v>
       </c>
       <c r="K67">
-        <v>55.97794148588432</v>
+        <v>0.05977941485884319</v>
       </c>
       <c r="L67">
         <v>0.01768567967897508</v>
@@ -6136,13 +6136,13 @@
         <v>0.1374999999999318</v>
       </c>
       <c r="U67">
-        <v>1.000155892745791</v>
+        <v>0.0001558927457909753</v>
       </c>
       <c r="V67">
-        <v>1.000086431917579</v>
+        <v>8.643191757862212E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6177,7 +6177,7 @@
         <v>1.223586904279159</v>
       </c>
       <c r="K68">
-        <v>55.02761785133919</v>
+        <v>0.05027617851339194</v>
       </c>
       <c r="L68">
         <v>0.01676303793003489</v>
@@ -6207,13 +6207,13 @@
         <v>0.0625</v>
       </c>
       <c r="U68">
-        <v>1.000147209088862</v>
+        <v>0.0001472090888623434</v>
       </c>
       <c r="V68">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W68">
-        <v>0.9997407311381904</v>
+        <v>-0.0002592688618096028</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6248,7 +6248,7 @@
         <v>1.223586904279159</v>
       </c>
       <c r="K69">
-        <v>55.02761785133919</v>
+        <v>0.05027617851339183</v>
       </c>
       <c r="L69">
         <v>0.01565263501705737</v>
@@ -6278,13 +6278,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U69">
-        <v>1.000173161672396</v>
+        <v>0.0001731616723956719</v>
       </c>
       <c r="V69">
-        <v>0.9999827151104504</v>
+        <v>-1.728488954955143E-05</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6319,7 +6319,7 @@
         <v>1.265414365333902</v>
       </c>
       <c r="K70">
-        <v>55.85796509008148</v>
+        <v>0.05857965090081474</v>
       </c>
       <c r="L70">
         <v>0.01453688513447108</v>
@@ -6349,13 +6349,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U70">
-        <v>1.00023372778504</v>
+        <v>0.0002337277850397168</v>
       </c>
       <c r="V70">
-        <v>1.000051855564966</v>
+        <v>5.185556496623001E-05</v>
       </c>
       <c r="W70">
-        <v>1.000259336099585</v>
+        <v>0.0002593360995850613</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6390,7 +6390,7 @@
         <v>1.117771584068414</v>
       </c>
       <c r="K71">
-        <v>52.78055445059293</v>
+        <v>0.02780554450592931</v>
       </c>
       <c r="L71">
         <v>0.0131524569352919</v>
@@ -6420,13 +6420,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U71">
-        <v>1.000155782112752</v>
+        <v>0.000155782112751579</v>
       </c>
       <c r="V71">
-        <v>0.9999827157079646</v>
+        <v>-1.728429203540216E-05</v>
       </c>
       <c r="W71">
-        <v>0.9992221934145709</v>
+        <v>-0.0007778065854291416</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6461,7 +6461,7 @@
         <v>1.073811098022637</v>
       </c>
       <c r="K72">
-        <v>51.77960032360265</v>
+        <v>0.01779600323602648</v>
       </c>
       <c r="L72">
         <v>0.01155120399538499</v>
@@ -6491,13 +6491,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U72">
-        <v>1.000138451420858</v>
+        <v>0.000138451420857777</v>
       </c>
       <c r="V72">
-        <v>1.000017284590787</v>
+        <v>1.728459078731426E-05</v>
       </c>
       <c r="W72">
-        <v>0.9997405293201869</v>
+        <v>-0.0002594706798131341</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6532,7 +6532,7 @@
         <v>1.073811098022637</v>
       </c>
       <c r="K73">
-        <v>51.77960032360265</v>
+        <v>0.01779600323602648</v>
       </c>
       <c r="L73">
         <v>0.009878707122688794</v>
@@ -6562,13 +6562,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U73">
-        <v>1.000121128222876</v>
+        <v>0.0001211282228759103</v>
       </c>
       <c r="V73">
-        <v>1.000034568584071</v>
+        <v>3.456858407080432E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6603,7 +6603,7 @@
         <v>1.028971119533059</v>
       </c>
       <c r="K74">
-        <v>50.71393622250587</v>
+        <v>0.007139362225058732</v>
       </c>
       <c r="L74">
         <v>0.008139232901327308</v>
@@ -6633,13 +6633,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U74">
-        <v>1.00010381161652</v>
+        <v>0.0001038116165199554</v>
       </c>
       <c r="V74">
-        <v>0.9997753119706868</v>
+        <v>-0.0002246880293131914</v>
       </c>
       <c r="W74">
-        <v>0.9997404619776796</v>
+        <v>-0.0002595380223203714</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6674,7 +6674,7 @@
         <v>1.028971119533059</v>
       </c>
       <c r="K75">
-        <v>50.71393622250587</v>
+        <v>0.007139362225058732</v>
       </c>
       <c r="L75">
         <v>0.006440463318022897</v>
@@ -6704,13 +6704,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U75">
-        <v>1.000103800840787</v>
+        <v>0.0001038008407867608</v>
       </c>
       <c r="V75">
-        <v>0.9998616993690035</v>
+        <v>-0.0001383006309965129</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6745,7 +6745,7 @@
         <v>1.167778178195988</v>
       </c>
       <c r="K76">
-        <v>53.8698188745403</v>
+        <v>0.03869818874540298</v>
       </c>
       <c r="L76">
         <v>0.005134665143575449</v>
@@ -6775,13 +6775,13 @@
         <v>-0.1750000000000682</v>
       </c>
       <c r="U76">
-        <v>1.000112439239565</v>
+        <v>0.0001124392395646101</v>
       </c>
       <c r="V76">
-        <v>0.9999308401196465</v>
+        <v>-6.915988035349763E-05</v>
       </c>
       <c r="W76">
-        <v>1.000778816199377</v>
+        <v>0.0007788161993769194</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6816,7 +6816,7 @@
         <v>1.167778178195988</v>
       </c>
       <c r="K77">
-        <v>53.8698188745403</v>
+        <v>0.03869818874540298</v>
       </c>
       <c r="L77">
         <v>0.004131411221091616</v>
@@ -6846,13 +6846,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U77">
-        <v>1.000086481998772</v>
+        <v>8.648199877203666E-05</v>
       </c>
       <c r="V77">
-        <v>1.000069164663773</v>
+        <v>6.916466377338004E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6887,7 +6887,7 @@
         <v>1.110828646488642</v>
       </c>
       <c r="K78">
-        <v>52.62524025038709</v>
+        <v>0.02625240250387095</v>
       </c>
       <c r="L78">
         <v>0.003265824689960483</v>
@@ -6917,13 +6917,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U78">
-        <v>1.000086474520282</v>
+        <v>8.64745202824313E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999654200598231</v>
+        <v>-3.457994017685984E-05</v>
       </c>
       <c r="W78">
-        <v>0.9997405966277561</v>
+        <v>-0.0002594033722439493</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6958,7 +6958,7 @@
         <v>1.213496904212082</v>
       </c>
       <c r="K79">
-        <v>54.82261583031395</v>
+        <v>0.04822615830313948</v>
       </c>
       <c r="L79">
         <v>0.002715864088722138</v>
@@ -6988,13 +6988,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U79">
-        <v>1.000077820338778</v>
+        <v>7.782033877812289E-05</v>
       </c>
       <c r="V79">
-        <v>0.9998616754560389</v>
+        <v>-0.0001383245439611214</v>
       </c>
       <c r="W79">
-        <v>1.000518941359626</v>
+        <v>0.0005189413596264902</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7029,7 +7029,7 @@
         <v>1.044220622173974</v>
       </c>
       <c r="K80">
-        <v>51.08160101933976</v>
+        <v>0.01081601019339762</v>
       </c>
       <c r="L80">
         <v>0.002098818250426029</v>
@@ -7059,13 +7059,13 @@
         <v>-0.125</v>
       </c>
       <c r="U80">
-        <v>1.000025938094415</v>
+        <v>2.593809441453487E-05</v>
       </c>
       <c r="V80">
-        <v>0.9998789492797481</v>
+        <v>-0.0001210507202519251</v>
       </c>
       <c r="W80">
-        <v>0.9992219917012448</v>
+        <v>-0.000778008298755184</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7100,7 +7100,7 @@
         <v>1.14211157924831</v>
       </c>
       <c r="K81">
-        <v>53.31709096353839</v>
+        <v>0.03317090963538394</v>
       </c>
       <c r="L81">
         <v>0.001661769666671786</v>
@@ -7130,13 +7130,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U81">
-        <v>1.000034583228863</v>
+        <v>3.458322886307208E-05</v>
       </c>
       <c r="V81">
-        <v>0.9999654098927706</v>
+        <v>-3.459010722939304E-05</v>
       </c>
       <c r="W81">
-        <v>1.000519076044641</v>
+        <v>0.0005190760446405207</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7171,7 +7171,7 @@
         <v>1.245154691958137</v>
       </c>
       <c r="K82">
-        <v>55.45963921408735</v>
+        <v>0.05459639214087353</v>
       </c>
       <c r="L82">
         <v>0.001544508724864033</v>
@@ -7201,13 +7201,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U82">
-        <v>1.000043227541131</v>
+        <v>4.322754113106342E-05</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W82">
-        <v>1.000518806744488</v>
+        <v>0.0005188067444876765</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7242,7 +7242,7 @@
         <v>1.181099847381677</v>
       </c>
       <c r="K83">
-        <v>54.15157168524586</v>
+        <v>0.04151571685245858</v>
       </c>
       <c r="L83">
         <v>0.001528344797179922</v>
@@ -7272,13 +7272,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0.9997407311381904</v>
+        <v>-0.0002592688618096028</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7313,7 +7313,7 @@
         <v>1.12042776123059</v>
       </c>
       <c r="K84">
-        <v>52.83970440852699</v>
+        <v>0.02839704408526988</v>
       </c>
       <c r="L84">
         <v>0.001474416350392267</v>
@@ -7343,13 +7343,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U84">
-        <v>0.9999827097309635</v>
+        <v>-1.729026903651842E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999827043481269</v>
+        <v>-1.729565187313931E-05</v>
       </c>
       <c r="W84">
-        <v>0.9997406639004148</v>
+        <v>-0.0002593360995851723</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7384,7 +7384,7 @@
         <v>1.062951041916359</v>
       </c>
       <c r="K85">
-        <v>51.52575220248274</v>
+        <v>0.01525752202482733</v>
       </c>
       <c r="L85">
         <v>0.001301207746767364</v>
@@ -7414,13 +7414,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>0.9999481121469465</v>
+        <v>-5.188785305354493E-05</v>
       </c>
       <c r="W85">
-        <v>0.9997405966277561</v>
+        <v>-0.0002594033722439493</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7455,7 +7455,7 @@
         <v>1.062951041916359</v>
       </c>
       <c r="K86">
-        <v>51.52575220248274</v>
+        <v>0.01525752202482733</v>
       </c>
       <c r="L86">
         <v>0.001062040583948345</v>
@@ -7485,13 +7485,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U86">
-        <v>0.9999913547160024</v>
+        <v>-8.645283997577025E-06</v>
       </c>
       <c r="V86">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7526,7 +7526,7 @@
         <v>1.176632829867932</v>
       </c>
       <c r="K87">
-        <v>54.05747876821856</v>
+        <v>0.04057478768218559</v>
       </c>
       <c r="L87">
         <v>0.0009832258011670618</v>
@@ -7556,13 +7556,13 @@
         <v>0.0625</v>
       </c>
       <c r="U87">
-        <v>1.000034581434957</v>
+        <v>3.458143495671528E-05</v>
       </c>
       <c r="V87">
-        <v>1.000051890545543</v>
+        <v>5.189054554288752E-05</v>
       </c>
       <c r="W87">
-        <v>1.000518941359626</v>
+        <v>0.0005189413596264902</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7597,7 +7597,7 @@
         <v>1.11020638420892</v>
       </c>
       <c r="K88">
-        <v>52.61127027748604</v>
+        <v>0.02611270277486033</v>
       </c>
       <c r="L88">
         <v>0.0009085277041323194</v>
@@ -7627,13 +7627,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U88">
-        <v>1.000034580239122</v>
+        <v>3.458023912239483E-05</v>
       </c>
       <c r="V88">
-        <v>1.000034591902036</v>
+        <v>3.459190203569662E-05</v>
       </c>
       <c r="W88">
-        <v>0.9997406639004148</v>
+        <v>-0.0002593360995851723</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7668,7 +7668,7 @@
         <v>1.110206384208921</v>
       </c>
       <c r="K89">
-        <v>52.61127027748604</v>
+        <v>0.02611270277486033</v>
       </c>
       <c r="L89">
         <v>0.0008377753542692844</v>
@@ -7698,13 +7698,13 @@
         <v>0.06249999999994316</v>
       </c>
       <c r="U89">
-        <v>0.999913552391573</v>
+        <v>-8.644760842702048E-05</v>
       </c>
       <c r="V89">
-        <v>1.000051886058216</v>
+        <v>5.188605821615511E-05</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7739,7 +7739,7 @@
         <v>1.235313738012267</v>
       </c>
       <c r="K90">
-        <v>55.26355057034449</v>
+        <v>0.05263550570344488</v>
       </c>
       <c r="L90">
         <v>0.0009598014303403434</v>
@@ -7769,13 +7769,13 @@
         <v>0.03124999999994316</v>
       </c>
       <c r="U90">
-        <v>0.9999740634753216</v>
+        <v>-2.593652467841601E-05</v>
       </c>
       <c r="V90">
-        <v>1.000086472276988</v>
+        <v>8.647227698777016E-05</v>
       </c>
       <c r="W90">
-        <v>1.000518806744488</v>
+        <v>0.0005188067444876765</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7810,7 +7810,7 @@
         <v>1.031544563308437</v>
       </c>
       <c r="K91">
-        <v>50.77636897260736</v>
+        <v>0.007763689726073553</v>
       </c>
       <c r="L91">
         <v>0.0009039485647879495</v>
@@ -7840,13 +7840,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U91">
-        <v>0.9999567713376676</v>
+        <v>-4.32286623324174E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999827070399639</v>
+        <v>-1.729296003605274E-05</v>
       </c>
       <c r="W91">
-        <v>0.9992221934145709</v>
+        <v>-0.0007778065854291416</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7881,7 +7881,7 @@
         <v>1.089422941761097</v>
       </c>
       <c r="K92">
-        <v>52.13989566147211</v>
+        <v>0.02139895661472113</v>
       </c>
       <c r="L92">
         <v>0.0008350667913788748</v>
@@ -7911,13 +7911,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U92">
-        <v>1.000034584424904</v>
+        <v>3.458442490411606E-05</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1.000259470679813</v>
+        <v>0.0002594706798131341</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7952,7 +7952,7 @@
         <v>1.089422941761097</v>
       </c>
       <c r="K93">
-        <v>52.13989566147211</v>
+        <v>0.02139895661472113</v>
       </c>
       <c r="L93">
         <v>0.0007596407579374478</v>
@@ -7982,13 +7982,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U93">
-        <v>0.9999913541927844</v>
+        <v>-8.645807215601486E-06</v>
       </c>
       <c r="V93">
-        <v>1.000017293259088</v>
+        <v>1.729325908783608E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8023,7 +8023,7 @@
         <v>0.9655759200926581</v>
       </c>
       <c r="K94">
-        <v>49.124325864103</v>
+        <v>-0.008756741358969977</v>
       </c>
       <c r="L94">
         <v>0.0004933672044204282</v>
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>0.9999048952983691</v>
+        <v>-9.510470163087703E-05</v>
       </c>
       <c r="V94">
-        <v>0.999948121119892</v>
+        <v>-5.18788801080472E-05</v>
       </c>
       <c r="W94">
-        <v>0.9994811932555123</v>
+        <v>-0.0005188067444876765</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8094,7 +8094,7 @@
         <v>1.085240451625322</v>
       </c>
       <c r="K95">
-        <v>52.04389981881663</v>
+        <v>0.0204389981881663</v>
       </c>
       <c r="L95">
         <v>0.0003155707429825524</v>
@@ -8124,13 +8124,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U95">
-        <v>0.9999567664784568</v>
+        <v>-4.32335215432289E-05</v>
       </c>
       <c r="V95">
-        <v>1.000034587714444</v>
+        <v>3.458771444408981E-05</v>
       </c>
       <c r="W95">
-        <v>1.000519076044641</v>
+        <v>0.0005190760446405207</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8165,7 +8165,7 @@
         <v>1.020940272948854</v>
       </c>
       <c r="K96">
-        <v>50.51808242997451</v>
+        <v>0.00518082429974509</v>
       </c>
       <c r="L96">
         <v>0.0001070945833342419</v>
@@ -8195,13 +8195,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U96">
-        <v>0.9999740587655432</v>
+        <v>-2.594123445676111E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999827067409123</v>
+        <v>-1.729325908772505E-05</v>
       </c>
       <c r="W96">
-        <v>0.9997405966277561</v>
+        <v>-0.0002594033722439493</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8236,7 +8236,7 @@
         <v>1.20804461053255</v>
       </c>
       <c r="K97">
-        <v>54.71105994734346</v>
+        <v>0.04711059947343454</v>
       </c>
       <c r="L97">
         <v>0.0001763089662860083</v>
@@ -8266,13 +8266,13 @@
         <v>-0.01250000000004547</v>
       </c>
       <c r="U97">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>1.00077841203944</v>
+        <v>0.0007784120394396243</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8307,7 +8307,7 @@
         <v>1.009267436658116</v>
       </c>
       <c r="K98">
-        <v>50.23061730083901</v>
+        <v>0.002306173008390089</v>
       </c>
       <c r="L98">
         <v>0.0001253197224546668</v>
@@ -8337,13 +8337,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U98">
-        <v>0.9999827053950521</v>
+        <v>-1.729460494792612E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999654128837009</v>
+        <v>-3.458711629911182E-05</v>
       </c>
       <c r="W98">
-        <v>0.9992221934145709</v>
+        <v>-0.0007778065854291416</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8378,7 +8378,7 @@
         <v>0.9541780303114757</v>
       </c>
       <c r="K99">
-        <v>48.82758968277776</v>
+        <v>-0.01172410317222244</v>
       </c>
       <c r="L99">
         <v>-9.015917989346308E-05</v>
@@ -8408,13 +8408,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U99">
-        <v>0.9999740576439153</v>
+        <v>-2.594235608466278E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999654116873908</v>
+        <v>-3.458831260916284E-05</v>
       </c>
       <c r="W99">
-        <v>0.9997405293201869</v>
+        <v>-0.0002594706798131341</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8449,7 +8449,7 @@
         <v>1.01163440577718</v>
       </c>
       <c r="K100">
-        <v>50.28917793769502</v>
+        <v>0.002891779376950177</v>
       </c>
       <c r="L100">
         <v>-0.0002967706151280633</v>
@@ -8479,13 +8479,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U100">
-        <v>0.9999740569708918</v>
+        <v>-2.594302910818858E-05</v>
       </c>
       <c r="V100">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W100">
-        <v>1.00025953802232</v>
+        <v>0.0002595380223202604</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8520,7 +8520,7 @@
         <v>0.8145718870891241</v>
       </c>
       <c r="K101">
-        <v>44.89058233982855</v>
+        <v>-0.05109417660171445</v>
       </c>
       <c r="L101">
         <v>-0.0008616081233965117</v>
@@ -8550,13 +8550,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U101">
-        <v>0.9999654083971117</v>
+        <v>-3.459160288832308E-05</v>
       </c>
       <c r="V101">
-        <v>0.9999308209819963</v>
+        <v>-6.917901800373993E-05</v>
       </c>
       <c r="W101">
-        <v>0.9989621172807474</v>
+        <v>-0.001037882719252647</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8591,7 +8591,7 @@
         <v>0.7388244257836096</v>
       </c>
       <c r="K102">
-        <v>42.48988079694445</v>
+        <v>-0.07510119203055543</v>
       </c>
       <c r="L102">
         <v>-0.001793273160841338</v>
@@ -8621,13 +8621,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U102">
-        <v>0.9999567590006139</v>
+        <v>-4.324099938612935E-05</v>
       </c>
       <c r="V102">
-        <v>0.999861632391857</v>
+        <v>-0.0001383676081430085</v>
       </c>
       <c r="W102">
-        <v>0.9994805194805195</v>
+        <v>-0.0005194805194804752</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8662,7 +8662,7 @@
         <v>0.7388244257836096</v>
       </c>
       <c r="K103">
-        <v>42.48988079694445</v>
+        <v>-0.07510119203055543</v>
       </c>
       <c r="L103">
         <v>-0.002881311048240608</v>
@@ -8692,13 +8692,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U103">
-        <v>0.9999567571307493</v>
+        <v>-4.324286925072585E-05</v>
       </c>
       <c r="V103">
-        <v>0.999878911588161</v>
+        <v>-0.0001210884118389988</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8733,7 +8733,7 @@
         <v>0.7026263178119765</v>
       </c>
       <c r="K104">
-        <v>41.26720645989501</v>
+        <v>-0.08732793540104994</v>
       </c>
       <c r="L104">
         <v>-0.004078784243707664</v>
@@ -8763,13 +8763,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U104">
-        <v>0.9999567552607223</v>
+        <v>-4.324473927774797E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998615964845506</v>
+        <v>-0.000138403515449359</v>
       </c>
       <c r="W104">
-        <v>0.9997401247401246</v>
+        <v>-0.000259875259875364</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8804,7 +8804,7 @@
         <v>0.8573448282699954</v>
       </c>
       <c r="K105">
-        <v>46.15970148464894</v>
+        <v>-0.03840298515351059</v>
       </c>
       <c r="L105">
         <v>-0.004968073893204489</v>
@@ -8834,13 +8834,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U105">
-        <v>0.9999827013562138</v>
+        <v>-1.729864378618995E-05</v>
       </c>
       <c r="V105">
-        <v>0.9998788801605704</v>
+        <v>-0.0001211198394296398</v>
       </c>
       <c r="W105">
-        <v>1.000779828437744</v>
+        <v>0.0007798284377438236</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8875,7 +8875,7 @@
         <v>0.8131985582226812</v>
       </c>
       <c r="K106">
-        <v>44.84884209370804</v>
+        <v>-0.05151157906291959</v>
       </c>
       <c r="L106">
         <v>-0.005690415878996924</v>
@@ -8905,13 +8905,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U106">
-        <v>0.9999481031708963</v>
+        <v>-5.189682910367033E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999134753491269</v>
+        <v>-8.65246508731099E-05</v>
       </c>
       <c r="W106">
-        <v>0.9997402597402597</v>
+        <v>-0.0002597402597402931</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8946,7 +8946,7 @@
         <v>0.771387836490793</v>
       </c>
       <c r="K107">
-        <v>43.54708893219852</v>
+        <v>-0.06452911067801481</v>
       </c>
       <c r="L107">
         <v>-0.006339394723606728</v>
@@ -8976,13 +8976,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U107">
-        <v>0.9999394505570549</v>
+        <v>-6.054944294509035E-05</v>
       </c>
       <c r="V107">
-        <v>0.9998788550067497</v>
+        <v>-0.0001211449932503328</v>
       </c>
       <c r="W107">
-        <v>0.9997401922577294</v>
+        <v>-0.0002598077422706346</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9017,7 +9017,7 @@
         <v>0.6960461260635165</v>
       </c>
       <c r="K108">
-        <v>41.03933940045742</v>
+        <v>-0.0896066059954258</v>
       </c>
       <c r="L108">
         <v>-0.007068522802953311</v>
@@ -9047,13 +9047,13 @@
         <v>-0.3062500000000341</v>
       </c>
       <c r="U108">
-        <v>0.9999307964463976</v>
+        <v>-6.920355360240382E-05</v>
       </c>
       <c r="V108">
-        <v>0.9998442232799654</v>
+        <v>-0.0001557767200346394</v>
       </c>
       <c r="W108">
-        <v>0.9994802494802495</v>
+        <v>-0.0005197505197505059</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9088,7 +9088,7 @@
         <v>0.6960461260635163</v>
       </c>
       <c r="K109">
-        <v>41.03933940045742</v>
+        <v>-0.0896066059954258</v>
       </c>
       <c r="L109">
         <v>-0.007774107147166513</v>
@@ -9118,13 +9118,13 @@
         <v>-0.2999999999999545</v>
       </c>
       <c r="U109">
-        <v>0.9999134895711678</v>
+        <v>-8.651042883223159E-05</v>
       </c>
       <c r="V109">
-        <v>0.9998788214520652</v>
+        <v>-0.0001211785479348082</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9159,7 +9159,7 @@
         <v>0.628074644031234</v>
       </c>
       <c r="K110">
-        <v>38.57775479360543</v>
+        <v>-0.1142224520639457</v>
       </c>
       <c r="L110">
         <v>-0.008581252084277418</v>
@@ -9189,13 +9189,13 @@
         <v>-0.2937500000000455</v>
       </c>
       <c r="U110">
-        <v>0.9999221338778194</v>
+        <v>-7.786612218063649E-05</v>
       </c>
       <c r="V110">
-        <v>0.9998095534894995</v>
+        <v>-0.000190446510500486</v>
       </c>
       <c r="W110">
-        <v>0.9994799791991679</v>
+        <v>-0.0005200208008321328</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9230,7 +9230,7 @@
         <v>0.730868016159714</v>
       </c>
       <c r="K111">
-        <v>42.22551975865235</v>
+        <v>-0.07774480241347648</v>
       </c>
       <c r="L111">
         <v>-0.009178368990933229</v>
@@ -9260,13 +9260,13 @@
         <v>-0.2624999999999318</v>
       </c>
       <c r="U111">
-        <v>0.9999221278142142</v>
+        <v>-7.787218578581001E-05</v>
       </c>
       <c r="V111">
-        <v>0.9998614670637944</v>
+        <v>-0.000138532936205582</v>
       </c>
       <c r="W111">
-        <v>1.000520291363163</v>
+        <v>0.0005202913631634498</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9301,7 +9301,7 @@
         <v>0.7308680161597138</v>
       </c>
       <c r="K112">
-        <v>42.22551975865234</v>
+        <v>-0.07774480241347659</v>
       </c>
       <c r="L112">
         <v>-0.009576841296750967</v>
@@ -9331,13 +9331,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U112">
-        <v>0.9999048154718125</v>
+        <v>-9.518452818746415E-05</v>
       </c>
       <c r="V112">
-        <v>0.9998094908209213</v>
+        <v>-0.0001905091790787017</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9372,7 +9372,7 @@
         <v>0.7308680161597139</v>
       </c>
       <c r="K113">
-        <v>42.22551975865235</v>
+        <v>-0.07774480241347653</v>
       </c>
       <c r="L113">
         <v>-0.009794756923566279</v>
@@ -9402,13 +9402,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U113">
-        <v>0.9999134603735049</v>
+        <v>-8.653962649507463E-05</v>
       </c>
       <c r="V113">
-        <v>0.999861421469279</v>
+        <v>-0.0001385785307209675</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9443,7 +9443,7 @@
         <v>0.730868016159714</v>
       </c>
       <c r="K114">
-        <v>42.22551975865235</v>
+        <v>-0.07774480241347648</v>
       </c>
       <c r="L114">
         <v>-0.0098537723715376</v>
@@ -9473,13 +9473,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U114">
-        <v>0.999922107595375</v>
+        <v>-7.789240462496849E-05</v>
       </c>
       <c r="V114">
-        <v>0.999878726979782</v>
+        <v>-0.0001212730202180268</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9514,7 +9514,7 @@
         <v>0.730868016159714</v>
       </c>
       <c r="K115">
-        <v>42.22551975865235</v>
+        <v>-0.07774480241347648</v>
       </c>
       <c r="L115">
         <v>-0.009776907067317308</v>
@@ -9544,13 +9544,13 @@
         <v>-0.1749999999999545</v>
       </c>
       <c r="U115">
-        <v>0.9999307569134894</v>
+        <v>-6.924308651057309E-05</v>
       </c>
       <c r="V115">
-        <v>0.9998613854524033</v>
+        <v>-0.0001386145475966716</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9585,7 +9585,7 @@
         <v>0.6853454608840371</v>
       </c>
       <c r="K116">
-        <v>40.66498393299992</v>
+        <v>-0.09335016067000085</v>
       </c>
       <c r="L116">
         <v>-0.009681590156934174</v>
@@ -9615,13 +9615,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U116">
-        <v>0.9999220961333715</v>
+        <v>-7.790386662853699E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999133538973416</v>
+        <v>-8.664610265840533E-05</v>
       </c>
       <c r="W116">
-        <v>0.9997399895995839</v>
+        <v>-0.0002600104004161219</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9656,7 +9656,7 @@
         <v>0.7509092537687474</v>
       </c>
       <c r="K117">
-        <v>42.88681735803564</v>
+        <v>-0.07113182641964366</v>
       </c>
       <c r="L117">
         <v>-0.009451394880751075</v>
@@ -9686,13 +9686,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U117">
-        <v>0.9999134334043178</v>
+        <v>-8.656659568218039E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999653385556575</v>
+        <v>-3.466144434249863E-05</v>
       </c>
       <c r="W117">
-        <v>1.000260078023407</v>
+        <v>0.0002600780234069955</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9727,7 +9727,7 @@
         <v>0.7024312958755643</v>
       </c>
       <c r="K118">
-        <v>41.26047832751467</v>
+        <v>-0.08739521672485329</v>
       </c>
       <c r="L118">
         <v>-0.009214312848098054</v>
@@ -9757,13 +9757,13 @@
         <v>-0.07499999999993179</v>
       </c>
       <c r="U118">
-        <v>0.9999134259098937</v>
+        <v>-8.657409010626171E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999480060313004</v>
+        <v>-5.199396869959294E-05</v>
       </c>
       <c r="W118">
-        <v>0.9997399895995839</v>
+        <v>-0.0002600104004161219</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9798,7 +9798,7 @@
         <v>0.6577337785365736</v>
       </c>
       <c r="K119">
-        <v>39.67668313528682</v>
+        <v>-0.1032331686471318</v>
       </c>
       <c r="L119">
         <v>-0.009049223019900321</v>
@@ -9828,13 +9828,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U119">
-        <v>0.9999047602555888</v>
+        <v>-9.523974441116856E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999480033277871</v>
+        <v>-5.199667221289506E-05</v>
       </c>
       <c r="W119">
-        <v>0.9997399219765929</v>
+        <v>-0.0002600780234071065</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9869,7 +9869,7 @@
         <v>0.7247154442565247</v>
       </c>
       <c r="K120">
-        <v>42.01942103956335</v>
+        <v>-0.07980578960436646</v>
       </c>
       <c r="L120">
         <v>-0.008810778712351508</v>
@@ -9899,13 +9899,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U120">
-        <v>0.9998960922008537</v>
+        <v>-0.0001039077991462634</v>
       </c>
       <c r="V120">
-        <v>0.999913334373321</v>
+        <v>-8.666562667902777E-05</v>
       </c>
       <c r="W120">
-        <v>1.000260145681582</v>
+        <v>0.0002601456815818359</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9940,7 +9940,7 @@
         <v>0.7247154442565247</v>
       </c>
       <c r="K121">
-        <v>42.01942103956335</v>
+        <v>-0.07980578960436646</v>
       </c>
       <c r="L121">
         <v>-0.008511016330250153</v>
@@ -9970,13 +9970,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U121">
-        <v>0.9999220610521757</v>
+        <v>-7.793894782426314E-05</v>
       </c>
       <c r="V121">
-        <v>0.9999306614893912</v>
+        <v>-6.933851060875185E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10011,7 +10011,7 @@
         <v>0.7247154442565246</v>
       </c>
       <c r="K122">
-        <v>42.01942103956335</v>
+        <v>-0.07980578960436646</v>
       </c>
       <c r="L122">
         <v>-0.00816222265103924</v>
@@ -10041,13 +10041,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U122">
-        <v>0.9999133944191364</v>
+        <v>-8.660558086359682E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999479925109215</v>
+        <v>-5.200748907852049E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10082,7 +10082,7 @@
         <v>0.8809636803724182</v>
       </c>
       <c r="K123">
-        <v>46.83576241078687</v>
+        <v>-0.03164237589213131</v>
       </c>
       <c r="L123">
         <v>-0.00758700652387529</v>
@@ -10112,13 +10112,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U123">
-        <v>0.999930709534368</v>
+        <v>-6.929046563197705E-05</v>
       </c>
       <c r="V123">
-        <v>1.000017336731333</v>
+        <v>1.733673133275104E-05</v>
       </c>
       <c r="W123">
-        <v>1.000520156046814</v>
+        <v>0.000520156046813991</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10153,7 +10153,7 @@
         <v>0.8809636803724182</v>
       </c>
       <c r="K124">
-        <v>46.83576241078687</v>
+        <v>-0.03164237589213131</v>
       </c>
       <c r="L124">
         <v>-0.006883596585021785</v>
@@ -10183,13 +10183,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U124">
-        <v>0.9999480285496501</v>
+        <v>-5.197145034985251E-05</v>
       </c>
       <c r="V124">
-        <v>1.000017336430776</v>
+        <v>1.733643077561631E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10224,7 +10224,7 @@
         <v>0.6993482765388073</v>
       </c>
       <c r="K125">
-        <v>41.15391095480577</v>
+        <v>-0.08846089045194228</v>
       </c>
       <c r="L125">
         <v>-0.00640612600979625</v>
@@ -10254,13 +10254,13 @@
         <v>-0.01875000000006821</v>
       </c>
       <c r="U125">
-        <v>0.9999047140555432</v>
+        <v>-9.528594445684657E-05</v>
       </c>
       <c r="V125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W125">
-        <v>0.9992201715622563</v>
+        <v>-0.0007798284377437126</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10295,7 +10295,7 @@
         <v>0.6521731846616458</v>
       </c>
       <c r="K126">
-        <v>39.47365752672027</v>
+        <v>-0.1052634247327973</v>
       </c>
       <c r="L126">
         <v>-0.006167303876314322</v>
@@ -10325,13 +10325,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U126">
-        <v>0.9999047049752665</v>
+        <v>-9.529502473348828E-05</v>
       </c>
       <c r="V126">
-        <v>0.999947991609313</v>
+        <v>-5.200839068697505E-05</v>
       </c>
       <c r="W126">
-        <v>0.9997398543184184</v>
+        <v>-0.0002601456815816139</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10366,7 +10366,7 @@
         <v>0.6089350813082416</v>
       </c>
       <c r="K127">
-        <v>37.84708832460228</v>
+        <v>-0.1215291167539773</v>
       </c>
       <c r="L127">
         <v>-0.006160508144903927</v>
@@ -10396,13 +10396,13 @@
         <v>-0.03750000000007958</v>
       </c>
       <c r="U127">
-        <v>0.9998700398544446</v>
+        <v>-0.0001299601455554411</v>
       </c>
       <c r="V127">
-        <v>0.9999306518723995</v>
+        <v>-6.934812760051035E-05</v>
       </c>
       <c r="W127">
-        <v>0.9997397866250325</v>
+        <v>-0.0002602133749675106</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10437,7 +10437,7 @@
         <v>0.6089350813082418</v>
       </c>
       <c r="K128">
-        <v>37.84708832460228</v>
+        <v>-0.1215291167539773</v>
       </c>
       <c r="L128">
         <v>-0.006272338078035352</v>
@@ -10467,13 +10467,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U128">
-        <v>0.999896018370088</v>
+        <v>-0.0001039816299119867</v>
       </c>
       <c r="V128">
-        <v>0.9999306470629029</v>
+        <v>-6.935293709708912E-05</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10508,7 +10508,7 @@
         <v>0.6823960222362276</v>
       </c>
       <c r="K129">
-        <v>40.56096265189645</v>
+        <v>-0.09439037348103552</v>
       </c>
       <c r="L129">
         <v>-0.006331466682005798</v>
@@ -10538,13 +10538,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U129">
-        <v>0.9999133396306533</v>
+        <v>-8.666036934668053E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999479816895549</v>
+        <v>-5.201831044510108E-05</v>
       </c>
       <c r="W129">
-        <v>1.000260281103592</v>
+        <v>0.0002602811035918862</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10579,7 +10579,7 @@
         <v>0.5909957963711777</v>
       </c>
       <c r="K130">
-        <v>37.14628270666399</v>
+        <v>-0.1285371729333601</v>
       </c>
       <c r="L130">
         <v>-0.006521177530163721</v>
@@ -10609,13 +10609,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U130">
-        <v>0.999887331755978</v>
+        <v>-0.0001126682440220073</v>
       </c>
       <c r="V130">
-        <v>0.9999132983058486</v>
+        <v>-8.670169415136986E-05</v>
       </c>
       <c r="W130">
-        <v>0.9994795732500651</v>
+        <v>-0.0005204267499349102</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10650,7 +10650,7 @@
         <v>0.5909957963711778</v>
       </c>
       <c r="K131">
-        <v>37.14628270666399</v>
+        <v>-0.1285371729333601</v>
       </c>
       <c r="L131">
         <v>-0.006754222099506058</v>
@@ -10680,13 +10680,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U131">
-        <v>0.9999219901187485</v>
+        <v>-7.800988125150621E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999306326304107</v>
+        <v>-6.936736958929046E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10721,7 +10721,7 @@
         <v>0.5909957963711779</v>
       </c>
       <c r="K132">
-        <v>37.14628270666399</v>
+        <v>-0.1285371729333601</v>
       </c>
       <c r="L132">
         <v>-0.006974125274805026</v>
@@ -10751,13 +10751,13 @@
         <v>-0.1687499999999318</v>
       </c>
       <c r="U132">
-        <v>0.9999393209143472</v>
+        <v>-6.067908565277058E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999132847728062</v>
+        <v>-8.671522719383429E-05</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10792,7 +10792,7 @@
         <v>0.5111442316789966</v>
       </c>
       <c r="K133">
-        <v>33.82497983736975</v>
+        <v>-0.1617502016263025</v>
       </c>
       <c r="L133">
         <v>-0.007336053402550097</v>
@@ -10822,13 +10822,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U133">
-        <v>0.9999219792985071</v>
+        <v>-7.802070149287577E-05</v>
       </c>
       <c r="V133">
-        <v>0.9998959327031481</v>
+        <v>-0.0001040672968518619</v>
       </c>
       <c r="W133">
-        <v>0.999479302265035</v>
+        <v>-0.0005206977349649922</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10863,7 +10863,7 @@
         <v>0.4772087632746053</v>
       </c>
       <c r="K134">
-        <v>32.30476119142104</v>
+        <v>-0.1769523880857896</v>
       </c>
       <c r="L134">
         <v>-0.007829014778631861</v>
@@ -10893,13 +10893,13 @@
         <v>-0.2062500000000682</v>
       </c>
       <c r="U134">
-        <v>0.9999219732108023</v>
+        <v>-7.802678919766048E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998959218720186</v>
+        <v>-0.0001040781279814107</v>
       </c>
       <c r="W134">
-        <v>0.9997395154988279</v>
+        <v>-0.0002604845011721091</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10934,7 +10934,7 @@
         <v>0.4772087632746052</v>
       </c>
       <c r="K135">
-        <v>32.30476119142102</v>
+        <v>-0.1769523880857898</v>
       </c>
       <c r="L135">
         <v>-0.008341540090636238</v>
@@ -10964,13 +10964,13 @@
         <v>-0.2187499999999432</v>
       </c>
       <c r="U135">
-        <v>0.9998959561628634</v>
+        <v>-0.0001040438371365804</v>
       </c>
       <c r="V135">
-        <v>0.9998785628784066</v>
+        <v>-0.000121437121593404</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11005,7 +11005,7 @@
         <v>0.5507723970015551</v>
       </c>
       <c r="K136">
-        <v>35.51600467396008</v>
+        <v>-0.1448399532603992</v>
       </c>
       <c r="L136">
         <v>-0.008708277450002288</v>
@@ -11035,13 +11035,13 @@
         <v>-0.2187499999999432</v>
       </c>
       <c r="U136">
-        <v>0.9999132877805139</v>
+        <v>-8.671221948608476E-05</v>
       </c>
       <c r="V136">
-        <v>0.9998958983968355</v>
+        <v>-0.0001041016031645414</v>
       </c>
       <c r="W136">
-        <v>1.000260552371026</v>
+        <v>0.0002605523710264013</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11076,7 +11076,7 @@
         <v>0.5507723970015552</v>
       </c>
       <c r="K137">
-        <v>35.51600467396008</v>
+        <v>-0.1448399532603992</v>
       </c>
       <c r="L137">
         <v>-0.008931663433657769</v>
@@ -11106,13 +11106,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U137">
-        <v>0.9999219522347678</v>
+        <v>-7.804776523223644E-05</v>
       </c>
       <c r="V137">
-        <v>0.9998958875585632</v>
+        <v>-0.0001041124414368211</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11147,7 +11147,7 @@
         <v>0.5092619693204937</v>
       </c>
       <c r="K138">
-        <v>33.74245026194993</v>
+        <v>-0.1625754973805008</v>
       </c>
       <c r="L138">
         <v>-0.009116198547164632</v>
@@ -11177,13 +11177,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U138">
-        <v>0.9999306187936343</v>
+        <v>-6.938120636568179E-05</v>
       </c>
       <c r="V138">
-        <v>0.9998438150770513</v>
+        <v>-0.0001561849229486656</v>
       </c>
       <c r="W138">
-        <v>0.9997395154988279</v>
+        <v>-0.0002604845011721091</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11218,7 +11218,7 @@
         <v>0.5092619693204936</v>
       </c>
       <c r="K139">
-        <v>33.74245026194993</v>
+        <v>-0.1625754973805008</v>
       </c>
       <c r="L139">
         <v>-0.009232301264455713</v>
@@ -11248,13 +11248,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U139">
-        <v>0.9999306139795484</v>
+        <v>-6.938602045158948E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998437906795106</v>
+        <v>-0.000156209320489431</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11289,7 +11289,7 @@
         <v>0.4363781930933052</v>
       </c>
       <c r="K140">
-        <v>30.3804523900175</v>
+        <v>-0.196195476099825</v>
       </c>
       <c r="L140">
         <v>-0.00945544060306565</v>
@@ -11319,13 +11319,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U140">
-        <v>0.9999306091647946</v>
+        <v>-6.939083520540734E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998611255771966</v>
+        <v>-0.0001388744228033589</v>
       </c>
       <c r="W140">
-        <v>0.9994788952579469</v>
+        <v>-0.0005211047420531356</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11360,7 +11360,7 @@
         <v>0.4363781930933052</v>
       </c>
       <c r="K141">
-        <v>30.3804523900175</v>
+        <v>-0.196195476099825</v>
       </c>
       <c r="L141">
         <v>-0.009694875211363389</v>
@@ -11390,13 +11390,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U141">
-        <v>0.9999132554367154</v>
+        <v>-8.674456328461311E-05</v>
       </c>
       <c r="V141">
-        <v>0.9998784680023614</v>
+        <v>-0.0001215319976386464</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11431,7 +11431,7 @@
         <v>0.5949560010864745</v>
       </c>
       <c r="K142">
-        <v>37.30234568735401</v>
+        <v>-0.1269765431264599</v>
       </c>
       <c r="L142">
         <v>-0.009704205792691784</v>
@@ -11461,13 +11461,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U142">
-        <v>0.9999305983291549</v>
+        <v>-6.940167084512616E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999305447031653</v>
+        <v>-6.9455296834664E-05</v>
       </c>
       <c r="W142">
-        <v>1.000521376433785</v>
+        <v>0.0005213764337852478</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11502,7 +11502,7 @@
         <v>0.4758178635087598</v>
       </c>
       <c r="K143">
-        <v>32.24096111545241</v>
+        <v>-0.177590388845476</v>
       </c>
       <c r="L143">
         <v>-0.009822484407853761</v>
@@ -11532,13 +11532,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U143">
-        <v>0.9999045660793142</v>
+        <v>-9.543392068578349E-05</v>
       </c>
       <c r="V143">
-        <v>0.9998784447878862</v>
+        <v>-0.0001215552121137664</v>
       </c>
       <c r="W143">
-        <v>0.9992183428869202</v>
+        <v>-0.0007816571130797589</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11573,7 +11573,7 @@
         <v>0.5460799588806801</v>
       </c>
       <c r="K144">
-        <v>35.32029218437235</v>
+        <v>-0.1467970781562765</v>
       </c>
       <c r="L144">
         <v>-0.00986878919182811</v>
@@ -11603,13 +11603,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U144">
-        <v>0.999913233609829</v>
+        <v>-8.67663901710225E-05</v>
       </c>
       <c r="V144">
-        <v>0.9998784300104201</v>
+        <v>-0.0001215699895799061</v>
       </c>
       <c r="W144">
-        <v>1.00026075619296</v>
+        <v>0.0002607561929597324</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11644,7 +11644,7 @@
         <v>0.9898405612295236</v>
       </c>
       <c r="K145">
-        <v>49.74471726608591</v>
+        <v>-0.002552827339140917</v>
       </c>
       <c r="L145">
         <v>-0.009263981877981149</v>
@@ -11674,13 +11674,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U145">
-        <v>0.9999652904323075</v>
+        <v>-3.470956769247024E-05</v>
       </c>
       <c r="V145">
-        <v>1.000017369252949</v>
+        <v>1.736925294881786E-05</v>
       </c>
       <c r="W145">
-        <v>1.001564129301356</v>
+        <v>0.001564129301355521</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11715,7 +11715,7 @@
         <v>0.9183448972362874</v>
       </c>
       <c r="K146">
-        <v>47.87173039422287</v>
+        <v>-0.02128269605777128</v>
       </c>
       <c r="L146">
         <v>-0.008364153629671823</v>
@@ -11745,13 +11745,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U146">
-        <v>0.9999652892275118</v>
+        <v>-3.471077248817789E-05</v>
       </c>
       <c r="V146">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W146">
-        <v>0.9997397188964082</v>
+        <v>-0.0002602811035917751</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11786,7 +11786,7 @@
         <v>0.8534557785488995</v>
       </c>
       <c r="K147">
-        <v>46.04673002865403</v>
+        <v>-0.03953269971345968</v>
       </c>
       <c r="L147">
         <v>-0.007407184228692343</v>
@@ -11816,13 +11816,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U147">
-        <v>0.9999479320339482</v>
+        <v>-5.206796605183861E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999826310487373</v>
+        <v>-1.736895126269733E-05</v>
       </c>
       <c r="W147">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11857,7 +11857,7 @@
         <v>0.9278334286735604</v>
       </c>
       <c r="K148">
-        <v>48.12829857981834</v>
+        <v>-0.0187170142018166</v>
       </c>
       <c r="L148">
         <v>-0.006354769087418763</v>
@@ -11887,13 +11887,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U148">
-        <v>0.9999652862151561</v>
+        <v>-3.471378484387611E-05</v>
       </c>
       <c r="V148">
-        <v>1.000034738505897</v>
+        <v>3.473850589674754E-05</v>
       </c>
       <c r="W148">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11928,7 +11928,7 @@
         <v>0.8604656272348542</v>
       </c>
       <c r="K149">
-        <v>46.25001476182791</v>
+        <v>-0.03749985238172093</v>
       </c>
       <c r="L149">
         <v>-0.005383218487867658</v>
@@ -11958,13 +11958,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U149">
-        <v>0.9999652850100674</v>
+        <v>-3.47149899325716E-05</v>
       </c>
       <c r="V149">
-        <v>1.000034737299175</v>
+        <v>3.473729917491397E-05</v>
       </c>
       <c r="W149">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11999,7 +11999,7 @@
         <v>0.9368947286307986</v>
       </c>
       <c r="K150">
-        <v>48.37096796133544</v>
+        <v>-0.01629032038664563</v>
       </c>
       <c r="L150">
         <v>-0.0044081457164473</v>
@@ -12029,13 +12029,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U150">
-        <v>0.999965283804895</v>
+        <v>-3.471619510497792E-05</v>
       </c>
       <c r="V150">
-        <v>1.000052104138806</v>
+        <v>5.210413880574194E-05</v>
       </c>
       <c r="W150">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12070,7 +12070,7 @@
         <v>0.9368947286307987</v>
       </c>
       <c r="K151">
-        <v>48.37096796133545</v>
+        <v>-0.01629032038664557</v>
       </c>
       <c r="L151">
         <v>-0.003477005154376842</v>
@@ -12100,13 +12100,13 @@
         <v>0.1437499999999545</v>
       </c>
       <c r="U151">
-        <v>0.999965282599639</v>
+        <v>-3.471740036098403E-05</v>
       </c>
       <c r="V151">
-        <v>1.000034734282737</v>
+        <v>3.473428273692569E-05</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12141,7 +12141,7 @@
         <v>0.8637474270440553</v>
       </c>
       <c r="K152">
-        <v>46.3446610045213</v>
+        <v>-0.03655338995478702</v>
       </c>
       <c r="L152">
         <v>-0.0027139676585702</v>
@@ -12171,13 +12171,13 @@
         <v>0.1875</v>
       </c>
       <c r="U152">
-        <v>0.999956601742874</v>
+        <v>-4.339825712595946E-05</v>
       </c>
       <c r="V152">
-        <v>1.000017366538154</v>
+        <v>1.736653815420652E-05</v>
       </c>
       <c r="W152">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12212,7 +12212,7 @@
         <v>0.9459307900324656</v>
       </c>
       <c r="K153">
-        <v>48.61071086791755</v>
+        <v>-0.01389289132082444</v>
       </c>
       <c r="L153">
         <v>-0.001996696898459412</v>
@@ -12242,13 +12242,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U153">
-        <v>0.99994791983126</v>
+        <v>-5.208016874003185E-05</v>
       </c>
       <c r="V153">
-        <v>1.000052098709689</v>
+        <v>5.209870968880814E-05</v>
       </c>
       <c r="W153">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12283,7 +12283,7 @@
         <v>0.9459307900324655</v>
       </c>
       <c r="K154">
-        <v>48.61071086791755</v>
+        <v>-0.01389289132082455</v>
       </c>
       <c r="L154">
         <v>-0.001345588093736656</v>
@@ -12313,13 +12313,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U154">
-        <v>0.9999479171187752</v>
+        <v>-5.208288122482418E-05</v>
       </c>
       <c r="V154">
-        <v>1.000052095995554</v>
+        <v>5.209599555433542E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12354,7 +12354,7 @@
         <v>0.8669817832743745</v>
       </c>
       <c r="K155">
-        <v>46.43761342726297</v>
+        <v>-0.03562386572737031</v>
       </c>
       <c r="L155">
         <v>-0.0008659812919892543</v>
@@ -12384,13 +12384,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U155">
-        <v>0.9999652762706716</v>
+        <v>-3.472372932844525E-05</v>
       </c>
       <c r="V155">
-        <v>1.000069457708938</v>
+        <v>6.945770893751479E-05</v>
       </c>
       <c r="W155">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12425,7 +12425,7 @@
         <v>1.042690658629241</v>
       </c>
       <c r="K156">
-        <v>51.04496142009797</v>
+        <v>0.01044961420097967</v>
       </c>
       <c r="L156">
         <v>-0.000328035811680132</v>
@@ -12455,13 +12455,13 @@
         <v>0.1062499999999318</v>
       </c>
       <c r="U156">
-        <v>0.9999913187662229</v>
+        <v>-8.681233777063646E-06</v>
       </c>
       <c r="V156">
-        <v>1.000104179327349</v>
+        <v>0.0001041793273490743</v>
       </c>
       <c r="W156">
-        <v>1.000520833333333</v>
+        <v>0.0005208333333333037</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12496,7 +12496,7 @@
         <v>0.9544268345708701</v>
       </c>
       <c r="K157">
-        <v>48.83410408046468</v>
+        <v>-0.01165895919535315</v>
       </c>
       <c r="L157">
         <v>0.0001173391348405832</v>
@@ -12526,13 +12526,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U157">
-        <v>0.9999913186908588</v>
+        <v>-8.681309141223004E-06</v>
       </c>
       <c r="V157">
-        <v>1.000052084237573</v>
+        <v>5.208423757330216E-05</v>
       </c>
       <c r="W157">
-        <v>0.9997397188964082</v>
+        <v>-0.0002602811035917751</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12567,7 +12567,7 @@
         <v>0.8763402528180606</v>
       </c>
       <c r="K158">
-        <v>46.70476218275934</v>
+        <v>-0.03295237817240659</v>
       </c>
       <c r="L158">
         <v>0.00038299276590565</v>
@@ -12597,13 +12597,13 @@
         <v>0.06250000000005684</v>
       </c>
       <c r="U158">
-        <v>0.9999826372309856</v>
+        <v>-1.736276901442846E-05</v>
       </c>
       <c r="V158">
-        <v>1.000086802541579</v>
+        <v>8.680254157855671E-05</v>
       </c>
       <c r="W158">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12638,7 +12638,7 @@
         <v>0.7475759496001079</v>
       </c>
       <c r="K159">
-        <v>42.77788039891332</v>
+        <v>-0.07222119601086679</v>
       </c>
       <c r="L159">
         <v>0.0003317879360896983</v>
@@ -12668,13 +12668,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U159">
-        <v>0.9999565923237864</v>
+        <v>-4.340767621358044E-05</v>
       </c>
       <c r="V159">
-        <v>1.000034718003021</v>
+        <v>3.471800302068395E-05</v>
       </c>
       <c r="W159">
-        <v>0.9994791666666667</v>
+        <v>-0.0005208333333333037</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12709,7 +12709,7 @@
         <v>0.7475759496001079</v>
       </c>
       <c r="K160">
-        <v>42.77788039891332</v>
+        <v>-0.07222119601086679</v>
       </c>
       <c r="L160">
         <v>9.067925593374307E-05</v>
@@ -12739,13 +12739,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U160">
-        <v>0.9999739542636871</v>
+        <v>-2.604573631292961E-05</v>
       </c>
       <c r="V160">
-        <v>0.9999305664045548</v>
+        <v>-6.943359544520078E-05</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12780,7 +12780,7 @@
         <v>0.910383863262108</v>
       </c>
       <c r="K161">
-        <v>47.65449922234826</v>
+        <v>-0.02345500777651738</v>
       </c>
       <c r="L161">
         <v>-6.079041393463745E-05</v>
@@ -12810,13 +12810,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U161">
-        <v>0.9999913178617629</v>
+        <v>-8.682138237126047E-06</v>
       </c>
       <c r="V161">
-        <v>0.999982640395799</v>
+        <v>-1.735960420101712E-05</v>
       </c>
       <c r="W161">
-        <v>1.000521104742053</v>
+        <v>0.0005211047420530246</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12851,7 +12851,7 @@
         <v>0.9960722388737115</v>
       </c>
       <c r="K162">
-        <v>49.90161275103689</v>
+        <v>-0.0009838724896311657</v>
       </c>
       <c r="L162">
         <v>-5.325525876355315E-05</v>
@@ -12881,13 +12881,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V162">
-        <v>1.000017359905562</v>
+        <v>1.735990556217537E-05</v>
       </c>
       <c r="W162">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12922,7 +12922,7 @@
         <v>0.9136615310287977</v>
       </c>
       <c r="K163">
-        <v>47.74415518179993</v>
+        <v>-0.0225584481820007</v>
       </c>
       <c r="L163">
         <v>-4.450346616987517E-05</v>
@@ -12952,13 +12952,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U163">
-        <v>1.000008682213617</v>
+        <v>8.682213617383638E-06</v>
       </c>
       <c r="V163">
-        <v>0.9999826403957989</v>
+        <v>-1.735960420112814E-05</v>
       </c>
       <c r="W163">
-        <v>0.9997396511325175</v>
+        <v>-0.0002603488674824961</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12993,7 +12993,7 @@
         <v>1.000751713984856</v>
       </c>
       <c r="K164">
-        <v>50.0187857888513</v>
+        <v>0.0001878578885129434</v>
       </c>
       <c r="L164">
         <v>5.94162864044157E-05</v>
@@ -13023,13 +13023,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U164">
-        <v>1.000026046414711</v>
+        <v>2.604641471104507E-05</v>
       </c>
       <c r="V164">
-        <v>1.000017359905562</v>
+        <v>1.735990556217537E-05</v>
       </c>
       <c r="W164">
-        <v>1.000260416666667</v>
+        <v>0.0002604166666666519</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13064,7 +13064,7 @@
         <v>1.092425590780654</v>
       </c>
       <c r="K165">
-        <v>52.20857532970077</v>
+        <v>0.02208575329700768</v>
       </c>
       <c r="L165">
         <v>0.0003089791703973564</v>
@@ -13094,13 +13094,13 @@
         <v>-0.04374999999993179</v>
       </c>
       <c r="U165">
-        <v>1.000034727648417</v>
+        <v>3.472764841716547E-05</v>
       </c>
       <c r="V165">
-        <v>1.000017359604201</v>
+        <v>1.735960420079508E-05</v>
       </c>
       <c r="W165">
-        <v>1.000260348867482</v>
+        <v>0.0002603488674823851</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13135,7 +13135,7 @@
         <v>1.381922043820129</v>
       </c>
       <c r="K166">
-        <v>58.01709788972777</v>
+        <v>0.08017097889727776</v>
       </c>
       <c r="L166">
         <v>0.0009142250805668281</v>
@@ -13165,13 +13165,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U166">
-        <v>1.000052089663674</v>
+        <v>5.208966367442613E-05</v>
       </c>
       <c r="V166">
-        <v>1.000069437211402</v>
+        <v>6.943721140162395E-05</v>
       </c>
       <c r="W166">
-        <v>1.000780843310776</v>
+        <v>0.0007808433107756585</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13206,7 +13206,7 @@
         <v>1.381922043820129</v>
       </c>
       <c r="K167">
-        <v>58.01709788972777</v>
+        <v>0.08017097889727776</v>
       </c>
       <c r="L167">
         <v>0.001693042264224636</v>
@@ -13236,13 +13236,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U167">
-        <v>1.000052086950483</v>
+        <v>5.20869504827548E-05</v>
       </c>
       <c r="V167">
-        <v>1.000086790487763</v>
+        <v>8.679048776261133E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13277,7 +13277,7 @@
         <v>1.248434555152157</v>
       </c>
       <c r="K168">
-        <v>55.5246116588736</v>
+        <v>0.05524611658873591</v>
       </c>
       <c r="L168">
         <v>0.002426369039589227</v>
@@ -13307,13 +13307,13 @@
         <v>0.1062499999999318</v>
       </c>
       <c r="U168">
-        <v>1.000052084237573</v>
+        <v>5.208423757330216E-05</v>
       </c>
       <c r="V168">
-        <v>1.000052069773496</v>
+        <v>5.206977349647701E-05</v>
       </c>
       <c r="W168">
-        <v>0.9997399219765929</v>
+        <v>-0.0002600780234071065</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13348,7 +13348,7 @@
         <v>1.248434555152157</v>
       </c>
       <c r="K169">
-        <v>55.5246116588736</v>
+        <v>0.05524611658873591</v>
       </c>
       <c r="L169">
         <v>0.003076543835226309</v>
@@ -13378,13 +13378,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U169">
-        <v>1.000052081524947</v>
+        <v>5.208152494717844E-05</v>
       </c>
       <c r="V169">
-        <v>1.000052067062376</v>
+        <v>5.206706237648184E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13419,7 +13419,7 @@
         <v>1.028311932510529</v>
       </c>
       <c r="K170">
-        <v>50.69791860060415</v>
+        <v>0.006979186006041527</v>
       </c>
       <c r="L170">
         <v>0.003434044764687616</v>
@@ -13449,13 +13449,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U170">
-        <v>1.000052078812603</v>
+        <v>5.207881260305136E-05</v>
       </c>
       <c r="V170">
-        <v>1.000034709567692</v>
+        <v>3.47095676922482E-05</v>
       </c>
       <c r="W170">
-        <v>0.9994797086368367</v>
+        <v>-0.0005202913631633388</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13490,7 +13490,7 @@
         <v>0.8673354636560705</v>
       </c>
       <c r="K171">
-        <v>46.44775834535417</v>
+        <v>-0.03552241654645827</v>
       </c>
       <c r="L171">
         <v>0.003389319652971005</v>
@@ -13520,13 +13520,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U171">
-        <v>1.000034717400361</v>
+        <v>3.471740036098403E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999652916370199</v>
+        <v>-3.470836298014035E-05</v>
       </c>
       <c r="W171">
-        <v>0.9994794377928162</v>
+        <v>-0.0005205622071837723</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13561,7 +13561,7 @@
         <v>1.032119036836969</v>
       </c>
       <c r="K172">
-        <v>50.79028433508904</v>
+        <v>0.007902843350890421</v>
       </c>
       <c r="L172">
         <v>0.003281075102862215</v>
@@ -13591,13 +13591,13 @@
         <v>0.1562500000000568</v>
       </c>
       <c r="U172">
-        <v>1.000034716195105</v>
+        <v>3.471619510508894E-05</v>
       </c>
       <c r="V172">
-        <v>1.000017354783846</v>
+        <v>1.735478384623512E-05</v>
       </c>
       <c r="W172">
-        <v>1.000520833333333</v>
+        <v>0.0005208333333333037</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13632,7 +13632,7 @@
         <v>1.292303626069993</v>
       </c>
       <c r="K173">
-        <v>56.37576154279196</v>
+        <v>0.06375761542791958</v>
       </c>
       <c r="L173">
         <v>0.00341372787234794</v>
@@ -13662,13 +13662,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U173">
-        <v>1.000086787474832</v>
+        <v>8.678747483159555E-05</v>
       </c>
       <c r="V173">
-        <v>1.000086772413314</v>
+        <v>8.677241331445096E-05</v>
       </c>
       <c r="W173">
-        <v>1.000780843310776</v>
+        <v>0.0007808433107756585</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13703,7 +13703,7 @@
         <v>1.383596464397387</v>
       </c>
       <c r="K174">
-        <v>58.04658989319248</v>
+        <v>0.0804658989319248</v>
       </c>
       <c r="L174">
         <v>0.003766213565202714</v>
@@ -13733,13 +13733,13 @@
         <v>0.1437499999999545</v>
       </c>
       <c r="U174">
-        <v>1.000086779943419</v>
+        <v>8.677994341943496E-05</v>
       </c>
       <c r="V174">
-        <v>1.000138823815226</v>
+        <v>0.0001388238152255639</v>
       </c>
       <c r="W174">
-        <v>1.000260078023407</v>
+        <v>0.0002600780234069955</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13774,7 +13774,7 @@
         <v>1.479694188952484</v>
       </c>
       <c r="K175">
-        <v>59.67244652767292</v>
+        <v>0.09672446527672929</v>
       </c>
       <c r="L175">
         <v>0.004310464787164046</v>
@@ -13804,13 +13804,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U175">
-        <v>1.000043386206657</v>
+        <v>4.33862066573365E-05</v>
       </c>
       <c r="V175">
-        <v>1.00015615511408</v>
+        <v>0.0001561551140798478</v>
       </c>
       <c r="W175">
-        <v>1.000260010400416</v>
+        <v>0.0002600104004160109</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13845,7 +13845,7 @@
         <v>1.135199247964761</v>
       </c>
       <c r="K176">
-        <v>53.16596327236513</v>
+        <v>0.03165963272365135</v>
       </c>
       <c r="L176">
         <v>0.004636065333664003</v>
@@ -13875,13 +13875,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U176">
-        <v>1.000026030594626</v>
+        <v>2.603059462558122E-05</v>
       </c>
       <c r="V176">
-        <v>1.000069391437097</v>
+        <v>6.939143709683293E-05</v>
       </c>
       <c r="W176">
-        <v>0.9992201715622563</v>
+        <v>-0.0007798284377437126</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13916,7 +13916,7 @@
         <v>1.135199247964762</v>
       </c>
       <c r="K177">
-        <v>53.16596327236513</v>
+        <v>0.03165963272365135</v>
       </c>
       <c r="L177">
         <v>0.004791564479063198</v>
@@ -13946,13 +13946,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U177">
-        <v>1.000034706556068</v>
+        <v>3.4706556068409E-05</v>
       </c>
       <c r="V177">
-        <v>1.000052039966695</v>
+        <v>5.203996669456146E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13987,7 +13987,7 @@
         <v>0.9686183813867008</v>
       </c>
       <c r="K178">
-        <v>49.20295322572387</v>
+        <v>-0.007970467742761334</v>
       </c>
       <c r="L178">
         <v>0.004627074249738889</v>
@@ -14017,13 +14017,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U178">
-        <v>1.000008676337891</v>
+        <v>8.67633789125577E-06</v>
       </c>
       <c r="V178">
-        <v>1.000034691505785</v>
+        <v>3.469150578472302E-05</v>
       </c>
       <c r="W178">
-        <v>0.9994797086368367</v>
+        <v>-0.0005202913631633388</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14058,7 +14058,7 @@
         <v>1.045850761923821</v>
       </c>
       <c r="K179">
-        <v>51.12057933983183</v>
+        <v>0.0112057933983184</v>
       </c>
       <c r="L179">
         <v>0.004357175069291427</v>
@@ -14088,13 +14088,13 @@
         <v>0.06250000000005684</v>
       </c>
       <c r="U179">
-        <v>1.000026028787839</v>
+        <v>2.602878783930507E-05</v>
       </c>
       <c r="V179">
-        <v>1.000034690302326</v>
+        <v>3.469030232605697E-05</v>
       </c>
       <c r="W179">
-        <v>1.000260281103592</v>
+        <v>0.0002602811035918862</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14129,7 +14129,7 @@
         <v>1.127148004594428</v>
       </c>
       <c r="K180">
-        <v>52.98869670375077</v>
+        <v>0.02988696703750771</v>
       </c>
       <c r="L180">
         <v>0.004119540991873856</v>
@@ -14159,13 +14159,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U180">
-        <v>1.000026028110359</v>
+        <v>2.602811035923303E-05</v>
       </c>
       <c r="V180">
-        <v>1.000034689098951</v>
+        <v>3.468909895065764E-05</v>
       </c>
       <c r="W180">
-        <v>1.000260213374967</v>
+        <v>0.0002602133749673996</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14200,7 +14200,7 @@
         <v>1.298300094427382</v>
       </c>
       <c r="K181">
-        <v>56.48958104188963</v>
+        <v>0.06489581041889625</v>
       </c>
       <c r="L181">
         <v>0.004091144694371477</v>
@@ -14230,13 +14230,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U181">
-        <v>1.000043379054857</v>
+        <v>4.337905485707338E-05</v>
       </c>
       <c r="V181">
-        <v>1.000017343947829</v>
+        <v>1.734394782948456E-05</v>
       </c>
       <c r="W181">
-        <v>1.000520291363163</v>
+        <v>0.0005202913631634498</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14271,7 +14271,7 @@
         <v>1.388380141707833</v>
       </c>
       <c r="K182">
-        <v>58.13061821536747</v>
+        <v>0.08130618215367469</v>
       </c>
       <c r="L182">
         <v>0.004271165086211814</v>
@@ -14301,13 +14301,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U182">
-        <v>1.000060728042475</v>
+        <v>6.072804247492236E-05</v>
       </c>
       <c r="V182">
-        <v>1.000034687294044</v>
+        <v>3.468729404421111E-05</v>
       </c>
       <c r="W182">
-        <v>1.000260010400416</v>
+        <v>0.0002600104004160109</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14342,7 +14342,7 @@
         <v>1.388380141707833</v>
       </c>
       <c r="K183">
-        <v>58.13061821536748</v>
+        <v>0.0813061821536748</v>
       </c>
       <c r="L183">
         <v>0.004550385786062981</v>
@@ -14372,13 +14372,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U183">
-        <v>1.000052049446975</v>
+        <v>5.204944697467795E-05</v>
       </c>
       <c r="V183">
-        <v>1.000052029136316</v>
+        <v>5.202913631618955E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14413,7 +14413,7 @@
         <v>1.588003515182573</v>
       </c>
       <c r="K184">
-        <v>61.3601761306165</v>
+        <v>0.1136017613061651</v>
       </c>
       <c r="L184">
         <v>0.005044834803243195</v>
@@ -14443,13 +14443,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U184">
-        <v>1.000069395650627</v>
+        <v>6.939565062746844E-05</v>
       </c>
       <c r="V184">
-        <v>1.00008671071571</v>
+        <v>8.671071571031419E-05</v>
       </c>
       <c r="W184">
-        <v>1.000519885625162</v>
+        <v>0.0005198856251624751</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14484,7 +14484,7 @@
         <v>1.437022809406855</v>
       </c>
       <c r="K185">
-        <v>58.96632579145252</v>
+        <v>0.08966325791452523</v>
       </c>
       <c r="L185">
         <v>0.005524970285784211</v>
@@ -14514,13 +14514,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U185">
-        <v>1.000069390835206</v>
+        <v>6.939083520562939E-05</v>
       </c>
       <c r="V185">
-        <v>1.000104043837137</v>
+        <v>0.0001040438371369135</v>
       </c>
       <c r="W185">
-        <v>0.9997401922577294</v>
+        <v>-0.0002598077422706346</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14555,7 +14555,7 @@
         <v>1.537102599654051</v>
       </c>
       <c r="K186">
-        <v>60.58496017715815</v>
+        <v>0.1058496017715815</v>
       </c>
       <c r="L186">
         <v>0.006040428262271384</v>
@@ -14585,13 +14585,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U186">
-        <v>1.000060712767895</v>
+        <v>6.071276789487712E-05</v>
       </c>
       <c r="V186">
-        <v>1.000156049519714</v>
+        <v>0.000156049519714152</v>
       </c>
       <c r="W186">
-        <v>1.000259875259875</v>
+        <v>0.000259875259875253</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14626,7 +14626,7 @@
         <v>1.390606202722553</v>
       </c>
       <c r="K187">
-        <v>58.16960573175351</v>
+        <v>0.08169605731753515</v>
       </c>
       <c r="L187">
         <v>0.006427633624494246</v>
@@ -14656,13 +14656,13 @@
         <v>0.15625</v>
       </c>
       <c r="U187">
-        <v>1.000060709082079</v>
+        <v>6.07090820785583E-05</v>
       </c>
       <c r="V187">
-        <v>1.000104016781374</v>
+        <v>0.0001040167813741721</v>
       </c>
       <c r="W187">
-        <v>0.9997401922577294</v>
+        <v>-0.0002598077422706346</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14697,7 +14697,7 @@
         <v>1.390606202722553</v>
       </c>
       <c r="K188">
-        <v>58.16960573175351</v>
+        <v>0.08169605731753515</v>
       </c>
       <c r="L188">
         <v>0.006689027721721487</v>
@@ -14727,13 +14727,13 @@
         <v>0.1687499999999318</v>
       </c>
       <c r="U188">
-        <v>1.00006937759624</v>
+        <v>6.93775962399279E-05</v>
       </c>
       <c r="V188">
-        <v>1.000052002981504</v>
+        <v>5.20029815043177E-05</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14768,7 +14768,7 @@
         <v>1.496209353431528</v>
       </c>
       <c r="K189">
-        <v>59.93925755364612</v>
+        <v>0.09939257553646119</v>
       </c>
       <c r="L189">
         <v>0.006927898544408293</v>
@@ -14798,13 +14798,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U189">
-        <v>1.000095387577069</v>
+        <v>9.538757706883949E-05</v>
       </c>
       <c r="V189">
-        <v>1.000052000277335</v>
+        <v>5.200027733454071E-05</v>
       </c>
       <c r="W189">
-        <v>1.000259875259875</v>
+        <v>0.000259875259875253</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14839,7 +14839,7 @@
         <v>1.496209353431528</v>
       </c>
       <c r="K190">
-        <v>59.93925755364612</v>
+        <v>0.09939257553646119</v>
       </c>
       <c r="L190">
         <v>0.007112633306468789</v>
@@ -14869,13 +14869,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U190">
-        <v>1.000095378479147</v>
+        <v>9.537847914686814E-05</v>
       </c>
       <c r="V190">
-        <v>1.000034665048964</v>
+        <v>3.46650489644329E-05</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14910,7 +14910,7 @@
         <v>1.613221154771179</v>
       </c>
       <c r="K191">
-        <v>61.73305125078237</v>
+        <v>0.1173305125078238</v>
       </c>
       <c r="L191">
         <v>0.007321587713110904</v>
@@ -14940,13 +14940,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U191">
-        <v>1.000086699439054</v>
+        <v>8.669943905448285E-05</v>
       </c>
       <c r="V191">
-        <v>1.000103991542021</v>
+        <v>0.0001039915420211202</v>
       </c>
       <c r="W191">
-        <v>1.000259807742271</v>
+        <v>0.0002598077422708567</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14981,7 +14981,7 @@
         <v>1.613221154771179</v>
       </c>
       <c r="K192">
-        <v>61.73305125078237</v>
+        <v>0.1173305125078238</v>
       </c>
       <c r="L192">
         <v>0.007505187265309178</v>
@@ -15011,13 +15011,13 @@
         <v>0.1812500000000909</v>
       </c>
       <c r="U192">
-        <v>1.000078022730622</v>
+        <v>7.802273062229581E-05</v>
       </c>
       <c r="V192">
-        <v>1.000103980728905</v>
+        <v>0.0001039807289049399</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15052,7 +15052,7 @@
         <v>2.002180051190998</v>
       </c>
       <c r="K193">
-        <v>66.69087186815165</v>
+        <v>0.1669087186815165</v>
       </c>
       <c r="L193">
         <v>0.007918480950732817</v>
@@ -15082,13 +15082,13 @@
         <v>0.1875</v>
       </c>
       <c r="U193">
-        <v>1.000112690707351</v>
+        <v>0.000112690707350982</v>
       </c>
       <c r="V193">
-        <v>1.000190611516401</v>
+        <v>0.0001906115164014288</v>
       </c>
       <c r="W193">
-        <v>1.000779220779221</v>
+        <v>0.0007792207792207684</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15123,7 +15123,7 @@
         <v>2.002180051190998</v>
       </c>
       <c r="K194">
-        <v>66.69087186815165</v>
+        <v>0.1669087186815165</v>
       </c>
       <c r="L194">
         <v>0.008415644942873526</v>
@@ -15153,13 +15153,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U194">
-        <v>1.000104010470387</v>
+        <v>0.0001040104703873279</v>
       </c>
       <c r="V194">
-        <v>1.00017325017325</v>
+        <v>0.0001732501732500946</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15194,7 +15194,7 @@
         <v>2.433159437805756</v>
       </c>
       <c r="K195">
-        <v>70.87231111412837</v>
+        <v>0.2087231111412836</v>
       </c>
       <c r="L195">
         <v>0.009185271442534873</v>
@@ -15224,13 +15224,13 @@
         <v>0.1874999999999432</v>
       </c>
       <c r="U195">
-        <v>1.00012133292889</v>
+        <v>0.00012133292889005</v>
       </c>
       <c r="V195">
-        <v>1.000207864195392</v>
+        <v>0.0002078641953924265</v>
       </c>
       <c r="W195">
-        <v>1.000778614066961</v>
+        <v>0.0007786140669607811</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15265,7 +15265,7 @@
         <v>2.433159437805755</v>
       </c>
       <c r="K196">
-        <v>70.87231111412837</v>
+        <v>0.2087231111412836</v>
       </c>
       <c r="L196">
         <v>0.01003728880382361</v>
@@ -15295,13 +15295,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U196">
-        <v>1.000095321449926</v>
+        <v>9.532144992596692E-05</v>
       </c>
       <c r="V196">
-        <v>1.00017318416404</v>
+        <v>0.0001731841640397747</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15336,7 +15336,7 @@
         <v>2.592339266656944</v>
       </c>
       <c r="K197">
-        <v>72.16298557094228</v>
+        <v>0.2216298557094228</v>
       </c>
       <c r="L197">
         <v>0.01094287946042103</v>
@@ -15366,13 +15366,13 @@
         <v>0.2437500000000341</v>
       </c>
       <c r="U197">
-        <v>1.000103977125032</v>
+        <v>0.0001039771250324062</v>
       </c>
       <c r="V197">
-        <v>1.000173154176479</v>
+        <v>0.0001731541764786737</v>
       </c>
       <c r="W197">
-        <v>1.000259336099585</v>
+        <v>0.0002593360995850613</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15407,7 +15407,7 @@
         <v>2.592339266656944</v>
       </c>
       <c r="K198">
-        <v>72.16298557094228</v>
+        <v>0.2216298557094228</v>
       </c>
       <c r="L198">
         <v>0.01178317722814995</v>
@@ -15437,13 +15437,13 @@
         <v>0.2812499999999432</v>
       </c>
       <c r="U198">
-        <v>1.00011263017449</v>
+        <v>0.000112630174490258</v>
       </c>
       <c r="V198">
-        <v>1.000173124199301</v>
+        <v>0.0001731241993008226</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15478,7 +15478,7 @@
         <v>2.203664536689452</v>
       </c>
       <c r="K199">
-        <v>68.78574555645071</v>
+        <v>0.1878574555645071</v>
       </c>
       <c r="L199">
         <v>0.01239263700667932</v>
@@ -15508,13 +15508,13 @@
         <v>0.2999999999999545</v>
       </c>
       <c r="U199">
-        <v>1.000103954606488</v>
+        <v>0.0001039546064884878</v>
       </c>
       <c r="V199">
-        <v>1.00012116596275</v>
+        <v>0.000121165962750025</v>
       </c>
       <c r="W199">
-        <v>0.9997407311381904</v>
+        <v>-0.0002592688618096028</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15549,7 +15549,7 @@
         <v>1.903282405145884</v>
       </c>
       <c r="K200">
-        <v>65.55622704055371</v>
+        <v>0.1555622704055371</v>
       </c>
       <c r="L200">
         <v>0.01268353665109417</v>
@@ -15579,13 +15579,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U200">
-        <v>1.000112605784472</v>
+        <v>0.0001126057844724748</v>
       </c>
       <c r="V200">
-        <v>1.000121151283338</v>
+        <v>0.0001211512833381168</v>
       </c>
       <c r="W200">
-        <v>0.9997406639004148</v>
+        <v>-0.0002593360995851723</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15620,7 +15620,7 @@
         <v>2.046766911135754</v>
       </c>
       <c r="K201">
-        <v>67.17832282000114</v>
+        <v>0.1717832282000115</v>
       </c>
       <c r="L201">
         <v>0.01281131214966035</v>
@@ -15650,13 +15650,13 @@
         <v>0.3125000000000568</v>
       </c>
       <c r="U201">
-        <v>1.000138576130261</v>
+        <v>0.0001385761302614696</v>
       </c>
       <c r="V201">
-        <v>1.000121136607483</v>
+        <v>0.000121136607482919</v>
       </c>
       <c r="W201">
-        <v>1.000259403372244</v>
+        <v>0.0002594033722438382</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15691,7 +15691,7 @@
         <v>2.197803233230268</v>
       </c>
       <c r="K202">
-        <v>68.72853246227263</v>
+        <v>0.1872853246227263</v>
       </c>
       <c r="L202">
         <v>0.01288002287476079</v>
@@ -15721,13 +15721,13 @@
         <v>0.3125</v>
       </c>
       <c r="U202">
-        <v>1.00012989712148</v>
+        <v>0.0001298971214800382</v>
       </c>
       <c r="V202">
-        <v>1.000155728202377</v>
+        <v>0.0001557282023774142</v>
       </c>
       <c r="W202">
-        <v>1.000259336099585</v>
+        <v>0.0002593360995850613</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15762,7 +15762,7 @@
         <v>1.66756544139734</v>
       </c>
       <c r="K203">
-        <v>62.51263476122356</v>
+        <v>0.1251263476122356</v>
       </c>
       <c r="L203">
         <v>0.01267237006507092</v>
@@ -15792,13 +15792,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U203">
-        <v>1.000086586833606</v>
+        <v>8.658683360596164E-05</v>
       </c>
       <c r="V203">
-        <v>1.000121103076018</v>
+        <v>0.000121103076018203</v>
       </c>
       <c r="W203">
-        <v>0.9994814622763807</v>
+        <v>-0.0005185377236193167</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15833,7 +15833,7 @@
         <v>2.048499254485582</v>
       </c>
       <c r="K204">
-        <v>67.19697410033498</v>
+        <v>0.1719697410033498</v>
       </c>
       <c r="L204">
         <v>0.01254817319813047</v>
@@ -15863,13 +15863,13 @@
         <v>0.2187500000000568</v>
       </c>
       <c r="U204">
-        <v>1.00010389520437</v>
+        <v>0.0001038952043703745</v>
       </c>
       <c r="V204">
-        <v>1.000155685100936</v>
+        <v>0.0001556851009358873</v>
       </c>
       <c r="W204">
-        <v>1.000778210116732</v>
+        <v>0.0007782101167315147</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15904,7 +15904,7 @@
         <v>2.048499254485582</v>
       </c>
       <c r="K205">
-        <v>67.19697410033498</v>
+        <v>0.1719697410033498</v>
       </c>
       <c r="L205">
         <v>0.01243665316483293</v>
@@ -15934,13 +15934,13 @@
         <v>0.1749999999999545</v>
       </c>
       <c r="U205">
-        <v>1.000095227377005</v>
+        <v>9.522737700518036E-05</v>
       </c>
       <c r="V205">
-        <v>1.000155660866858</v>
+        <v>0.0001556608668582538</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15975,7 +15975,7 @@
         <v>2.048499254485582</v>
       </c>
       <c r="K206">
-        <v>67.196974100335</v>
+        <v>0.1719697410033499</v>
       </c>
       <c r="L206">
         <v>0.01229455028506675</v>
@@ -16005,13 +16005,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U206">
-        <v>1.00012118693951</v>
+        <v>0.0001211869395103538</v>
       </c>
       <c r="V206">
-        <v>1.000138343680288</v>
+        <v>0.0001383436802875337</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16046,7 +16046,7 @@
         <v>2.19660007115977</v>
       </c>
       <c r="K207">
-        <v>68.71676225555528</v>
+        <v>0.1871676225555529</v>
       </c>
       <c r="L207">
         <v>0.01219270011492514</v>
@@ -16076,13 +16076,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U207">
-        <v>1.000129827416088</v>
+        <v>0.0001298274160881352</v>
       </c>
       <c r="V207">
-        <v>1.000155615111957</v>
+        <v>0.0001556151119566085</v>
       </c>
       <c r="W207">
-        <v>1.00025920165889</v>
+        <v>0.0002592016588904844</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16117,7 +16117,7 @@
         <v>2.976078053655764</v>
       </c>
       <c r="K208">
-        <v>74.84958830019545</v>
+        <v>0.2484958830019545</v>
       </c>
       <c r="L208">
         <v>0.01254997406542655</v>
@@ -16147,13 +16147,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U208">
-        <v>1.000190388825907</v>
+        <v>0.0001903888259069397</v>
       </c>
       <c r="V208">
-        <v>1.000190166655141</v>
+        <v>0.0001901666551411552</v>
       </c>
       <c r="W208">
-        <v>1.001295672454004</v>
+        <v>0.001295672454003638</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16188,7 +16188,7 @@
         <v>3.468379937337464</v>
       </c>
       <c r="K209">
-        <v>77.62052435058014</v>
+        <v>0.2762052435058014</v>
       </c>
       <c r="L209">
         <v>0.01340026039933262</v>
@@ -16218,13 +16218,13 @@
         <v>0.1875</v>
       </c>
       <c r="U209">
-        <v>1.000207657365347</v>
+        <v>0.0002076573653471137</v>
       </c>
       <c r="V209">
-        <v>1.000241984271022</v>
+        <v>0.0002419842710223996</v>
       </c>
       <c r="W209">
-        <v>1.000776397515528</v>
+        <v>0.0007763975155279379</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16259,7 +16259,7 @@
         <v>3.641117440383707</v>
       </c>
       <c r="K210">
-        <v>78.45346486389872</v>
+        <v>0.2845346486389871</v>
       </c>
       <c r="L210">
         <v>0.01454039063716955</v>
@@ -16289,13 +16289,13 @@
         <v>0.2312499999999886</v>
       </c>
       <c r="U210">
-        <v>1.000207614252719</v>
+        <v>0.0002076142527185354</v>
       </c>
       <c r="V210">
-        <v>1.000207364910401</v>
+        <v>0.0002073649104010755</v>
       </c>
       <c r="W210">
-        <v>1.00025859839669</v>
+        <v>0.0002585983966900685</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16330,7 +16330,7 @@
         <v>3.822946390958597</v>
       </c>
       <c r="K211">
-        <v>79.26578653508022</v>
+        <v>0.2926578653508023</v>
       </c>
       <c r="L211">
         <v>0.01582462197002299</v>
@@ -16360,13 +16360,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U211">
-        <v>1.000198922359738</v>
+        <v>0.0001989223597380629</v>
       </c>
       <c r="V211">
-        <v>1.000224598745703</v>
+        <v>0.0002245987457025755</v>
       </c>
       <c r="W211">
-        <v>1.000258531540848</v>
+        <v>0.0002585315408478728</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16401,7 +16401,7 @@
         <v>4.971339763010965</v>
       </c>
       <c r="K212">
-        <v>83.25333945667556</v>
+        <v>0.3325333945667556</v>
       </c>
       <c r="L212">
         <v>0.01762323129239699</v>
@@ -16431,13 +16431,13 @@
         <v>0.4187499999999318</v>
       </c>
       <c r="U212">
-        <v>1.000242118188264</v>
+        <v>0.0002421181882641399</v>
       </c>
       <c r="V212">
-        <v>1.000310913047984</v>
+        <v>0.0003109130479843625</v>
       </c>
       <c r="W212">
-        <v>1.001550788317395</v>
+        <v>0.001550788317394636</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16472,7 +16472,7 @@
         <v>4.971339763010966</v>
       </c>
       <c r="K213">
-        <v>83.25333945667558</v>
+        <v>0.3325333945667558</v>
       </c>
       <c r="L213">
         <v>0.01955393670695441</v>
@@ -16502,13 +16502,13 @@
         <v>0.5187499999999545</v>
       </c>
       <c r="U213">
-        <v>1.000242059581237</v>
+        <v>0.0002420595812369086</v>
       </c>
       <c r="V213">
-        <v>1.000310816411106</v>
+        <v>0.0003108164111063072</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16543,7 +16543,7 @@
         <v>4.971339763010966</v>
       </c>
       <c r="K214">
-        <v>83.25333945667558</v>
+        <v>0.3325333945667558</v>
       </c>
       <c r="L214">
         <v>0.0213697215989177</v>
@@ -16573,13 +16573,13 @@
         <v>0.6187499999999773</v>
       </c>
       <c r="U214">
-        <v>1.000224715216677</v>
+        <v>0.0002247152166774402</v>
       </c>
       <c r="V214">
-        <v>1.000327982047299</v>
+        <v>0.0003279820472985584</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16614,7 +16614,7 @@
         <v>4.971339763010965</v>
       </c>
       <c r="K215">
-        <v>83.25333945667556</v>
+        <v>0.3325333945667556</v>
       </c>
       <c r="L215">
         <v>0.02292170739508084</v>
@@ -16644,13 +16644,13 @@
         <v>0.6999999999999318</v>
       </c>
       <c r="U215">
-        <v>1.000233305682289</v>
+        <v>0.0002333056822894086</v>
       </c>
       <c r="V215">
-        <v>1.000345131063521</v>
+        <v>0.0003451310635214089</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16685,7 +16685,7 @@
         <v>4.025416637538784</v>
       </c>
       <c r="K216">
-        <v>80.1011523595832</v>
+        <v>0.3010115235958319</v>
       </c>
       <c r="L216">
         <v>0.02403652605467838</v>
@@ -16715,13 +16715,13 @@
         <v>0.7062500000000114</v>
       </c>
       <c r="U216">
-        <v>1.000215973392078</v>
+        <v>0.0002159733920781282</v>
       </c>
       <c r="V216">
-        <v>1.00031051079025</v>
+        <v>0.0003105107902499071</v>
       </c>
       <c r="W216">
-        <v>0.9997419354838709</v>
+        <v>-0.0002580645161290862</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16756,7 +16756,7 @@
         <v>4.225706418683323</v>
       </c>
       <c r="K217">
-        <v>80.863831224335</v>
+        <v>0.30863831224335</v>
       </c>
       <c r="L217">
         <v>0.02482193360688241</v>
@@ -16786,13 +16786,13 @@
         <v>0.6875</v>
       </c>
       <c r="U217">
-        <v>1.000233200898255</v>
+        <v>0.0002332008982552924</v>
       </c>
       <c r="V217">
-        <v>1.000310414403228</v>
+        <v>0.0003104144032284317</v>
       </c>
       <c r="W217">
-        <v>1.000258131130614</v>
+        <v>0.0002581311306144585</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16827,7 +16827,7 @@
         <v>3.489921551554431</v>
       </c>
       <c r="K218">
-        <v>77.72789594388803</v>
+        <v>0.2772789594388803</v>
       </c>
       <c r="L218">
         <v>0.02517258754231535</v>
@@ -16857,13 +16857,13 @@
         <v>0.6562500000000568</v>
       </c>
       <c r="U218">
-        <v>1.000224511471673</v>
+        <v>0.0002245114716725727</v>
       </c>
       <c r="V218">
-        <v>1.000327557969141</v>
+        <v>0.000327557969140635</v>
       </c>
       <c r="W218">
-        <v>0.9997419354838709</v>
+        <v>-0.0002580645161290862</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16898,7 +16898,7 @@
         <v>2.251771099365953</v>
       </c>
       <c r="K219">
-        <v>69.24752790271785</v>
+        <v>0.1924752790271785</v>
       </c>
       <c r="L219">
         <v>0.02486259798459458</v>
@@ -16928,13 +16928,13 @@
         <v>0.5812500000000114</v>
       </c>
       <c r="U219">
-        <v>1.000189928604111</v>
+        <v>0.0001899286041111559</v>
       </c>
       <c r="V219">
-        <v>1.000224045222667</v>
+        <v>0.0002240452226665024</v>
       </c>
       <c r="W219">
-        <v>0.9992256066081571</v>
+        <v>-0.0007743933918429313</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16969,7 +16969,7 @@
         <v>1.802905886991452</v>
       </c>
       <c r="K220">
-        <v>64.32274074412939</v>
+        <v>0.1432274074412939</v>
       </c>
       <c r="L220">
         <v>0.0238930516434165</v>
@@ -16999,13 +16999,13 @@
         <v>0.4375000000000568</v>
       </c>
       <c r="U220">
-        <v>1.000172629580079</v>
+        <v>0.000172629580078576</v>
       </c>
       <c r="V220">
-        <v>1.000189534262625</v>
+        <v>0.0001895342626254681</v>
       </c>
       <c r="W220">
-        <v>0.9994833376388529</v>
+        <v>-0.0005166623611471133</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17040,7 +17040,7 @@
         <v>1.490213923816558</v>
       </c>
       <c r="K221">
-        <v>59.84280746180322</v>
+        <v>0.09842807461803216</v>
       </c>
       <c r="L221">
         <v>0.02231037773666163</v>
@@ -17070,13 +17070,13 @@
         <v>0.28125</v>
       </c>
       <c r="U221">
-        <v>1.000146709816613</v>
+        <v>0.0001467098166128</v>
       </c>
       <c r="V221">
-        <v>1.000155044101434</v>
+        <v>0.0001550441014335213</v>
       </c>
       <c r="W221">
-        <v>0.9994830705608685</v>
+        <v>-0.0005169294391315082</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17111,7 +17111,7 @@
         <v>1.764063022620792</v>
       </c>
       <c r="K222">
-        <v>63.82137484507017</v>
+        <v>0.1382137484507017</v>
       </c>
       <c r="L222">
         <v>0.02065908048289884</v>
@@ -17141,13 +17141,13 @@
         <v>0.1437499999999545</v>
       </c>
       <c r="U222">
-        <v>1.000172574465882</v>
+        <v>0.0001725744658820361</v>
       </c>
       <c r="V222">
-        <v>1.00018946897015</v>
+        <v>0.0001894689701495977</v>
       </c>
       <c r="W222">
-        <v>1.00077579519007</v>
+        <v>0.0007757951900697613</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17182,7 +17182,7 @@
         <v>1.764063022620792</v>
       </c>
       <c r="K223">
-        <v>63.82137484507017</v>
+        <v>0.1382137484507017</v>
       </c>
       <c r="L223">
         <v>0.01899628783668593</v>
@@ -17212,13 +17212,13 @@
         <v>0.01250000000004547</v>
       </c>
       <c r="U223">
-        <v>1.000146662985713</v>
+        <v>0.0001466629857134194</v>
       </c>
       <c r="V223">
-        <v>1.000103327133705</v>
+        <v>0.000103327133705422</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17253,7 +17253,7 @@
         <v>2.067496927113019</v>
       </c>
       <c r="K224">
-        <v>67.40013034206518</v>
+        <v>0.1740013034206518</v>
       </c>
       <c r="L224">
         <v>0.01764610635728769</v>
@@ -17283,13 +17283,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U224">
-        <v>1.000172519386866</v>
+        <v>0.0001725193868660213</v>
       </c>
       <c r="V224">
-        <v>1.000103316458312</v>
+        <v>0.0001033164583119639</v>
       </c>
       <c r="W224">
-        <v>1.00077519379845</v>
+        <v>0.0007751937984497026</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17324,7 +17324,7 @@
         <v>2.493369073768736</v>
       </c>
       <c r="K225">
-        <v>71.37433867183194</v>
+        <v>0.2137433867183194</v>
       </c>
       <c r="L225">
         <v>0.01688387403030528</v>
@@ -17354,13 +17354,13 @@
         <v>-0.09375000000005684</v>
       </c>
       <c r="U225">
-        <v>1.000181114110514</v>
+        <v>0.0001811141105141356</v>
       </c>
       <c r="V225">
-        <v>1.000154958677686</v>
+        <v>0.0001549586776858902</v>
       </c>
       <c r="W225">
-        <v>1.001032791117996</v>
+        <v>0.001032791117996368</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17395,7 +17395,7 @@
         <v>2.605440691309747</v>
       </c>
       <c r="K226">
-        <v>72.26413951530762</v>
+        <v>0.2226413951530762</v>
       </c>
       <c r="L226">
         <v>0.01655883028548213</v>
@@ -17425,13 +17425,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U226">
-        <v>1.000189704233853</v>
+        <v>0.0001897042338534494</v>
       </c>
       <c r="V226">
-        <v>1.000154934669214</v>
+        <v>0.000154934669214235</v>
       </c>
       <c r="W226">
-        <v>1.00025793139025</v>
+        <v>0.0002579313902502101</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17466,7 +17466,7 @@
         <v>2.10806363549971</v>
       </c>
       <c r="K227">
-        <v>67.82562658697876</v>
+        <v>0.1782562658697876</v>
       </c>
       <c r="L227">
         <v>0.01627038088947702</v>
@@ -17496,13 +17496,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U227">
-        <v>1.000163804400303</v>
+        <v>0.0001638044003033912</v>
       </c>
       <c r="V227">
-        <v>1.000017212296465</v>
+        <v>1.721229646478584E-05</v>
       </c>
       <c r="W227">
-        <v>0.9994842702423931</v>
+        <v>-0.000515729757606942</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17537,7 +17537,7 @@
         <v>1.315205118911557</v>
       </c>
       <c r="K228">
-        <v>56.80728278321499</v>
+        <v>0.06807282783214996</v>
       </c>
       <c r="L228">
         <v>0.0153980335475909</v>
@@ -17567,13 +17567,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U228">
-        <v>1.000112058339296</v>
+        <v>0.0001120583392955066</v>
       </c>
       <c r="V228">
-        <v>0.9999139399989672</v>
+        <v>-8.606000103283939E-05</v>
       </c>
       <c r="W228">
-        <v>0.9984520123839009</v>
+        <v>-0.001547987616099089</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17608,7 +17608,7 @@
         <v>1.381188888577692</v>
       </c>
       <c r="K229">
-        <v>58.00417158013408</v>
+        <v>0.08004171580134078</v>
       </c>
       <c r="L229">
         <v>0.01426584011410496</v>
@@ -17638,13 +17638,13 @@
         <v>0.03125</v>
       </c>
       <c r="U229">
-        <v>1.000129283596497</v>
+        <v>0.0001292835964972205</v>
       </c>
       <c r="V229">
-        <v>0.9999311460736049</v>
+        <v>-6.885392639510712E-05</v>
       </c>
       <c r="W229">
-        <v>1.000258397932817</v>
+        <v>0.0002583979328165675</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17679,7 +17679,7 @@
         <v>1.52010208787478</v>
       </c>
       <c r="K230">
-        <v>60.31906783414053</v>
+        <v>0.1031906783414053</v>
       </c>
       <c r="L230">
         <v>0.01318484484987406</v>
@@ -17709,13 +17709,13 @@
         <v>0.08125000000006821</v>
       </c>
       <c r="U230">
-        <v>1.000155120261291</v>
+        <v>0.000155120261291275</v>
       </c>
       <c r="V230">
-        <v>0.9999655706662075</v>
+        <v>-3.442933379249613E-05</v>
       </c>
       <c r="W230">
-        <v>1.000516662361147</v>
+        <v>0.0005166623611470023</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17750,7 +17750,7 @@
         <v>1.666326508187504</v>
       </c>
       <c r="K231">
-        <v>62.49521591113113</v>
+        <v>0.1249521591113113</v>
       </c>
       <c r="L231">
         <v>0.01234401977260625</v>
@@ -17780,13 +17780,13 @@
         <v>0.1437500000000682</v>
       </c>
       <c r="U231">
-        <v>1.000163712658435</v>
+        <v>0.0001637126584352888</v>
       </c>
       <c r="V231">
-        <v>1.000017215259606</v>
+        <v>1.721525960629577E-05</v>
       </c>
       <c r="W231">
-        <v>1.000516395558998</v>
+        <v>0.0005163955589981839</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17821,7 +17821,7 @@
         <v>1.82024695062195</v>
       </c>
       <c r="K232">
-        <v>64.54211217994688</v>
+        <v>0.1454211217994689</v>
       </c>
       <c r="L232">
         <v>0.0118455042379771</v>
@@ -17851,13 +17851,13 @@
         <v>0.1749999999999545</v>
       </c>
       <c r="U232">
-        <v>1.000172300906303</v>
+        <v>0.0001723009063028247</v>
       </c>
       <c r="V232">
-        <v>1.000034429926492</v>
+        <v>3.442992649227428E-05</v>
       </c>
       <c r="W232">
-        <v>1.000516129032258</v>
+        <v>0.0005161290322579504</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17892,7 +17892,7 @@
         <v>1.82024695062195</v>
       </c>
       <c r="K233">
-        <v>64.54211217994688</v>
+        <v>0.1454211217994689</v>
       </c>
       <c r="L233">
         <v>0.01154286882653796</v>
@@ -17922,13 +17922,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U233">
-        <v>1.000189498346196</v>
+        <v>0.000189498346196304</v>
       </c>
       <c r="V233">
-        <v>1.000051643111669</v>
+        <v>5.164311166949709E-05</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17963,7 +17963,7 @@
         <v>1.677222655244531</v>
       </c>
       <c r="K234">
-        <v>62.64785829295686</v>
+        <v>0.1264785829295686</v>
       </c>
       <c r="L234">
         <v>0.0112419475511321</v>
@@ -17993,13 +17993,13 @@
         <v>0.125</v>
       </c>
       <c r="U234">
-        <v>1.000155014726399</v>
+        <v>0.0001550147263991164</v>
       </c>
       <c r="V234">
-        <v>1.000086067407994</v>
+        <v>8.60674079938839E-05</v>
       </c>
       <c r="W234">
-        <v>0.9997420686097499</v>
+        <v>-0.000257931390250099</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18034,7 +18034,7 @@
         <v>1.75993225122519</v>
       </c>
       <c r="K235">
-        <v>63.76722654854735</v>
+        <v>0.1376722654854735</v>
       </c>
       <c r="L235">
         <v>0.01101435503575976</v>
@@ -18064,13 +18064,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U235">
-        <v>1.000163601295033</v>
+        <v>0.0001636012950334553</v>
       </c>
       <c r="V235">
-        <v>1.000137696001653</v>
+        <v>0.0001376960016525874</v>
       </c>
       <c r="W235">
-        <v>1.000257997936016</v>
+        <v>0.0002579979360164408</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18105,7 +18105,7 @@
         <v>1.618979474163076</v>
       </c>
       <c r="K236">
-        <v>61.81718834128851</v>
+        <v>0.1181718834128851</v>
       </c>
       <c r="L236">
         <v>0.01071142996990559</v>
@@ -18135,13 +18135,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U236">
-        <v>1.000154965348026</v>
+        <v>0.0001549653480263924</v>
       </c>
       <c r="V236">
-        <v>1.000154886674583</v>
+        <v>0.0001548866745828548</v>
       </c>
       <c r="W236">
-        <v>0.9997420686097499</v>
+        <v>-0.000257931390250099</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18176,7 +18176,7 @@
         <v>1.618979474163076</v>
       </c>
       <c r="K237">
-        <v>61.81718834128851</v>
+        <v>0.1181718834128851</v>
       </c>
       <c r="L237">
         <v>0.01034314805423065</v>
@@ -18206,13 +18206,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U237">
-        <v>1.000146333485405</v>
+        <v>0.00014633348540527</v>
       </c>
       <c r="V237">
-        <v>1.000103241792278</v>
+        <v>0.0001032417922779416</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18247,7 +18247,7 @@
         <v>1.487018127429758</v>
       </c>
       <c r="K238">
-        <v>59.79120582311705</v>
+        <v>0.09791205823117055</v>
       </c>
       <c r="L238">
         <v>0.009827000772297192</v>
@@ -18277,13 +18277,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U238">
-        <v>1.00009467251915</v>
+        <v>9.467251914951902E-05</v>
       </c>
       <c r="V238">
-        <v>1.000086025945425</v>
+        <v>8.602594542517217E-05</v>
       </c>
       <c r="W238">
-        <v>0.9997420020639834</v>
+        <v>-0.0002579979360165519</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18318,7 +18318,7 @@
         <v>1.487018127429758</v>
       </c>
       <c r="K239">
-        <v>59.79120582311705</v>
+        <v>0.09791205823117055</v>
       </c>
       <c r="L239">
         <v>0.009218405699328511</v>
@@ -18348,13 +18348,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U239">
-        <v>1.000068846223354</v>
+        <v>6.884622335445734E-05</v>
       </c>
       <c r="V239">
-        <v>1.000034407418239</v>
+        <v>3.44074182392351E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18389,7 +18389,7 @@
         <v>1.577332773810846</v>
       </c>
       <c r="K240">
-        <v>61.20019850904238</v>
+        <v>0.1120019850904238</v>
       </c>
       <c r="L240">
         <v>0.008653085506914099</v>
@@ -18419,13 +18419,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U240">
-        <v>1.000068841483878</v>
+        <v>6.884148387809041E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999827968827952</v>
+        <v>-1.720311720476708E-05</v>
       </c>
       <c r="W240">
-        <v>1.000258064516129</v>
+        <v>0.0002580645161291972</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18460,7 +18460,7 @@
         <v>1.67240082263299</v>
       </c>
       <c r="K241">
-        <v>62.58046354682875</v>
+        <v>0.1258046354682876</v>
       </c>
       <c r="L241">
         <v>0.008212524879439556</v>
@@ -18490,13 +18490,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U241">
-        <v>1.000068836745055</v>
+        <v>6.883674505453463E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999827965868429</v>
+        <v>-1.72034131571408E-05</v>
       </c>
       <c r="W241">
-        <v>1.000257997936016</v>
+        <v>0.0002579979360164408</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18531,7 +18531,7 @@
         <v>1.872544083311244</v>
       </c>
       <c r="K242">
-        <v>65.1876534877307</v>
+        <v>0.151876534877307</v>
       </c>
       <c r="L242">
         <v>0.008033743283787113</v>
@@ -18561,13 +18561,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U242">
-        <v>1.000034416003442</v>
+        <v>3.441600344156193E-05</v>
       </c>
       <c r="V242">
-        <v>1.000051611127359</v>
+        <v>5.161112735896367E-05</v>
       </c>
       <c r="W242">
-        <v>1.0005158627805</v>
+        <v>0.0005158627805004201</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18602,7 +18602,7 @@
         <v>1.694090981746853</v>
       </c>
       <c r="K243">
-        <v>62.88172868788572</v>
+        <v>0.1288172868788572</v>
       </c>
       <c r="L243">
         <v>0.007901592496923146</v>
@@ -18632,13 +18632,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U243">
-        <v>1.000025811114266</v>
+        <v>2.581111426569471E-05</v>
       </c>
       <c r="V243">
-        <v>1.000137622570102</v>
+        <v>0.0001376225701015255</v>
       </c>
       <c r="W243">
-        <v>0.9997422015983501</v>
+        <v>-0.0002577984016498558</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18673,7 +18673,7 @@
         <v>1.411000315170553</v>
       </c>
       <c r="K244">
-        <v>58.52343968153897</v>
+        <v>0.08523439681538969</v>
       </c>
       <c r="L244">
         <v>0.007589272952338534</v>
@@ -18703,13 +18703,13 @@
         <v>0.06250000000005684</v>
       </c>
       <c r="U244">
-        <v>1.00000860348269</v>
+        <v>8.603482689828468E-06</v>
       </c>
       <c r="V244">
-        <v>1.00008600227046</v>
+        <v>8.60022704596286E-05</v>
       </c>
       <c r="W244">
-        <v>0.9994842702423931</v>
+        <v>-0.000515729757606942</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18744,7 +18744,7 @@
         <v>1.296935042174345</v>
       </c>
       <c r="K245">
-        <v>56.46372310758205</v>
+        <v>0.06463723107582053</v>
       </c>
       <c r="L245">
         <v>0.007066083079792138</v>
@@ -18774,13 +18774,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V245">
-        <v>1.000034397949882</v>
+        <v>3.439794988224776E-05</v>
       </c>
       <c r="W245">
-        <v>0.9997420020639834</v>
+        <v>-0.0002579979360165519</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18815,7 +18815,7 @@
         <v>1.382029784624879</v>
       </c>
       <c r="K246">
-        <v>58.01899680454754</v>
+        <v>0.0801899680454754</v>
       </c>
       <c r="L246">
         <v>0.006516795427011477</v>
@@ -18845,13 +18845,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U246">
-        <v>1.000017206817341</v>
+        <v>1.720681734096452E-05</v>
       </c>
       <c r="V246">
-        <v>1.000017198383352</v>
+        <v>1.719838335212387E-05</v>
       </c>
       <c r="W246">
-        <v>1.000258064516129</v>
+        <v>0.0002580645161291972</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18886,7 +18886,7 @@
         <v>1.38202978462488</v>
       </c>
       <c r="K247">
-        <v>58.01899680454755</v>
+        <v>0.08018996804547551</v>
       </c>
       <c r="L247">
         <v>0.005962979692702114</v>
@@ -18916,13 +18916,13 @@
         <v>0.02499999999992042</v>
       </c>
       <c r="U247">
-        <v>1.000008603260636</v>
+        <v>8.603260635675625E-06</v>
       </c>
       <c r="V247">
-        <v>0.9999828019124272</v>
+        <v>-1.719808757283392E-05</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18957,7 +18957,7 @@
         <v>1.38202978462488</v>
       </c>
       <c r="K248">
-        <v>58.01899680454755</v>
+        <v>0.08018996804547551</v>
       </c>
       <c r="L248">
         <v>0.00542000604394783</v>
@@ -18987,13 +18987,13 @@
         <v>0.03125000000005684</v>
       </c>
       <c r="U248">
-        <v>1.000017206373241</v>
+        <v>1.720637324087448E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999828016166481</v>
+        <v>-1.719838335190182E-05</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19028,7 +19028,7 @@
         <v>1.38202978462488</v>
       </c>
       <c r="K249">
-        <v>58.01899680454755</v>
+        <v>0.08018996804547551</v>
       </c>
       <c r="L249">
         <v>0.00489847037659485</v>
@@ -19058,13 +19058,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U249">
-        <v>1.000043015192966</v>
+        <v>4.301519296601164E-05</v>
       </c>
       <c r="V249">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19099,7 +19099,7 @@
         <v>0.8495157995754904</v>
       </c>
       <c r="K250">
-        <v>45.93179467677299</v>
+        <v>-0.04068205323227014</v>
       </c>
       <c r="L250">
         <v>0.003841441190813937</v>
@@ -19129,13 +19129,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U250">
-        <v>1.000008602668548</v>
+        <v>8.602668547741388E-06</v>
       </c>
       <c r="V250">
-        <v>0.9998796092460097</v>
+        <v>-0.0001203907539902849</v>
       </c>
       <c r="W250">
-        <v>0.9984520123839009</v>
+        <v>-0.001547987616099089</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19170,7 +19170,7 @@
         <v>0.9171145642246843</v>
       </c>
       <c r="K251">
-        <v>47.83827640449761</v>
+        <v>-0.02161723595502396</v>
       </c>
       <c r="L251">
         <v>0.002607422218793575</v>
@@ -19200,13 +19200,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U251">
-        <v>1.00003441037817</v>
+        <v>3.441037816998005E-05</v>
       </c>
       <c r="V251">
-        <v>0.9999139962502367</v>
+        <v>-8.600374976330816E-05</v>
       </c>
       <c r="W251">
-        <v>1.000258397932817</v>
+        <v>0.0002583979328165675</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19241,7 +19241,7 @@
         <v>1.059427752959789</v>
       </c>
       <c r="K252">
-        <v>51.4428219896129</v>
+        <v>0.01442821989612897</v>
       </c>
       <c r="L252">
         <v>0.00152329083213695</v>
@@ -19271,13 +19271,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U252">
-        <v>1.000025806895603</v>
+        <v>2.58068956027202E-05</v>
       </c>
       <c r="V252">
-        <v>0.999948393311773</v>
+        <v>-5.160668822701275E-05</v>
       </c>
       <c r="W252">
-        <v>1.000516662361147</v>
+        <v>0.0005166623611470023</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19312,7 +19312,7 @@
         <v>1.059427752959789</v>
       </c>
       <c r="K253">
-        <v>51.4428219896129</v>
+        <v>0.01442821989612897</v>
       </c>
       <c r="L253">
         <v>0.0005934897549139551</v>
@@ -19342,13 +19342,13 @@
         <v>-0.125</v>
       </c>
       <c r="U253">
-        <v>1.000025806229624</v>
+        <v>2.580622962389256E-05</v>
       </c>
       <c r="V253">
-        <v>0.9999655937655904</v>
+        <v>-3.440623440964519E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19383,7 +19383,7 @@
         <v>1.295959368586024</v>
       </c>
       <c r="K254">
-        <v>56.4452222594926</v>
+        <v>0.064452222594926</v>
       </c>
       <c r="L254">
         <v>9.617751826887016E-05</v>
@@ -19413,13 +19413,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U254">
-        <v>1.00002580556368</v>
+        <v>2.580556367970388E-05</v>
       </c>
       <c r="V254">
-        <v>1.00001720370912</v>
+        <v>1.720370911972857E-05</v>
       </c>
       <c r="W254">
-        <v>1.000774593338497</v>
+        <v>0.0007745933384972759</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19454,7 +19454,7 @@
         <v>1.196645510375158</v>
       </c>
       <c r="K255">
-        <v>54.47604106912938</v>
+        <v>0.04476041069129377</v>
       </c>
       <c r="L255">
         <v>-0.0002017656281332201</v>
@@ -19484,13 +19484,13 @@
         <v>-0.1437499999999545</v>
       </c>
       <c r="U255">
-        <v>0.9999827967348202</v>
+        <v>-1.720326517984372E-05</v>
       </c>
       <c r="V255">
-        <v>0.9999827965868429</v>
+        <v>-1.72034131571408E-05</v>
       </c>
       <c r="W255">
-        <v>0.9997420020639834</v>
+        <v>-0.0002579979360165519</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19525,7 +19525,7 @@
         <v>1.107321427271288</v>
       </c>
       <c r="K256">
-        <v>52.54639434408105</v>
+        <v>0.02546394344081049</v>
       </c>
       <c r="L256">
         <v>-0.0004531805890991979</v>
@@ -19555,13 +19555,13 @@
         <v>-0.1562500000000568</v>
       </c>
       <c r="U256">
-        <v>0.9999655928777257</v>
+        <v>-3.440712227431586E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999483888726407</v>
+        <v>-5.161112735929674E-05</v>
       </c>
       <c r="W256">
-        <v>0.9997419354838709</v>
+        <v>-0.0002580645161290862</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19596,7 +19596,7 @@
         <v>1.107321427271288</v>
       </c>
       <c r="K257">
-        <v>52.54639434408105</v>
+        <v>0.02546394344081049</v>
       </c>
       <c r="L257">
         <v>-0.0006587384486672747</v>
@@ -19626,13 +19626,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U257">
-        <v>0.9999827958469175</v>
+        <v>-1.720415308248402E-05</v>
       </c>
       <c r="V257">
-        <v>0.9999139770146586</v>
+        <v>-8.602298534143848E-05</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19667,7 +19667,7 @@
         <v>1.107321427271288</v>
       </c>
       <c r="K258">
-        <v>52.54639434408105</v>
+        <v>0.02546394344081049</v>
       </c>
       <c r="L258">
         <v>-0.0008210191756583937</v>
@@ -19697,13 +19697,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U258">
-        <v>1.000034408898141</v>
+        <v>3.440889814099179E-05</v>
       </c>
       <c r="V258">
-        <v>0.9999311756912541</v>
+        <v>-6.882430874588508E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19738,7 +19738,7 @@
         <v>1.194384148099999</v>
       </c>
       <c r="K259">
-        <v>54.42912760439656</v>
+        <v>0.04429127604396565</v>
       </c>
       <c r="L259">
         <v>-0.0008497780754204529</v>
@@ -19768,13 +19768,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U259">
-        <v>1.00003440771421</v>
+        <v>3.440771420959443E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999827927385356</v>
+        <v>-1.720726146436924E-05</v>
       </c>
       <c r="W259">
-        <v>1.000258131130614</v>
+        <v>0.0002581311306144585</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19809,7 +19809,7 @@
         <v>1.09411409542163</v>
       </c>
       <c r="K260">
-        <v>52.24711002202295</v>
+        <v>0.02247110022022947</v>
       </c>
       <c r="L260">
         <v>-0.0008866922253166691</v>
@@ -19839,13 +19839,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U260">
-        <v>1.00000860163259</v>
+        <v>8.60163258997737E-06</v>
       </c>
       <c r="V260">
-        <v>0.9999827924424407</v>
+        <v>-1.720755755929559E-05</v>
       </c>
       <c r="W260">
-        <v>0.9997419354838709</v>
+        <v>-0.0002580645161290862</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19880,7 +19880,7 @@
         <v>1.270853587552148</v>
       </c>
       <c r="K261">
-        <v>55.96369552482053</v>
+        <v>0.05963695524820534</v>
       </c>
       <c r="L261">
         <v>-0.0007350152660760106</v>
@@ -19910,13 +19910,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U261">
-        <v>1.000008601558602</v>
+        <v>8.601558602272519E-06</v>
       </c>
       <c r="V261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261">
-        <v>1.000516262261229</v>
+        <v>0.0005162622612289169</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19951,7 +19951,7 @@
         <v>1.363874372883946</v>
       </c>
       <c r="K262">
-        <v>57.69656748806022</v>
+        <v>0.07696567488060213</v>
       </c>
       <c r="L262">
         <v>-0.0003820927998206289</v>
@@ -19981,13 +19981,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V262">
-        <v>1.000017207853664</v>
+        <v>1.720785366421396E-05</v>
       </c>
       <c r="W262">
-        <v>1.000257997936016</v>
+        <v>0.0002579979360164408</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20022,7 +20022,7 @@
         <v>1.363874372883946</v>
       </c>
       <c r="K263">
-        <v>57.69656748806022</v>
+        <v>0.07696567488060213</v>
       </c>
       <c r="L263">
         <v>7.165457468806633E-05</v>
@@ -20052,13 +20052,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U263">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V263">
-        <v>1.00001720755756</v>
+        <v>1.720755755951764E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20093,7 +20093,7 @@
         <v>1.363874372883946</v>
       </c>
       <c r="K264">
-        <v>57.69656748806022</v>
+        <v>0.07696567488060213</v>
       </c>
       <c r="L264">
         <v>0.0005573068956496184</v>
@@ -20123,13 +20123,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U264">
-        <v>1.000008601484616</v>
+        <v>8.601484616344024E-06</v>
       </c>
       <c r="V264">
-        <v>1.000017207261464</v>
+        <v>1.720726146436924E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20164,7 +20164,7 @@
         <v>1.363874372883946</v>
       </c>
       <c r="K265">
-        <v>57.69656748806021</v>
+        <v>0.07696567488060213</v>
       </c>
       <c r="L265">
         <v>0.001029305035565889</v>
@@ -20194,13 +20194,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V265">
-        <v>1.000120448757657</v>
+        <v>0.0001204487576571545</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20235,7 +20235,7 @@
         <v>1.478079494492101</v>
       </c>
       <c r="K266">
-        <v>59.64616945410152</v>
+        <v>0.09646169454101516</v>
       </c>
       <c r="L266">
         <v>0.001553172551930969</v>
@@ -20265,13 +20265,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U266">
-        <v>1.000017202821263</v>
+        <v>1.720282126260742E-05</v>
       </c>
       <c r="V266">
-        <v>1.000120434251501</v>
+        <v>0.0001204342515011003</v>
       </c>
       <c r="W266">
-        <v>1.00025793139025</v>
+        <v>0.0002579313902502101</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20306,7 +20306,7 @@
         <v>1.958943164421034</v>
       </c>
       <c r="K267">
-        <v>66.20414977806217</v>
+        <v>0.1620414977806217</v>
       </c>
       <c r="L267">
         <v>0.002445306575933252</v>
@@ -20336,13 +20336,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U267">
-        <v>1.000051607575992</v>
+        <v>5.160757599242949E-05</v>
       </c>
       <c r="V267">
-        <v>1.000154825391364</v>
+        <v>0.0001548253913641329</v>
       </c>
       <c r="W267">
-        <v>1.001031459515214</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20377,7 +20377,7 @@
         <v>2.085486235455</v>
       </c>
       <c r="K268">
-        <v>67.5901973404028</v>
+        <v>0.1759019734040279</v>
       </c>
       <c r="L268">
         <v>0.003588714070481414</v>
@@ -20407,13 +20407,13 @@
         <v>0.1999999999999318</v>
       </c>
       <c r="U268">
-        <v>1.000068806550384</v>
+        <v>6.880655038354888E-05</v>
       </c>
       <c r="V268">
-        <v>1.000172001582414</v>
+        <v>0.0001720015824144827</v>
       </c>
       <c r="W268">
-        <v>1.000257599175683</v>
+        <v>0.0002575991756827989</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20448,7 +20448,7 @@
         <v>1.840346175633637</v>
       </c>
       <c r="K269">
-        <v>64.79302387227798</v>
+        <v>0.1479302387227799</v>
       </c>
       <c r="L269">
         <v>0.00470437064316483</v>
@@ -20478,13 +20478,13 @@
         <v>0.2187499999999432</v>
       </c>
       <c r="U269">
-        <v>1.000060201589322</v>
+        <v>6.020158932185105E-05</v>
       </c>
       <c r="V269">
-        <v>1.000103183201775</v>
+        <v>0.0001031832017748258</v>
       </c>
       <c r="W269">
-        <v>0.9997424671645634</v>
+        <v>-0.0002575328354366135</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20519,7 +20519,7 @@
         <v>1.964078552211378</v>
       </c>
       <c r="K270">
-        <v>66.26270247615601</v>
+        <v>0.1626270247615601</v>
       </c>
       <c r="L270">
         <v>0.005808873736174799</v>
@@ -20549,13 +20549,13 @@
         <v>0.2500000000000568</v>
       </c>
       <c r="U270">
-        <v>1.000060197965309</v>
+        <v>6.019796530876143E-05</v>
       </c>
       <c r="V270">
-        <v>1.000137563408133</v>
+        <v>0.0001375634081333121</v>
       </c>
       <c r="W270">
-        <v>1.000257599175683</v>
+        <v>0.0002575991756827989</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20590,7 +20590,7 @@
         <v>2.22456776605918</v>
       </c>
       <c r="K271">
-        <v>68.98809165911487</v>
+        <v>0.1898809165911487</v>
       </c>
       <c r="L271">
         <v>0.007002901069755381</v>
@@ -20620,13 +20620,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U271">
-        <v>1.000068793533408</v>
+        <v>6.879353340782934E-05</v>
       </c>
       <c r="V271">
-        <v>1.000189123669687</v>
+        <v>0.0001891236696869303</v>
       </c>
       <c r="W271">
-        <v>1.000515065670873</v>
+        <v>0.000515065670873005</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20661,7 +20661,7 @@
         <v>1.745855604147446</v>
       </c>
       <c r="K272">
-        <v>63.58147899366735</v>
+        <v>0.1358147899366735</v>
       </c>
       <c r="L272">
         <v>0.007961528240793613</v>
@@ -20691,13 +20691,13 @@
         <v>0.3062500000000341</v>
       </c>
       <c r="U272">
-        <v>1.000034394400592</v>
+        <v>3.439440059160859E-05</v>
       </c>
       <c r="V272">
-        <v>1.000154708288926</v>
+        <v>0.0001547082889261642</v>
       </c>
       <c r="W272">
-        <v>0.9994851994851995</v>
+        <v>-0.000514800514800462</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20732,7 +20732,7 @@
         <v>1.568237564474588</v>
       </c>
       <c r="K273">
-        <v>61.06279209397901</v>
+        <v>0.1106279209397901</v>
       </c>
       <c r="L273">
         <v>0.008593432974238785</v>
@@ -20762,13 +20762,13 @@
         <v>0.3187500000000227</v>
       </c>
       <c r="U273">
-        <v>1.000034393217657</v>
+        <v>3.439321765741354E-05</v>
       </c>
       <c r="V273">
-        <v>1.000137497207088</v>
+        <v>0.0001374972070882219</v>
       </c>
       <c r="W273">
-        <v>0.9997424671645634</v>
+        <v>-0.0002575328354366135</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20803,7 +20803,7 @@
         <v>1.291598937361662</v>
       </c>
       <c r="K274">
-        <v>56.36234666999327</v>
+        <v>0.06362346669993268</v>
       </c>
       <c r="L274">
         <v>0.00876792670476669</v>
@@ -20833,13 +20833,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U274">
-        <v>1.000034392034805</v>
+        <v>3.439203480470887E-05</v>
       </c>
       <c r="V274">
-        <v>1.000085923940128</v>
+        <v>8.592394012829629E-05</v>
       </c>
       <c r="W274">
-        <v>0.9994848016486347</v>
+        <v>-0.0005151983513652647</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20874,7 +20874,7 @@
         <v>1.384441552999859</v>
       </c>
       <c r="K275">
-        <v>58.06145892978996</v>
+        <v>0.08061458929789955</v>
       </c>
       <c r="L275">
         <v>0.008716222318118546</v>
@@ -20904,13 +20904,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U275">
-        <v>1.00005158627805</v>
+        <v>5.158627805013083E-05</v>
       </c>
       <c r="V275">
-        <v>1.000120283180975</v>
+        <v>0.0001202831809745675</v>
       </c>
       <c r="W275">
-        <v>1.000257731958763</v>
+        <v>0.0002577319587628857</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20945,7 +20945,7 @@
         <v>1.384441552999859</v>
       </c>
       <c r="K276">
-        <v>58.06145892978996</v>
+        <v>0.08061458929789955</v>
       </c>
       <c r="L276">
         <v>0.00849904391702906</v>
@@ -20975,13 +20975,13 @@
         <v>0.1874999999999432</v>
       </c>
       <c r="U276">
-        <v>1.000042986347536</v>
+        <v>4.298634753596708E-05</v>
       </c>
       <c r="V276">
-        <v>1.000085906224765</v>
+        <v>8.590622476489784E-05</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21016,7 +21016,7 @@
         <v>1.255304939175382</v>
       </c>
       <c r="K277">
-        <v>55.66009799252978</v>
+        <v>0.05660097992529789</v>
       </c>
       <c r="L277">
         <v>0.008070605901164466</v>
@@ -21046,13 +21046,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U277">
-        <v>1.000034387599831</v>
+        <v>3.438759983143136E-05</v>
       </c>
       <c r="V277">
-        <v>1.000051539307312</v>
+        <v>5.153930731172096E-05</v>
       </c>
       <c r="W277">
-        <v>0.999742334449884</v>
+        <v>-0.0002576655501159708</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21087,7 +21087,7 @@
         <v>1.255304939175382</v>
       </c>
       <c r="K278">
-        <v>55.66009799252978</v>
+        <v>0.05660097992529789</v>
       </c>
       <c r="L278">
         <v>0.00751213121168679</v>
@@ -21117,13 +21117,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U278">
-        <v>1.000034386417365</v>
+        <v>3.43864173650843E-05</v>
       </c>
       <c r="V278">
-        <v>1.000051536651148</v>
+        <v>5.153665114843164E-05</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21158,7 +21158,7 @@
         <v>1.13771723895028</v>
       </c>
       <c r="K279">
-        <v>53.22112851131578</v>
+        <v>0.03221128511315785</v>
       </c>
       <c r="L279">
         <v>0.006789242220159907</v>
@@ -21188,13 +21188,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U279">
-        <v>1.000025788926235</v>
+        <v>2.578892623517071E-05</v>
       </c>
       <c r="V279">
-        <v>1.000034355996839</v>
+        <v>3.43559968392082E-05</v>
       </c>
       <c r="W279">
-        <v>0.999742268041237</v>
+        <v>-0.0002577319587629967</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21229,7 +21229,7 @@
         <v>1.13771723895028</v>
       </c>
       <c r="K280">
-        <v>53.22112851131578</v>
+        <v>0.03221128511315785</v>
       </c>
       <c r="L280">
         <v>0.005988133397228264</v>
@@ -21259,13 +21259,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U280">
-        <v>1.00007736478355</v>
+        <v>7.736478355035992E-05</v>
       </c>
       <c r="V280">
-        <v>1.000034354816545</v>
+        <v>3.435481654512351E-05</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21300,7 +21300,7 @@
         <v>0.9421427684950336</v>
       </c>
       <c r="K281">
-        <v>48.51047944457245</v>
+        <v>-0.01489520555427548</v>
       </c>
       <c r="L281">
         <v>0.004981140770674956</v>
@@ -21330,13 +21330,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U281">
-        <v>1.000051572532469</v>
+        <v>5.15725324692351E-05</v>
       </c>
       <c r="V281">
-        <v>0.9999828231818341</v>
+        <v>-1.717681816593153E-05</v>
       </c>
       <c r="W281">
-        <v>0.9994844031967002</v>
+        <v>-0.0005155968032998226</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21371,7 +21371,7 @@
         <v>0.8639753820607905</v>
       </c>
       <c r="K282">
-        <v>46.35122278844632</v>
+        <v>-0.03648777211553678</v>
       </c>
       <c r="L282">
         <v>0.003801619344636065</v>
@@ -21401,13 +21401,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U282">
-        <v>1.00002578493644</v>
+        <v>2.578493644000979E-05</v>
       </c>
       <c r="V282">
-        <v>0.9998969373207137</v>
+        <v>-0.000103062679286281</v>
       </c>
       <c r="W282">
-        <v>0.9997420686097499</v>
+        <v>-0.000257931390250099</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21442,7 +21442,7 @@
         <v>0.9513097672048825</v>
       </c>
       <c r="K283">
-        <v>48.75237049459187</v>
+        <v>-0.01247629505408127</v>
       </c>
       <c r="L283">
         <v>0.002672809369970949</v>
@@ -21472,13 +21472,13 @@
         <v>-0.1874999999999432</v>
       </c>
       <c r="U283">
-        <v>1.000034379028792</v>
+        <v>3.43790287924417E-05</v>
       </c>
       <c r="V283">
-        <v>0.9998969266977032</v>
+        <v>-0.0001030733022967523</v>
       </c>
       <c r="W283">
-        <v>1.000257997936016</v>
+        <v>0.0002579979360164408</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21513,7 +21513,7 @@
         <v>0.9513097672048824</v>
       </c>
       <c r="K284">
-        <v>48.75237049459187</v>
+        <v>-0.01247629505408127</v>
       </c>
       <c r="L284">
         <v>0.001636922230799831</v>
@@ -21543,13 +21543,13 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="U284">
-        <v>1.000008594461729</v>
+        <v>8.594461728961278E-06</v>
       </c>
       <c r="V284">
-        <v>0.9999140967270852</v>
+        <v>-8.590327291480016E-05</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21584,7 +21584,7 @@
         <v>1.048079169026646</v>
       </c>
       <c r="K285">
-        <v>51.17376246372095</v>
+        <v>0.01173762463720951</v>
       </c>
       <c r="L285">
         <v>0.0008112451910647799</v>
@@ -21614,13 +21614,13 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="U285">
-        <v>1.000025783163594</v>
+        <v>2.578316359391764E-05</v>
       </c>
       <c r="V285">
-        <v>0.9999140893470789</v>
+        <v>-8.591065292107292E-05</v>
       </c>
       <c r="W285">
-        <v>1.00025793139025</v>
+        <v>0.0002579313902502101</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21655,7 +21655,7 @@
         <v>1.048079169026646</v>
       </c>
       <c r="K286">
-        <v>51.17376246372095</v>
+        <v>0.01173762463720951</v>
       </c>
       <c r="L286">
         <v>0.0001625661936921455</v>
@@ -21685,13 +21685,13 @@
         <v>-0.1937499999999659</v>
       </c>
       <c r="U286">
-        <v>1.00003437666512</v>
+        <v>3.437666511985071E-05</v>
       </c>
       <c r="V286">
-        <v>0.9998797147521266</v>
+        <v>-0.0001202852478734417</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21726,7 +21726,7 @@
         <v>0.9465830218778817</v>
       </c>
       <c r="K287">
-        <v>48.62792962021762</v>
+        <v>-0.01372070379782381</v>
       </c>
       <c r="L287">
         <v>-0.0004320203540158438</v>
@@ -21756,13 +21756,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U287">
-        <v>1.000025781612554</v>
+        <v>2.57816125539545E-05</v>
       </c>
       <c r="V287">
-        <v>0.9998968859558672</v>
+        <v>-0.0001031140441327683</v>
       </c>
       <c r="W287">
-        <v>0.9997421351211965</v>
+        <v>-0.0002578648788035265</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21797,7 +21797,7 @@
         <v>0.9465830218778816</v>
       </c>
       <c r="K288">
-        <v>48.62792962021762</v>
+        <v>-0.01372070379782381</v>
       </c>
       <c r="L288">
         <v>-0.0009543825030487393</v>
@@ -21827,13 +21827,13 @@
         <v>-0.1562500000000568</v>
       </c>
       <c r="U288">
-        <v>1.00002578094788</v>
+        <v>2.578094787963892E-05</v>
       </c>
       <c r="V288">
-        <v>0.9999140627685537</v>
+        <v>-8.593723144634247E-05</v>
       </c>
       <c r="W288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21868,7 +21868,7 @@
         <v>0.8548552508652613</v>
       </c>
       <c r="K289">
-        <v>46.08743730630649</v>
+        <v>-0.03912562693693511</v>
       </c>
       <c r="L289">
         <v>-0.00149010971697416</v>
@@ -21898,13 +21898,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U289">
-        <v>1.000008593427747</v>
+        <v>8.593427746506066E-06</v>
       </c>
       <c r="V289">
-        <v>0.9999312443061692</v>
+        <v>-6.875569383080204E-05</v>
       </c>
       <c r="W289">
-        <v>0.9997420686097499</v>
+        <v>-0.000257931390250099</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21939,7 +21939,7 @@
         <v>0.956859561319494</v>
       </c>
       <c r="K290">
-        <v>48.89771244873044</v>
+        <v>-0.0110228755126956</v>
       </c>
       <c r="L290">
         <v>-0.001900508675619948</v>
@@ -21969,13 +21969,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U290">
-        <v>1.0000257800617</v>
+        <v>2.578006170006475E-05</v>
       </c>
       <c r="V290">
-        <v>0.9999312395784985</v>
+        <v>-6.876042150150141E-05</v>
       </c>
       <c r="W290">
-        <v>1.000257997936016</v>
+        <v>0.0002579979360164408</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22010,7 +22010,7 @@
         <v>1.064232519692432</v>
       </c>
       <c r="K291">
-        <v>51.55584506783185</v>
+        <v>0.01555845067831851</v>
       </c>
       <c r="L291">
         <v>-0.002108039990318818</v>
@@ -22040,13 +22040,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U291">
-        <v>1.000017186264737</v>
+        <v>1.718626473734552E-05</v>
       </c>
       <c r="V291">
-        <v>0.9999484261376335</v>
+        <v>-5.157386236653849E-05</v>
       </c>
       <c r="W291">
-        <v>1.00025793139025</v>
+        <v>0.0002579313902502101</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22081,7 +22081,7 @@
         <v>1.516329186525725</v>
       </c>
       <c r="K292">
-        <v>60.25957154752508</v>
+        <v>0.1025957154752508</v>
       </c>
       <c r="L292">
         <v>-0.001796253184346655</v>
@@ -22111,13 +22111,13 @@
         <v>-0.01249999999993179</v>
       </c>
       <c r="U292">
-        <v>1.000042964923436</v>
+        <v>4.29649234363616E-05</v>
       </c>
       <c r="V292">
-        <v>1.000034384348245</v>
+        <v>3.438434824465375E-05</v>
       </c>
       <c r="W292">
-        <v>1.001031459515214</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22152,7 +22152,7 @@
         <v>1.992220414771364</v>
       </c>
       <c r="K293">
-        <v>66.58000209264631</v>
+        <v>0.1658000209264631</v>
       </c>
       <c r="L293">
         <v>-0.0008076286543129751</v>
@@ -22182,13 +22182,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U293">
-        <v>1.000077333539556</v>
+        <v>7.733353955607924E-05</v>
       </c>
       <c r="V293">
-        <v>1.000103149498006</v>
+        <v>0.0001031494980059389</v>
       </c>
       <c r="W293">
-        <v>1.001030396702731</v>
+        <v>0.001030396702730529</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22223,7 +22223,7 @@
         <v>1.770493488263299</v>
       </c>
       <c r="K294">
-        <v>63.90534739618334</v>
+        <v>0.1390534739618334</v>
       </c>
       <c r="L294">
         <v>0.0004371271598415913</v>
@@ -22253,13 +22253,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U294">
-        <v>1.000068735608482</v>
+        <v>6.873560848208449E-05</v>
       </c>
       <c r="V294">
-        <v>1.000103138859284</v>
+        <v>0.0001031388592842575</v>
       </c>
       <c r="W294">
-        <v>0.9997426659804426</v>
+        <v>-0.0002573340195574092</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22294,7 +22294,7 @@
         <v>1.770493488263299</v>
       </c>
       <c r="K295">
-        <v>63.90534739618334</v>
+        <v>0.1390534739618334</v>
       </c>
       <c r="L295">
         <v>0.001756120374109477</v>
@@ -22324,13 +22324,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U295">
-        <v>1.000068730884223</v>
+        <v>6.873088422265639E-05</v>
       </c>
       <c r="V295">
-        <v>1.000103128222757</v>
+        <v>0.0001031282227570429</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22365,7 +22365,7 @@
         <v>1.893813580344216</v>
       </c>
       <c r="K296">
-        <v>65.44352384022432</v>
+        <v>0.1544352384022432</v>
       </c>
       <c r="L296">
         <v>0.003123471302839883</v>
@@ -22395,13 +22395,13 @@
         <v>0.2374999999999545</v>
       </c>
       <c r="U296">
-        <v>1.000068726160613</v>
+        <v>6.872616061315284E-05</v>
       </c>
       <c r="V296">
-        <v>1.000154676382635</v>
+        <v>0.0001546763826347775</v>
       </c>
       <c r="W296">
-        <v>1.0002574002574</v>
+        <v>0.0002574002574002865</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22436,7 +22436,7 @@
         <v>1.363012913122115</v>
       </c>
       <c r="K297">
-        <v>57.68114535274558</v>
+        <v>0.07681145352745578</v>
       </c>
       <c r="L297">
         <v>0.004139907592718477</v>
@@ -22466,13 +22466,13 @@
         <v>0.2874999999999659</v>
       </c>
       <c r="U297">
-        <v>1.000008590179706</v>
+        <v>8.590179706446932E-06</v>
       </c>
       <c r="V297">
-        <v>1.000120285247874</v>
+        <v>0.0001202852478736638</v>
       </c>
       <c r="W297">
-        <v>0.9992279979413278</v>
+        <v>-0.0007720020586722276</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22507,7 +22507,7 @@
         <v>1.240970488485578</v>
       </c>
       <c r="K298">
-        <v>55.37647616788615</v>
+        <v>0.05376476167886146</v>
       </c>
       <c r="L298">
         <v>0.004769989492945404</v>
@@ -22537,13 +22537,13 @@
         <v>0.3124999999999432</v>
       </c>
       <c r="U298">
-        <v>0.9999914098940842</v>
+        <v>-8.590105915806667E-06</v>
       </c>
       <c r="V298">
-        <v>1.000085907700766</v>
+        <v>8.590770076621901E-05</v>
       </c>
       <c r="W298">
-        <v>0.9997424671645634</v>
+        <v>-0.0002575328354366135</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22578,7 +22578,7 @@
         <v>1.134081826064431</v>
       </c>
       <c r="K299">
-        <v>53.14144060520157</v>
+        <v>0.03141440605201562</v>
       </c>
       <c r="L299">
         <v>0.005014607308982112</v>
@@ -22608,13 +22608,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U299">
-        <v>0.9999914098202934</v>
+        <v>-8.590179706557954E-06</v>
       </c>
       <c r="V299">
-        <v>1.000068720257014</v>
+        <v>6.872025701376572E-05</v>
       </c>
       <c r="W299">
-        <v>0.9997424008243174</v>
+        <v>-0.0002575991756825768</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22649,7 +22649,7 @@
         <v>1.134081826064431</v>
       </c>
       <c r="K300">
-        <v>53.14144060520157</v>
+        <v>0.03141440605201562</v>
       </c>
       <c r="L300">
         <v>0.004991868149192957</v>
@@ -22679,13 +22679,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U300">
-        <v>0.9999828194930033</v>
+        <v>-1.718050699672791E-05</v>
       </c>
       <c r="V300">
-        <v>1.000051536651148</v>
+        <v>5.153665114843164E-05</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22720,7 +22720,7 @@
         <v>1.515835275150655</v>
       </c>
       <c r="K301">
-        <v>60.25176966563849</v>
+        <v>0.1025176966563849</v>
       </c>
       <c r="L301">
         <v>0.005165879919304304</v>
@@ -22750,13 +22750,13 @@
         <v>0.2312500000000455</v>
       </c>
       <c r="U301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V301">
-        <v>1.000120245988938</v>
+        <v>0.0001202459889375618</v>
       </c>
       <c r="W301">
-        <v>1.001030662200464</v>
+        <v>0.001030662200463661</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22791,7 +22791,7 @@
         <v>1.377454246335595</v>
       </c>
       <c r="K302">
-        <v>57.93820211087912</v>
+        <v>0.07938202110879122</v>
       </c>
       <c r="L302">
         <v>0.005335286760931379</v>
@@ -22821,13 +22821,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U302">
-        <v>1.000008590401086</v>
+        <v>8.590401085806221E-06</v>
       </c>
       <c r="V302">
-        <v>1.000120231531578</v>
+        <v>0.000120231531577808</v>
       </c>
       <c r="W302">
-        <v>0.9997425997425997</v>
+        <v>-0.0002574002574002865</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22862,7 +22862,7 @@
         <v>0.8737030852427522</v>
       </c>
       <c r="K303">
-        <v>46.62975111286416</v>
+        <v>-0.03370248887135846</v>
       </c>
       <c r="L303">
         <v>0.004908565494410874</v>
@@ -22892,13 +22892,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U303">
-        <v>0.9999656386908341</v>
+        <v>-3.436130916589786E-05</v>
       </c>
       <c r="V303">
-        <v>1.000017173868242</v>
+        <v>1.717386824218181E-05</v>
       </c>
       <c r="W303">
-        <v>0.9984552008238929</v>
+        <v>-0.001544799176107059</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22933,7 +22933,7 @@
         <v>1.066182937661962</v>
       </c>
       <c r="K304">
-        <v>51.60157497324156</v>
+        <v>0.0160157497324156</v>
       </c>
       <c r="L304">
         <v>0.004411623679796806</v>
@@ -22963,13 +22963,13 @@
         <v>0</v>
       </c>
       <c r="U304">
-        <v>1.000008590622476</v>
+        <v>8.590622476489784E-06</v>
       </c>
       <c r="V304">
-        <v>1.000085867866527</v>
+        <v>8.586786652697853E-05</v>
       </c>
       <c r="W304">
-        <v>1.00077359463641</v>
+        <v>0.0007735946364104684</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23004,7 +23004,7 @@
         <v>0.9393073328832384</v>
       </c>
       <c r="K305">
-        <v>48.43519729731214</v>
+        <v>-0.01564802702687862</v>
       </c>
       <c r="L305">
         <v>0.003700078825369572</v>
@@ -23034,13 +23034,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U305">
-        <v>0.9999828189026432</v>
+        <v>-1.718109735682205E-05</v>
       </c>
       <c r="V305">
-        <v>1.000034344197548</v>
+        <v>3.434419754788642E-05</v>
       </c>
       <c r="W305">
-        <v>0.9994846688997679</v>
+        <v>-0.0005153311002320526</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23075,7 +23075,7 @@
         <v>0.834744710260115</v>
       </c>
       <c r="K306">
-        <v>45.49650453232655</v>
+        <v>-0.04503495467673446</v>
       </c>
       <c r="L306">
         <v>0.002702752396022188</v>
@@ -23105,13 +23105,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U306">
-        <v>0.9999656372148963</v>
+        <v>-3.436278510371427E-05</v>
       </c>
       <c r="V306">
-        <v>0.9999828284909678</v>
+        <v>-1.717150903224329E-05</v>
       </c>
       <c r="W306">
-        <v>0.9994844031967002</v>
+        <v>-0.0005155968032998226</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23146,7 +23146,7 @@
         <v>0.8347447102601149</v>
       </c>
       <c r="K307">
-        <v>45.49650453232655</v>
+        <v>-0.04503495467673446</v>
       </c>
       <c r="L307">
         <v>0.001586037701597385</v>
@@ -23176,13 +23176,13 @@
         <v>-0.1750000000000682</v>
       </c>
       <c r="U307">
-        <v>0.9999742270255408</v>
+        <v>-2.577297445915949E-05</v>
       </c>
       <c r="V307">
-        <v>0.9999141409805099</v>
+        <v>-8.585901949009767E-05</v>
       </c>
       <c r="W307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23217,7 +23217,7 @@
         <v>0.9580897088311753</v>
       </c>
       <c r="K308">
-        <v>48.92981687764853</v>
+        <v>-0.01070183122351476</v>
       </c>
       <c r="L308">
         <v>0.0006500500223080717</v>
@@ -23247,13 +23247,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U308">
-        <v>0.9999914087870926</v>
+        <v>-8.591212907416157E-06</v>
       </c>
       <c r="V308">
-        <v>0.9998797870513482</v>
+        <v>-0.0001202129486518322</v>
       </c>
       <c r="W308">
-        <v>1.0005158627805</v>
+        <v>0.0005158627805004201</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23288,7 +23288,7 @@
         <v>1.023008129131752</v>
       </c>
       <c r="K309">
-        <v>50.5686613118462</v>
+        <v>0.005686613118461969</v>
       </c>
       <c r="L309">
         <v>-2.535535473809866E-05</v>
@@ -23318,13 +23318,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U309">
-        <v>1.000008591286717</v>
+        <v>8.591286716930213E-06</v>
       </c>
       <c r="V309">
-        <v>0.9999141232846125</v>
+        <v>-8.587671538751174E-05</v>
       </c>
       <c r="W309">
-        <v>1.00025779840165</v>
+        <v>0.0002577984016500778</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23359,7 +23359,7 @@
         <v>1.023008129131752</v>
       </c>
       <c r="K310">
-        <v>50.5686613118462</v>
+        <v>0.005686613118461969</v>
       </c>
       <c r="L310">
         <v>-0.0004997743417753802</v>
@@ -23389,13 +23389,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U310">
-        <v>1.000008591212908</v>
+        <v>8.591212907527179E-06</v>
       </c>
       <c r="V310">
-        <v>0.999914115909169</v>
+        <v>-8.588409083098991E-05</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23430,7 +23430,7 @@
         <v>0.9543593724983529</v>
       </c>
       <c r="K311">
-        <v>48.83233789691139</v>
+        <v>-0.01167662103088607</v>
       </c>
       <c r="L311">
         <v>-0.000914217627282778</v>
@@ -23460,13 +23460,13 @@
         <v>-0.1749999999999545</v>
       </c>
       <c r="U311">
-        <v>1.000017182278198</v>
+        <v>1.718227819824669E-05</v>
       </c>
       <c r="V311">
-        <v>0.9998797519454415</v>
+        <v>-0.0001202480545584583</v>
       </c>
       <c r="W311">
-        <v>0.999742268041237</v>
+        <v>-0.0002577319587629967</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23501,7 +23501,7 @@
         <v>1.095632637157782</v>
       </c>
       <c r="K312">
-        <v>52.28171282175401</v>
+        <v>0.02281712821754012</v>
       </c>
       <c r="L312">
         <v>-0.001074928114566524</v>
@@ -23531,13 +23531,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U312">
-        <v>1.000042954957431</v>
+        <v>4.295495743145139E-05</v>
       </c>
       <c r="V312">
-        <v>0.9999656392811738</v>
+        <v>-3.436071882623182E-05</v>
       </c>
       <c r="W312">
-        <v>1.0005155968033</v>
+        <v>0.0005155968032999336</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23572,7 +23572,7 @@
         <v>1.095632637157782</v>
       </c>
       <c r="K313">
-        <v>52.28171282175401</v>
+        <v>0.02281712821754012</v>
       </c>
       <c r="L313">
         <v>-0.001067763287054732</v>
@@ -23602,13 +23602,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U313">
-        <v>1.000034362489906</v>
+        <v>3.436248990618118E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999828190502372</v>
+        <v>-1.718094976277396E-05</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23643,7 +23643,7 @@
         <v>1.252168110464583</v>
       </c>
       <c r="K314">
-        <v>55.5983412004836</v>
+        <v>0.05598341200483592</v>
       </c>
       <c r="L314">
         <v>-0.0007677905099196607</v>
@@ -23673,13 +23673,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U314">
-        <v>1.000051541963749</v>
+        <v>5.154196374879128E-05</v>
       </c>
       <c r="V314">
-        <v>1.000034362489906</v>
+        <v>3.436248990595914E-05</v>
       </c>
       <c r="W314">
-        <v>1.000515331100232</v>
+        <v>0.0005153311002319416</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23714,7 +23714,7 @@
         <v>1.252168110464583</v>
       </c>
       <c r="K315">
-        <v>55.5983412004836</v>
+        <v>0.05598341200483592</v>
       </c>
       <c r="L315">
         <v>-0.0003067383116321396</v>
@@ -23744,13 +23744,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U315">
-        <v>1.00004294942276</v>
+        <v>4.294942275961944E-05</v>
       </c>
       <c r="V315">
-        <v>1.000034361309166</v>
+        <v>3.436130916578684E-05</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Yara International 14.01.2021.xlsx
+++ b/data_clean/Yara International 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1382,13 +1385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W315"/>
+  <dimension ref="A1:X315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,10 +1461,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>383</v>
@@ -1518,7 +1524,7 @@
         <v>383</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1529,10 +1535,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>382.9</v>
@@ -1589,7 +1598,7 @@
         <v>382.95</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>382.95</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1600,10 +1609,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>383.6</v>
@@ -1660,21 +1672,24 @@
         <v>383.1666666666667</v>
       </c>
       <c r="T4">
+        <v>383.1666666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0005657831744789732</v>
       </c>
       <c r="V4">
         <v>0.0005657831744789732</v>
       </c>
       <c r="W4">
+        <v>0.0005657831744789732</v>
+      </c>
+      <c r="X4">
         <v>0.001828153564899626</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>383.8</v>
@@ -1731,21 +1746,24 @@
         <v>383.325</v>
       </c>
       <c r="T5">
+        <v>383.4333333333333</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0004132231404958553</v>
       </c>
       <c r="V5">
         <v>0.0004132231404958553</v>
       </c>
       <c r="W5">
+        <v>0.0004132231404958553</v>
+      </c>
+      <c r="X5">
         <v>0.0005213764337852478</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>384.3</v>
@@ -1802,21 +1820,24 @@
         <v>383.52</v>
       </c>
       <c r="T6">
+        <v>383.9</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0005087067110154386</v>
       </c>
       <c r="V6">
         <v>0.0005087067110154386</v>
       </c>
       <c r="W6">
+        <v>0.0005087067110154386</v>
+      </c>
+      <c r="X6">
         <v>0.001302761855132895</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>384</v>
@@ -1873,21 +1894,24 @@
         <v>383.6</v>
       </c>
       <c r="T7">
+        <v>384.0333333333333</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0002085940759282146</v>
       </c>
       <c r="V7">
         <v>0.0002085940759282146</v>
       </c>
       <c r="W7">
+        <v>0.0002085940759282146</v>
+      </c>
+      <c r="X7">
         <v>-0.0007806401249024209</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>384.1</v>
@@ -1944,21 +1968,24 @@
         <v>383.6714285714285</v>
       </c>
       <c r="T8">
+        <v>384.1333333333334</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0001862058692090329</v>
       </c>
       <c r="V8">
         <v>0.0001862058692090329</v>
       </c>
       <c r="W8">
+        <v>0.0001862058692090329</v>
+      </c>
+      <c r="X8">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>384</v>
@@ -2015,21 +2042,24 @@
         <v>383.7125</v>
       </c>
       <c r="T9">
+        <v>384.0333333333333</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0001070484417471373</v>
       </c>
       <c r="V9">
         <v>0.0001070484417471373</v>
       </c>
       <c r="W9">
+        <v>0.0001070484417471373</v>
+      </c>
+      <c r="X9">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>383.8</v>
@@ -2086,21 +2116,24 @@
         <v>383.7222222222222</v>
       </c>
       <c r="T10">
+        <v>383.9666666666667</v>
+      </c>
+      <c r="U10">
         <v>0.09027777777777146</v>
-      </c>
-      <c r="U10">
-        <v>2.533725698872225E-05</v>
       </c>
       <c r="V10">
         <v>2.533725698872225E-05</v>
       </c>
       <c r="W10">
+        <v>2.533725698872225E-05</v>
+      </c>
+      <c r="X10">
         <v>-0.0005208333333333037</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>383.9</v>
@@ -2157,21 +2190,24 @@
         <v>383.74</v>
       </c>
       <c r="T11">
+        <v>383.9</v>
+      </c>
+      <c r="U11">
         <v>0.1974999999999909</v>
-      </c>
-      <c r="U11">
-        <v>4.632981033725336E-05</v>
       </c>
       <c r="V11">
         <v>4.632981033725336E-05</v>
       </c>
       <c r="W11">
+        <v>4.632981033725336E-05</v>
+      </c>
+      <c r="X11">
         <v>0.0002605523710264013</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>384</v>
@@ -2228,21 +2264,24 @@
         <v>383.7636363636364</v>
       </c>
       <c r="T12">
+        <v>383.9</v>
+      </c>
+      <c r="U12">
         <v>0.2238636363636601</v>
-      </c>
-      <c r="U12">
-        <v>6.159473507150182E-05</v>
       </c>
       <c r="V12">
         <v>6.159473507150182E-05</v>
       </c>
       <c r="W12">
+        <v>6.159473507150182E-05</v>
+      </c>
+      <c r="X12">
         <v>0.0002604845011722201</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>383.9</v>
@@ -2299,21 +2338,24 @@
         <v>383.775</v>
       </c>
       <c r="T13">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="U13">
         <v>0.2249999999999659</v>
-      </c>
-      <c r="U13">
-        <v>2.961102951637429E-05</v>
       </c>
       <c r="V13">
         <v>2.961102951637429E-05</v>
       </c>
       <c r="W13">
+        <v>2.961102951637429E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0002604166666667629</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>384.2</v>
@@ -2370,21 +2412,24 @@
         <v>383.8076923076923</v>
       </c>
       <c r="T14">
+        <v>384.0333333333333</v>
+      </c>
+      <c r="U14">
         <v>0.1798076923076906</v>
-      </c>
-      <c r="U14">
-        <v>8.518613169772316E-05</v>
       </c>
       <c r="V14">
         <v>8.518613169772316E-05</v>
       </c>
       <c r="W14">
+        <v>8.518613169772316E-05</v>
+      </c>
+      <c r="X14">
         <v>0.0007814535035166603</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>384.3</v>
@@ -2441,21 +2486,24 @@
         <v>383.8428571428572</v>
       </c>
       <c r="T15">
+        <v>384.1333333333333</v>
+      </c>
+      <c r="U15">
         <v>0.1821428571428783</v>
-      </c>
-      <c r="U15">
-        <v>9.162097547710246E-05</v>
       </c>
       <c r="V15">
         <v>9.162097547710246E-05</v>
       </c>
       <c r="W15">
+        <v>9.162097547710246E-05</v>
+      </c>
+      <c r="X15">
         <v>0.0002602811035918862</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>384.2</v>
@@ -2512,21 +2560,24 @@
         <v>383.8666666666667</v>
       </c>
       <c r="T16">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U16">
         <v>0.1708333333333485</v>
-      </c>
-      <c r="U16">
-        <v>6.202935228949435E-05</v>
       </c>
       <c r="V16">
         <v>6.202935228949435E-05</v>
       </c>
       <c r="W16">
+        <v>6.202935228949435E-05</v>
+      </c>
+      <c r="X16">
         <v>-0.0002602133749675106</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>384.2</v>
@@ -2583,21 +2634,24 @@
         <v>383.9466666666667</v>
       </c>
       <c r="T17">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U17">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5.427231677668232E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002084056964222203</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>384.2</v>
@@ -2654,21 +2708,24 @@
         <v>384.0333333333334</v>
       </c>
       <c r="T18">
+        <v>384.2</v>
+      </c>
+      <c r="U18">
         <v>0.1500000000000341</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4.788473951644612E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0002257257952493763</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>384.2</v>
@@ -2725,21 +2782,24 @@
         <v>384.0733333333334</v>
       </c>
       <c r="T19">
+        <v>384.2</v>
+      </c>
+      <c r="U19">
         <v>0.1062499999999318</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>4.256217482501157E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0001041576252061027</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>384.3</v>
@@ -2796,21 +2856,24 @@
         <v>384.1066666666666</v>
       </c>
       <c r="T20">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U20">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>5.178924215587521E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>8.678898127079115E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0002602811035918862</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>384.8</v>
@@ -2867,21 +2930,24 @@
         <v>384.14</v>
       </c>
       <c r="T21">
+        <v>384.4333333333333</v>
+      </c>
+      <c r="U21">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001117218878943227</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>8.678144959750611E-05</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.001301066874837442</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>384.9</v>
@@ -2938,21 +3004,24 @@
         <v>384.2</v>
       </c>
       <c r="T22">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001134716943929082</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.00015619305461545</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.000259875259875253</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>384.9</v>
@@ -3009,21 +3078,24 @@
         <v>384.2533333333333</v>
       </c>
       <c r="T23">
+        <v>384.8666666666666</v>
+      </c>
+      <c r="U23">
         <v>0.21875</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001031443818437783</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0001388165885822801</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>384.9</v>
@@ -3080,21 +3152,24 @@
         <v>384.3133333333333</v>
       </c>
       <c r="T24">
+        <v>384.9</v>
+      </c>
+      <c r="U24">
         <v>0.2562500000000227</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9.416559250996492E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.000156146986363126</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>385</v>
@@ -3151,21 +3226,24 @@
         <v>384.3933333333333</v>
       </c>
       <c r="T25">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="U25">
         <v>0.2937500000000455</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>9.715807902432871E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0002081634777177932</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0002598077422708567</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>384.9</v>
@@ -3222,21 +3300,24 @@
         <v>384.46</v>
       </c>
       <c r="T26">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="U26">
         <v>0.3124999999999432</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>7.896392389961093E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001734334622522926</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.0002597402597402931</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>384.9</v>
@@ -3293,21 +3374,24 @@
         <v>384.52</v>
       </c>
       <c r="T27">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="U27">
         <v>0.3374999999999773</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>7.288402069915989E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0001560630494719106</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>384.7</v>
@@ -3364,21 +3448,24 @@
         <v>384.5733333333333</v>
       </c>
       <c r="T28">
+        <v>384.8333333333333</v>
+      </c>
+      <c r="U28">
         <v>0.34375</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>4.820020436868688E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001387010645306219</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0005196154845413803</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>384.6</v>
@@ -3435,21 +3522,24 @@
         <v>384.6</v>
       </c>
       <c r="T29">
+        <v>384.7333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.2750000000000341</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3.545986975539428E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>6.934091460664149E-05</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0002599428125811265</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>384.5</v>
@@ -3506,21 +3596,24 @@
         <v>384.6133333333333</v>
       </c>
       <c r="T30">
+        <v>384.6</v>
+      </c>
+      <c r="U30">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2.403873120382372E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3.466805338869783E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0002600104004161219</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>384.3</v>
@@ -3577,21 +3670,24 @@
         <v>384.62</v>
       </c>
       <c r="T31">
+        <v>384.4666666666667</v>
+      </c>
+      <c r="U31">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>5.085404887861245E-06</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.733342577825425E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.000520156046813991</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>384.2</v>
@@ -3648,21 +3744,24 @@
         <v>384.62</v>
       </c>
       <c r="T32">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0001041007000774918</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.0002602133749675106</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>384</v>
@@ -3719,21 +3818,24 @@
         <v>384.6066666666667</v>
       </c>
       <c r="T33">
+        <v>384.1666666666667</v>
+      </c>
+      <c r="U33">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>9.541570889526341E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-3.466625067161111E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0005205622071837723</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>383.5</v>
@@ -3790,21 +3892,24 @@
         <v>384.56</v>
       </c>
       <c r="T34">
+        <v>383.9</v>
+      </c>
+      <c r="U34">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-8.673327782426909E-06</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001213360836179733</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.00130208333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>383.4</v>
@@ -3861,21 +3966,24 @@
         <v>384.5</v>
       </c>
       <c r="T35">
+        <v>383.6333333333334</v>
+      </c>
+      <c r="U35">
         <v>-0.3374999999999773</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-3.469361203867205E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0001560224672353394</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0002607561929596214</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>384</v>
@@ -3932,21 +4040,24 @@
         <v>384.4466666666667</v>
       </c>
       <c r="T36">
+        <v>383.6333333333334</v>
+      </c>
+      <c r="U36">
         <v>-0.40625</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-2.602111179550448E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0001387082791504124</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.00156494522691708</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>383.9</v>
@@ -4003,21 +4114,24 @@
         <v>384.38</v>
       </c>
       <c r="T37">
+        <v>383.7666666666667</v>
+      </c>
+      <c r="U37">
         <v>-0.4375000000000568</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-8.673929637104116E-06</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001734094022577404</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.0002604166666667629</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>383.9</v>
@@ -4074,21 +4188,24 @@
         <v>384.3133333333333</v>
       </c>
       <c r="T38">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="U38">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-1.73480097493961E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001734394782940685</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>383.6</v>
@@ -4145,21 +4262,24 @@
         <v>384.2266666666667</v>
       </c>
       <c r="T39">
+        <v>383.8</v>
+      </c>
+      <c r="U39">
         <v>-0.4562500000000114</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-3.469662141675212E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.000225510434194276</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0007814535035164383</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>383</v>
@@ -4216,21 +4336,24 @@
         <v>384.0933333333334</v>
       </c>
       <c r="T40">
+        <v>383.5</v>
+      </c>
+      <c r="U40">
         <v>-0.4875000000000682</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-6.939565062757946E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0003470173855709691</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.001564129301355632</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>383.6</v>
@@ -4287,21 +4410,24 @@
         <v>384.0066666666666</v>
       </c>
       <c r="T41">
+        <v>383.4</v>
+      </c>
+      <c r="U41">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-2.602517501915091E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0002256396014860274</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.001566579634464826</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>383.7</v>
@@ -4358,21 +4484,24 @@
         <v>383.9266666666666</v>
       </c>
       <c r="T42">
+        <v>383.4333333333333</v>
+      </c>
+      <c r="U42">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-2.602585234667831E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0002083297164979792</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0002606882168925129</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>383.9</v>
@@ -4429,21 +4558,24 @@
         <v>383.8733333333333</v>
       </c>
       <c r="T43">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0001389154178748075</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0005212405525150121</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>384</v>
@@ -4500,21 +4632,24 @@
         <v>383.8333333333333</v>
       </c>
       <c r="T44">
+        <v>383.8666666666666</v>
+      </c>
+      <c r="U44">
         <v>-0.1812499999999773</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-1.735101980626652E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0001042010385370329</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0002604845011722201</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>384</v>
@@ -4571,21 +4706,24 @@
         <v>383.8</v>
       </c>
       <c r="T45">
+        <v>383.9666666666666</v>
+      </c>
+      <c r="U45">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-2.60269813038283E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-8.684324793739595E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>384.2</v>
@@ -4642,21 +4780,24 @@
         <v>383.7933333333333</v>
       </c>
       <c r="T46">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U46">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-1.737015806857478E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0005208333333333037</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>384.5</v>
@@ -4713,21 +4854,24 @@
         <v>383.8133333333333</v>
       </c>
       <c r="T47">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U47">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.602765872516954E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>5.211137938831989E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0007808433107756585</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>384.4</v>
@@ -4784,21 +4928,24 @@
         <v>383.84</v>
       </c>
       <c r="T48">
+        <v>384.3666666666666</v>
+      </c>
+      <c r="U48">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>1.735132086944091E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>6.947821857838932E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0002600780234071065</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>384.7</v>
@@ -4855,21 +5002,24 @@
         <v>383.92</v>
       </c>
       <c r="T49">
+        <v>384.5333333333333</v>
+      </c>
+      <c r="U49">
         <v>0.2812499999999432</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>4.337754951522221E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0002084201750729431</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0007804370447450637</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>385</v>
@@ -4926,21 +5076,24 @@
         <v>384.0266666666667</v>
       </c>
       <c r="T50">
+        <v>384.7</v>
+      </c>
+      <c r="U50">
         <v>0.3499999999999659</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>6.072593517947311E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.0002778356602071153</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0007798284377438236</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>385.1</v>
@@ -4997,21 +5150,24 @@
         <v>384.1</v>
       </c>
       <c r="T51">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="U51">
         <v>0.3937499999999545</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>2.602382047034446E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0001909589611832629</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0002597402597404042</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>385.2</v>
@@ -5068,21 +5224,24 @@
         <v>384.1866666666666</v>
       </c>
       <c r="T52">
+        <v>385.1</v>
+      </c>
+      <c r="U52">
         <v>0.46875</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>2.602314324895438E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0002256356851513264</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0002596728122563619</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>385.6</v>
@@ -5139,21 +5298,24 @@
         <v>384.3</v>
       </c>
       <c r="T53">
+        <v>385.3</v>
+      </c>
+      <c r="U53">
         <v>0.5625</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>6.071908747884436E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0002949954883044725</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.001038421599169448</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>385.7</v>
@@ -5210,21 +5372,24 @@
         <v>384.4399999999999</v>
       </c>
       <c r="T54">
+        <v>385.5</v>
+      </c>
+      <c r="U54">
         <v>0.6374999999999886</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>6.938902959441329E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0003642987249543594</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0002593360995850613</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>385.4</v>
@@ -5281,21 +5446,24 @@
         <v>384.6</v>
       </c>
       <c r="T55">
+        <v>385.5666666666667</v>
+      </c>
+      <c r="U55">
         <v>0.6374999999999886</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>3.469210754558638E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0004161897825409877</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>-0.0007778065854291416</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>385.5</v>
@@ -5352,21 +5520,24 @@
         <v>384.7266666666667</v>
       </c>
       <c r="T56">
+        <v>385.5333333333333</v>
+      </c>
+      <c r="U56">
         <v>0.6187499999999773</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>5.203635606743084E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0003293465071936286</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0002594706798131341</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>385.2</v>
@@ -5423,21 +5594,24 @@
         <v>384.8266666666667</v>
       </c>
       <c r="T57">
+        <v>385.3666666666666</v>
+      </c>
+      <c r="U57">
         <v>0.5812499999999545</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>2.601682421299323E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0002599247950927364</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0007782101167315147</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>385.1</v>
@@ -5494,21 +5668,24 @@
         <v>384.9066666666666</v>
       </c>
       <c r="T58">
+        <v>385.2666666666667</v>
+      </c>
+      <c r="U58">
         <v>0.5062500000000227</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>3.468819647411969E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0002078858013996321</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0002596053997921954</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>386.5</v>
@@ -5565,21 +5742,24 @@
         <v>385.0733333333333</v>
       </c>
       <c r="T59">
+        <v>385.6000000000001</v>
+      </c>
+      <c r="U59">
         <v>0.5187500000000682</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.000164763217912256</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0004330054039074493</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.00363541937159173</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>386</v>
@@ -5636,21 +5816,24 @@
         <v>385.2066666666666</v>
       </c>
       <c r="T60">
+        <v>385.8666666666666</v>
+      </c>
+      <c r="U60">
         <v>0.4937500000000341</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.0001300547964209198</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0003462543931025408</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.001293661060802087</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>385.9</v>
@@ -5707,21 +5890,24 @@
         <v>385.32</v>
       </c>
       <c r="T61">
+        <v>386.1333333333334</v>
+      </c>
+      <c r="U61">
         <v>0.4125000000000227</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.0001387070766616372</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.0002942143611222026</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0002590673575130209</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>385.1</v>
@@ -5778,21 +5964,24 @@
         <v>385.36</v>
       </c>
       <c r="T62">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="U62">
         <v>0.2812500000000568</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>7.801190981826522E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.0001038098204089177</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.00207307592640571</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>385.6</v>
@@ -5849,21 +6038,24 @@
         <v>385.44</v>
       </c>
       <c r="T63">
+        <v>385.5333333333333</v>
+      </c>
+      <c r="U63">
         <v>0.2375000000000114</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.0001386770212175037</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0002075980900977381</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.001298364061282697</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>386.4</v>
@@ -5920,21 +6112,24 @@
         <v>385.5533333333333</v>
       </c>
       <c r="T64">
+        <v>385.7</v>
+      </c>
+      <c r="U64">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0002513172490292703</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0002940362529402218</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.002074688796680491</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>386</v>
@@ -5991,21 +6186,24 @@
         <v>385.6199999999999</v>
       </c>
       <c r="T65">
+        <v>386</v>
+      </c>
+      <c r="U65">
         <v>0.2437500000000909</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.000225262300621365</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.000172911659433117</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.00103519668737051</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>385.7</v>
@@ -6062,21 +6260,24 @@
         <v>385.66</v>
       </c>
       <c r="T66">
+        <v>386.0333333333333</v>
+      </c>
+      <c r="U66">
         <v>0.2749999999999773</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.0001472537181561595</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0001037290596963558</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0007772020725388407</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>385.7</v>
@@ -6133,21 +6334,24 @@
         <v>385.6933333333334</v>
       </c>
       <c r="T67">
+        <v>385.8</v>
+      </c>
+      <c r="U67">
         <v>0.1374999999999318</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0001558927457909753</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>8.643191757862212E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>385.6</v>
@@ -6204,21 +6408,24 @@
         <v>385.6933333333333</v>
       </c>
       <c r="T68">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="U68">
         <v>0.0625</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0001472090888623434</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>-0.0002592688618096028</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>385.6</v>
@@ -6275,21 +6482,24 @@
         <v>385.6866666666667</v>
       </c>
       <c r="T69">
+        <v>385.6333333333334</v>
+      </c>
+      <c r="U69">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0001731616723956719</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-1.728488954955143E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>385.7</v>
@@ -6346,21 +6556,24 @@
         <v>385.7066666666666</v>
       </c>
       <c r="T70">
+        <v>385.6333333333334</v>
+      </c>
+      <c r="U70">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0002337277850397168</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>5.185556496623001E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0002593360995850613</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>385.4</v>
@@ -6417,21 +6630,24 @@
         <v>385.7</v>
       </c>
       <c r="T71">
+        <v>385.5666666666667</v>
+      </c>
+      <c r="U71">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.000155782112751579</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-1.728429203540216E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0007778065854291416</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>385.3</v>
@@ -6488,21 +6704,24 @@
         <v>385.7066666666666</v>
       </c>
       <c r="T72">
+        <v>385.4666666666667</v>
+      </c>
+      <c r="U72">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.000138451420857777</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>1.728459078731426E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0002594706798131341</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>385.3</v>
@@ -6559,21 +6778,24 @@
         <v>385.72</v>
       </c>
       <c r="T73">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="U73">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001211282228759103</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>3.456858407080432E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>385.2</v>
@@ -6630,21 +6852,24 @@
         <v>385.6333333333333</v>
       </c>
       <c r="T74">
+        <v>385.2666666666667</v>
+      </c>
+      <c r="U74">
         <v>-0.2124999999999773</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001038116165199554</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-0.0002246880293131914</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0002595380223203714</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>385.2</v>
@@ -6701,21 +6926,24 @@
         <v>385.58</v>
       </c>
       <c r="T75">
+        <v>385.2333333333333</v>
+      </c>
+      <c r="U75">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.0001038008407867608</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-0.0001383006309965129</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>385.5</v>
@@ -6772,21 +7000,24 @@
         <v>385.5533333333333</v>
       </c>
       <c r="T76">
+        <v>385.3</v>
+      </c>
+      <c r="U76">
         <v>-0.1750000000000682</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001124392395646101</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-6.915988035349763E-05</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0007788161993769194</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>385.5</v>
@@ -6843,21 +7074,24 @@
         <v>385.58</v>
       </c>
       <c r="T77">
+        <v>385.4</v>
+      </c>
+      <c r="U77">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>8.648199877203666E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>6.916466377338004E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>385.4</v>
@@ -6914,21 +7148,24 @@
         <v>385.5666666666667</v>
       </c>
       <c r="T78">
+        <v>385.4666666666666</v>
+      </c>
+      <c r="U78">
         <v>-0.21875</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>8.64745202824313E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-3.457994017685984E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0002594033722439493</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>385.6</v>
@@ -6985,21 +7222,24 @@
         <v>385.5133333333334</v>
       </c>
       <c r="T79">
+        <v>385.5</v>
+      </c>
+      <c r="U79">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>7.782033877812289E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-0.0001383245439611214</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.0005189413596264902</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>385.3</v>
@@ -7056,21 +7296,24 @@
         <v>385.4666666666666</v>
       </c>
       <c r="T80">
+        <v>385.4333333333333</v>
+      </c>
+      <c r="U80">
         <v>-0.125</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>2.593809441453487E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-0.0001210507202519251</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.000778008298755184</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>385.5</v>
@@ -7127,21 +7370,24 @@
         <v>385.4533333333333</v>
       </c>
       <c r="T81">
+        <v>385.4666666666667</v>
+      </c>
+      <c r="U81">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>3.458322886307208E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-3.459010722939304E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.0005190760446405207</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>385.7</v>
@@ -7198,21 +7444,24 @@
         <v>385.4533333333333</v>
       </c>
       <c r="T82">
+        <v>385.5</v>
+      </c>
+      <c r="U82">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>4.322754113106342E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0005188067444876765</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>385.6</v>
@@ -7269,21 +7518,24 @@
         <v>385.4533333333333</v>
       </c>
       <c r="T83">
+        <v>385.6</v>
+      </c>
+      <c r="U83">
         <v>0.05000000000001137</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
       <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
         <v>-0.0002592688618096028</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>385.5</v>
@@ -7340,21 +7592,24 @@
         <v>385.4466666666667</v>
       </c>
       <c r="T84">
+        <v>385.6</v>
+      </c>
+      <c r="U84">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-1.729026903651842E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-1.729565187313931E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0002593360995851723</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>385.4</v>
@@ -7411,21 +7666,24 @@
         <v>385.4266666666667</v>
       </c>
       <c r="T85">
+        <v>385.5</v>
+      </c>
+      <c r="U85">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-5.188785305354493E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>-0.0002594033722439493</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>385.4</v>
@@ -7482,21 +7740,24 @@
         <v>385.4266666666666</v>
       </c>
       <c r="T86">
+        <v>385.4333333333333</v>
+      </c>
+      <c r="U86">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-8.645283997577025E-06</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>385.6</v>
@@ -7553,21 +7814,24 @@
         <v>385.4466666666667</v>
       </c>
       <c r="T87">
+        <v>385.4666666666667</v>
+      </c>
+      <c r="U87">
         <v>0.0625</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>3.458143495671528E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>5.189054554288752E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0005189413596264902</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>385.5</v>
@@ -7624,21 +7888,24 @@
         <v>385.46</v>
       </c>
       <c r="T88">
+        <v>385.5</v>
+      </c>
+      <c r="U88">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>3.458023912239483E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>3.459190203569662E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0002593360995851723</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>385.5</v>
@@ -7695,21 +7962,24 @@
         <v>385.4800000000001</v>
       </c>
       <c r="T89">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="U89">
         <v>0.06249999999994316</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-8.644760842702048E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>5.188605821615511E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>385.7</v>
@@ -7766,21 +8036,24 @@
         <v>385.5133333333333</v>
       </c>
       <c r="T90">
+        <v>385.5666666666666</v>
+      </c>
+      <c r="U90">
         <v>0.03124999999994316</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-2.593652467841601E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>8.647227698777016E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.0005188067444876765</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>385.4</v>
@@ -7837,21 +8110,24 @@
         <v>385.5066666666666</v>
       </c>
       <c r="T91">
+        <v>385.5333333333333</v>
+      </c>
+      <c r="U91">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-4.32286623324174E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-1.729296003605274E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0007778065854291416</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>385.5</v>
@@ -7908,21 +8184,24 @@
         <v>385.5066666666666</v>
       </c>
       <c r="T92">
+        <v>385.5333333333333</v>
+      </c>
+      <c r="U92">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>3.458442490411606E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0002594706798131341</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>385.5</v>
@@ -7979,21 +8258,24 @@
         <v>385.5133333333333</v>
       </c>
       <c r="T93">
+        <v>385.4666666666667</v>
+      </c>
+      <c r="U93">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-8.645807215601486E-06</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>1.729325908783608E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>385.3</v>
@@ -8050,21 +8332,24 @@
         <v>385.4933333333333</v>
       </c>
       <c r="T94">
+        <v>385.4333333333333</v>
+      </c>
+      <c r="U94">
         <v>0</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-9.510470163087703E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-5.18788801080472E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0005188067444876765</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>385.5</v>
@@ -8121,21 +8406,24 @@
         <v>385.5066666666667</v>
       </c>
       <c r="T95">
+        <v>385.4333333333333</v>
+      </c>
+      <c r="U95">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-4.32335215432289E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>3.458771444408981E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0005190760446405207</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>385.4</v>
@@ -8192,21 +8480,24 @@
         <v>385.5</v>
       </c>
       <c r="T96">
+        <v>385.4</v>
+      </c>
+      <c r="U96">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-2.594123445676111E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-1.729325908772505E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0002594033722439493</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>385.7</v>
@@ -8263,21 +8554,24 @@
         <v>385.5</v>
       </c>
       <c r="T97">
+        <v>385.5333333333333</v>
+      </c>
+      <c r="U97">
         <v>-0.01250000000004547</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0007784120394396243</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>385.4</v>
@@ -8334,21 +8628,24 @@
         <v>385.4866666666667</v>
       </c>
       <c r="T98">
+        <v>385.5</v>
+      </c>
+      <c r="U98">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-1.729460494792612E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-3.458711629911182E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0007778065854291416</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>385.3</v>
@@ -8405,21 +8702,24 @@
         <v>385.4733333333334</v>
       </c>
       <c r="T99">
+        <v>385.4666666666666</v>
+      </c>
+      <c r="U99">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-2.594235608466278E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-3.458831260916284E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0002594706798131341</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>385.4</v>
@@ -8476,21 +8776,24 @@
         <v>385.4733333333333</v>
       </c>
       <c r="T100">
+        <v>385.3666666666666</v>
+      </c>
+      <c r="U100">
         <v>-0.03125</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-2.594302910818858E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0.0002595380223202604</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>385</v>
@@ -8547,21 +8850,24 @@
         <v>385.4466666666667</v>
       </c>
       <c r="T101">
+        <v>385.2333333333333</v>
+      </c>
+      <c r="U101">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-3.459160288832308E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-6.917901800373993E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.001037882719252647</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>384.8</v>
@@ -8618,21 +8924,24 @@
         <v>385.3933333333333</v>
       </c>
       <c r="T102">
+        <v>385.0666666666667</v>
+      </c>
+      <c r="U102">
         <v>-0.09375</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-4.324099938612935E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0001383676081430085</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0005194805194804752</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>384.8</v>
@@ -8689,21 +8998,24 @@
         <v>385.3466666666666</v>
       </c>
       <c r="T103">
+        <v>384.8666666666666</v>
+      </c>
+      <c r="U103">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-4.324286925072585E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0001210884118389988</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>384.7</v>
@@ -8760,21 +9072,24 @@
         <v>385.2933333333333</v>
       </c>
       <c r="T104">
+        <v>384.7666666666667</v>
+      </c>
+      <c r="U104">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-4.324473927774797E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.000138403515449359</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.000259875259875364</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>385</v>
@@ -8831,21 +9146,24 @@
         <v>385.2466666666667</v>
       </c>
       <c r="T105">
+        <v>384.8333333333333</v>
+      </c>
+      <c r="U105">
         <v>-0.2249999999999659</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-1.729864378618995E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0001211198394296398</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0007798284377438236</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>384.9</v>
@@ -8902,21 +9220,24 @@
         <v>385.2133333333333</v>
       </c>
       <c r="T106">
+        <v>384.8666666666666</v>
+      </c>
+      <c r="U106">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-5.189682910367033E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-8.65246508731099E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0002597402597402931</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>384.8</v>
@@ -8973,21 +9294,24 @@
         <v>385.1666666666667</v>
       </c>
       <c r="T107">
+        <v>384.9</v>
+      </c>
+      <c r="U107">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-6.054944294509035E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0001211449932503328</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0002598077422706346</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>384.6</v>
@@ -9044,21 +9368,24 @@
         <v>385.1066666666667</v>
       </c>
       <c r="T108">
+        <v>384.7666666666667</v>
+      </c>
+      <c r="U108">
         <v>-0.3062500000000341</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-6.920355360240382E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.0001557767200346394</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0005197505197505059</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>384.6</v>
@@ -9115,21 +9442,24 @@
         <v>385.06</v>
       </c>
       <c r="T109">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="U109">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-8.651042883223159E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0001211785479348082</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>384.4</v>
@@ -9186,21 +9516,24 @@
         <v>384.9866666666667</v>
       </c>
       <c r="T110">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="U110">
         <v>-0.2937500000000455</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-7.786612218063649E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.000190446510500486</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0005200208008321328</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>384.6</v>
@@ -9257,21 +9590,24 @@
         <v>384.9333333333333</v>
       </c>
       <c r="T111">
+        <v>384.5333333333333</v>
+      </c>
+      <c r="U111">
         <v>-0.2624999999999318</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-7.787218578581001E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.000138532936205582</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0005202913631634498</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>384.6</v>
@@ -9328,21 +9664,24 @@
         <v>384.86</v>
       </c>
       <c r="T112">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="U112">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-9.518452818746415E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0001905091790787017</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>384.6</v>
@@ -9399,21 +9738,24 @@
         <v>384.8066666666667</v>
       </c>
       <c r="T113">
+        <v>384.6</v>
+      </c>
+      <c r="U113">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-8.653962649507463E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001385785307209675</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>384.6</v>
@@ -9470,21 +9812,24 @@
         <v>384.76</v>
       </c>
       <c r="T114">
+        <v>384.6000000000001</v>
+      </c>
+      <c r="U114">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-7.789240462496849E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0001212730202180268</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>384.6</v>
@@ -9541,21 +9886,24 @@
         <v>384.7066666666667</v>
       </c>
       <c r="T115">
+        <v>384.6</v>
+      </c>
+      <c r="U115">
         <v>-0.1749999999999545</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-6.924308651057309E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0001386145475966716</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>384.5</v>
@@ -9612,21 +9960,24 @@
         <v>384.6733333333333</v>
       </c>
       <c r="T116">
+        <v>384.5666666666667</v>
+      </c>
+      <c r="U116">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-7.790386662853699E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-8.664610265840533E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0002600104004161219</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>384.6</v>
@@ -9683,21 +10034,24 @@
         <v>384.66</v>
       </c>
       <c r="T117">
+        <v>384.5666666666667</v>
+      </c>
+      <c r="U117">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-8.656659568218039E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-3.466144434249863E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.0002600780234069955</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>384.5</v>
@@ -9754,21 +10108,24 @@
         <v>384.64</v>
       </c>
       <c r="T118">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="U118">
         <v>-0.07499999999993179</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-8.657409010626171E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-5.199396869959294E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0002600104004161219</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>384.4</v>
@@ -9825,21 +10182,24 @@
         <v>384.62</v>
       </c>
       <c r="T119">
+        <v>384.5</v>
+      </c>
+      <c r="U119">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-9.523974441116856E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-5.199667221289506E-05</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.0002600780234071065</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>384.5</v>
@@ -9896,21 +10256,24 @@
         <v>384.5866666666667</v>
       </c>
       <c r="T120">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="U120">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-0.0001039077991462634</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-8.666562667902777E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0002601456815818359</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>384.5</v>
@@ -9967,21 +10330,24 @@
         <v>384.5600000000001</v>
       </c>
       <c r="T121">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="U121">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-7.793894782426314E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-6.933851060875185E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>384.5</v>
@@ -10038,21 +10404,24 @@
         <v>384.54</v>
       </c>
       <c r="T122">
+        <v>384.5</v>
+      </c>
+      <c r="U122">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-8.660558086359682E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-5.200748907852049E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>384.7</v>
@@ -10109,21 +10478,24 @@
         <v>384.5466666666667</v>
       </c>
       <c r="T123">
+        <v>384.5666666666667</v>
+      </c>
+      <c r="U123">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-6.929046563197705E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>1.733673133275104E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>0.000520156046813991</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>384.7</v>
@@ -10180,21 +10552,24 @@
         <v>384.5533333333333</v>
       </c>
       <c r="T124">
+        <v>384.6333333333334</v>
+      </c>
+      <c r="U124">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-5.197145034985251E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>1.733643077561631E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>384.4</v>
@@ -10251,21 +10626,24 @@
         <v>384.5533333333333</v>
       </c>
       <c r="T125">
+        <v>384.6</v>
+      </c>
+      <c r="U125">
         <v>-0.01875000000006821</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-9.528594445684657E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>0</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0007798284377437126</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>384.3</v>
@@ -10322,21 +10700,24 @@
         <v>384.5333333333334</v>
       </c>
       <c r="T126">
+        <v>384.4666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-9.529502473348828E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-5.200839068697505E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.0002601456815816139</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>384.2</v>
@@ -10393,21 +10774,24 @@
         <v>384.5066666666667</v>
       </c>
       <c r="T127">
+        <v>384.3</v>
+      </c>
+      <c r="U127">
         <v>-0.03750000000007958</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0001299601455554411</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-6.934812760051035E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0002602133749675106</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>384.2</v>
@@ -10464,21 +10848,24 @@
         <v>384.48</v>
       </c>
       <c r="T128">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U128">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0001039816299119867</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-6.935293709708912E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>384.3</v>
@@ -10535,21 +10922,24 @@
         <v>384.46</v>
       </c>
       <c r="T129">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U129">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-8.666036934668053E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-5.201831044510108E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0002602811035918862</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>384.1</v>
@@ -10606,21 +10996,24 @@
         <v>384.4266666666666</v>
       </c>
       <c r="T130">
+        <v>384.2</v>
+      </c>
+      <c r="U130">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-0.0001126682440220073</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-8.670169415136986E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0005204267499349102</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>384.1</v>
@@ -10677,21 +11070,24 @@
         <v>384.4</v>
       </c>
       <c r="T131">
+        <v>384.1666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-7.800988125150621E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-6.936736958929046E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>384.1</v>
@@ -10748,21 +11144,24 @@
         <v>384.3666666666667</v>
       </c>
       <c r="T132">
+        <v>384.1000000000001</v>
+      </c>
+      <c r="U132">
         <v>-0.1687499999999318</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-6.067908565277058E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-8.671522719383429E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>383.9</v>
@@ -10819,21 +11218,24 @@
         <v>384.3266666666667</v>
       </c>
       <c r="T133">
+        <v>384.0333333333333</v>
+      </c>
+      <c r="U133">
         <v>-0.1875</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-7.802070149287577E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001040672968518619</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0005206977349649922</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>383.8</v>
@@ -10890,21 +11292,24 @@
         <v>384.2866666666667</v>
       </c>
       <c r="T134">
+        <v>383.9333333333334</v>
+      </c>
+      <c r="U134">
         <v>-0.2062500000000682</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-7.802678919766048E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001040781279814107</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0002604845011721091</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>383.8</v>
@@ -10961,21 +11366,24 @@
         <v>384.24</v>
       </c>
       <c r="T135">
+        <v>383.8333333333333</v>
+      </c>
+      <c r="U135">
         <v>-0.2187499999999432</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-0.0001040438371365804</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.000121437121593404</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>383.9</v>
@@ -11032,21 +11440,24 @@
         <v>384.2</v>
       </c>
       <c r="T136">
+        <v>383.8333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.2187499999999432</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-8.671221948608476E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>-0.0001041016031645414</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.0002605523710264013</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>383.9</v>
@@ -11103,21 +11514,24 @@
         <v>384.16</v>
       </c>
       <c r="T137">
+        <v>383.8666666666666</v>
+      </c>
+      <c r="U137">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-7.804776523223644E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0001041124414368211</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>383.8</v>
@@ -11174,21 +11588,24 @@
         <v>384.1</v>
       </c>
       <c r="T138">
+        <v>383.8666666666666</v>
+      </c>
+      <c r="U138">
         <v>-0.2249999999999659</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-6.938120636568179E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-0.0001561849229486656</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0002604845011721091</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>383.8</v>
@@ -11245,21 +11662,24 @@
         <v>384.04</v>
       </c>
       <c r="T139">
+        <v>383.8333333333333</v>
+      </c>
+      <c r="U139">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-6.938602045158948E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-0.000156209320489431</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>383.6</v>
@@ -11316,21 +11736,24 @@
         <v>383.9866666666666</v>
       </c>
       <c r="T140">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="U140">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-6.939083520540734E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-0.0001388744228033589</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0005211047420531356</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>383.6</v>
@@ -11387,21 +11810,24 @@
         <v>383.94</v>
       </c>
       <c r="T141">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="U141">
         <v>-0.1875</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-8.674456328461311E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-0.0001215319976386464</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>383.8</v>
@@ -11458,21 +11884,24 @@
         <v>383.9133333333333</v>
       </c>
       <c r="T142">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="U142">
         <v>-0.15625</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-6.940167084512616E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-6.9455296834664E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0005213764337852478</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>383.5</v>
@@ -11529,21 +11958,24 @@
         <v>383.8666666666667</v>
       </c>
       <c r="T143">
+        <v>383.6333333333334</v>
+      </c>
+      <c r="U143">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-9.543392068578349E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001215552121137664</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0007816571130797589</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>383.6</v>
@@ -11600,21 +12032,24 @@
         <v>383.8199999999999</v>
       </c>
       <c r="T144">
+        <v>383.6333333333334</v>
+      </c>
+      <c r="U144">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-8.67663901710225E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-0.0001215699895799061</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0.0002607561929597324</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>384.2</v>
@@ -11671,21 +12106,24 @@
         <v>383.8266666666667</v>
       </c>
       <c r="T145">
+        <v>383.7666666666667</v>
+      </c>
+      <c r="U145">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-3.470956769247024E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>1.736925294881786E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.001564129301355521</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>384.1</v>
@@ -11742,21 +12180,24 @@
         <v>383.8266666666667</v>
       </c>
       <c r="T146">
+        <v>383.9666666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-3.471077248817789E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0002602811035917751</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>384</v>
@@ -11813,21 +12254,24 @@
         <v>383.82</v>
       </c>
       <c r="T147">
+        <v>384.1</v>
+      </c>
+      <c r="U147">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-5.206796605183861E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-1.736895126269733E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>384.1</v>
@@ -11884,21 +12328,24 @@
         <v>383.8333333333333</v>
       </c>
       <c r="T148">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U148">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-3.471378484387611E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>3.473850589674754E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>384</v>
@@ -11955,21 +12402,24 @@
         <v>383.8466666666666</v>
       </c>
       <c r="T149">
+        <v>384.0333333333334</v>
+      </c>
+      <c r="U149">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-3.47149899325716E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>3.473729917491397E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>384.1</v>
@@ -12026,21 +12476,24 @@
         <v>383.8666666666667</v>
       </c>
       <c r="T150">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U150">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-3.471619510497792E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>5.210413880574194E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>384.1</v>
@@ -12097,21 +12550,24 @@
         <v>383.88</v>
       </c>
       <c r="T151">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U151">
         <v>0.1437499999999545</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-3.471740036098403E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>3.473428273692569E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>384</v>
@@ -12168,21 +12624,24 @@
         <v>383.8866666666667</v>
       </c>
       <c r="T152">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U152">
         <v>0.1875</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-4.339825712595946E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>1.736653815420652E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>384.1</v>
@@ -12239,21 +12698,24 @@
         <v>383.9066666666667</v>
       </c>
       <c r="T153">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U153">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>-5.208016874003185E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>5.209870968880814E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>384.1</v>
@@ -12310,21 +12772,24 @@
         <v>383.9266666666666</v>
       </c>
       <c r="T154">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U154">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>-5.208288122482418E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>5.209599555433542E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>384</v>
@@ -12381,21 +12846,24 @@
         <v>383.9533333333333</v>
       </c>
       <c r="T155">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U155">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-3.472372932844525E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>6.945770893751479E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>384.2</v>
@@ -12452,21 +12920,24 @@
         <v>383.9933333333334</v>
       </c>
       <c r="T156">
+        <v>384.1000000000001</v>
+      </c>
+      <c r="U156">
         <v>0.1062499999999318</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-8.681233777063646E-06</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>0.0001041793273490743</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0005208333333333037</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>384.1</v>
@@ -12523,21 +12994,24 @@
         <v>384.0133333333333</v>
       </c>
       <c r="T157">
+        <v>384.1</v>
+      </c>
+      <c r="U157">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-8.681309141223004E-06</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>5.208423757330216E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0002602811035917751</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>384</v>
@@ -12594,21 +13068,24 @@
         <v>384.0466666666667</v>
       </c>
       <c r="T158">
+        <v>384.1</v>
+      </c>
+      <c r="U158">
         <v>0.06250000000005684</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-1.736276901442846E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>8.680254157855671E-05</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>383.8</v>
@@ -12665,21 +13142,24 @@
         <v>384.0600000000001</v>
       </c>
       <c r="T159">
+        <v>383.9666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-4.340767621358044E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>3.471800302068395E-05</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0005208333333333037</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>383.8</v>
@@ -12736,21 +13216,24 @@
         <v>384.0333333333334</v>
       </c>
       <c r="T160">
+        <v>383.8666666666666</v>
+      </c>
+      <c r="U160">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-2.604573631292961E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-6.943359544520078E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>384</v>
@@ -12807,21 +13290,24 @@
         <v>384.0266666666667</v>
       </c>
       <c r="T161">
+        <v>383.8666666666666</v>
+      </c>
+      <c r="U161">
         <v>-0.03125</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-8.682138237126047E-06</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-1.735960420101712E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0005211047420530246</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>384.1</v>
@@ -12878,21 +13364,24 @@
         <v>384.0333333333334</v>
       </c>
       <c r="T162">
+        <v>383.9666666666667</v>
+      </c>
+      <c r="U162">
         <v>-0.03125</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>0</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>1.735990556217537E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>384</v>
@@ -12949,21 +13438,24 @@
         <v>384.0266666666666</v>
       </c>
       <c r="T163">
+        <v>384.0333333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.03125</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>8.682213617383638E-06</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-1.735960420112814E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0002603488674824961</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>384.1</v>
@@ -13020,21 +13512,24 @@
         <v>384.0333333333334</v>
       </c>
       <c r="T164">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="U164">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>2.604641471104507E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>1.735990556217537E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0002604166666666519</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>384.2</v>
@@ -13091,21 +13586,24 @@
         <v>384.04</v>
       </c>
       <c r="T165">
+        <v>384.1</v>
+      </c>
+      <c r="U165">
         <v>-0.04374999999993179</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>3.472764841716547E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>1.735960420079508E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0002603488674823851</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>384.5</v>
@@ -13162,21 +13660,24 @@
         <v>384.0666666666667</v>
       </c>
       <c r="T166">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="U166">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>5.208966367442613E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>6.943721140162395E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.0007808433107756585</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>384.5</v>
@@ -13233,21 +13734,24 @@
         <v>384.1</v>
       </c>
       <c r="T167">
+        <v>384.4</v>
+      </c>
+      <c r="U167">
         <v>0.05625000000003411</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>5.20869504827548E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>8.679048776261133E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>384.4</v>
@@ -13304,21 +13808,24 @@
         <v>384.12</v>
       </c>
       <c r="T168">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="U168">
         <v>0.1062499999999318</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>5.208423757330216E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>5.206977349647701E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>-0.0002600780234071065</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>384.4</v>
@@ -13375,21 +13882,24 @@
         <v>384.14</v>
       </c>
       <c r="T169">
+        <v>384.4333333333333</v>
+      </c>
+      <c r="U169">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>5.208152494717844E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>5.206706237648184E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>384.2</v>
@@ -13446,21 +13956,24 @@
         <v>384.1533333333334</v>
       </c>
       <c r="T170">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="U170">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>5.207881260305136E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>3.47095676922482E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0005202913631633388</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>384</v>
@@ -13517,21 +14030,24 @@
         <v>384.14</v>
       </c>
       <c r="T171">
+        <v>384.2</v>
+      </c>
+      <c r="U171">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>3.471740036098403E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-3.470836298014035E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0005205622071837723</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>384.2</v>
@@ -13588,21 +14104,24 @@
         <v>384.1466666666666</v>
       </c>
       <c r="T172">
+        <v>384.1333333333333</v>
+      </c>
+      <c r="U172">
         <v>0.1562500000000568</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>3.471619510508894E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>1.735478384623512E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0005208333333333037</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>384.5</v>
@@ -13659,21 +14178,24 @@
         <v>384.18</v>
       </c>
       <c r="T173">
+        <v>384.2333333333333</v>
+      </c>
+      <c r="U173">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>8.678747483159555E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>8.677241331445096E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.0007808433107756585</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>384.6</v>
@@ -13730,21 +14252,24 @@
         <v>384.2333333333333</v>
       </c>
       <c r="T174">
+        <v>384.4333333333333</v>
+      </c>
+      <c r="U174">
         <v>0.1437499999999545</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>8.677994341943496E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>0.0001388238152255639</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0002600780234069955</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>384.7</v>
@@ -13801,21 +14326,24 @@
         <v>384.2933333333333</v>
       </c>
       <c r="T175">
+        <v>384.6</v>
+      </c>
+      <c r="U175">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>4.33862066573365E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>0.0001561551140798478</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.0002600104004160109</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>384.4</v>
@@ -13872,21 +14400,24 @@
         <v>384.32</v>
       </c>
       <c r="T176">
+        <v>384.5666666666666</v>
+      </c>
+      <c r="U176">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>2.603059462558122E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>6.939143709683293E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>-0.0007798284377437126</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>384.4</v>
@@ -13943,21 +14474,24 @@
         <v>384.34</v>
       </c>
       <c r="T177">
+        <v>384.5</v>
+      </c>
+      <c r="U177">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>3.4706556068409E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>5.203996669456146E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>384.2</v>
@@ -14014,21 +14548,24 @@
         <v>384.3533333333334</v>
       </c>
       <c r="T178">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="U178">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>8.67633789125577E-06</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>3.469150578472302E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0005202913631633388</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>384.3</v>
@@ -14085,21 +14622,24 @@
         <v>384.3666666666667</v>
       </c>
       <c r="T179">
+        <v>384.3</v>
+      </c>
+      <c r="U179">
         <v>0.06250000000005684</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>2.602878783930507E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>3.469030232605697E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0002602811035918862</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>384.4</v>
@@ -14156,21 +14696,24 @@
         <v>384.38</v>
       </c>
       <c r="T180">
+        <v>384.3</v>
+      </c>
+      <c r="U180">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>2.602811035923303E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>3.468909895065764E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0.0002602133749673996</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>384.6</v>
@@ -14227,21 +14770,24 @@
         <v>384.3866666666667</v>
       </c>
       <c r="T181">
+        <v>384.4333333333333</v>
+      </c>
+      <c r="U181">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>4.337905485707338E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>1.734394782948456E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.0005202913631634498</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>384.7</v>
@@ -14298,21 +14844,24 @@
         <v>384.4</v>
       </c>
       <c r="T182">
+        <v>384.5666666666667</v>
+      </c>
+      <c r="U182">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>6.072804247492236E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>3.468729404421111E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0002600104004160109</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>384.7</v>
@@ -14369,21 +14918,24 @@
         <v>384.42</v>
       </c>
       <c r="T183">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="U183">
         <v>0.04375000000004547</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>5.204944697467795E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>5.202913631618955E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>384.9</v>
@@ -14440,21 +14992,24 @@
         <v>384.4533333333333</v>
       </c>
       <c r="T184">
+        <v>384.7666666666667</v>
+      </c>
+      <c r="U184">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>6.939565062746844E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>8.671071571031419E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0.0005198856251624751</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>384.8</v>
@@ -14511,21 +15066,24 @@
         <v>384.4933333333334</v>
       </c>
       <c r="T185">
+        <v>384.8</v>
+      </c>
+      <c r="U185">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>6.939083520562939E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>0.0001040438371369135</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0002598077422706346</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>384.9</v>
@@ -14582,21 +15140,24 @@
         <v>384.5533333333333</v>
       </c>
       <c r="T186">
+        <v>384.8666666666666</v>
+      </c>
+      <c r="U186">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>6.071276789487712E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.000156049519714152</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0.000259875259875253</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>384.8</v>
@@ -14653,21 +15214,24 @@
         <v>384.5933333333334</v>
       </c>
       <c r="T187">
+        <v>384.8333333333333</v>
+      </c>
+      <c r="U187">
         <v>0.15625</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>6.07090820785583E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>0.0001040167813741721</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>-0.0002598077422706346</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>384.8</v>
@@ -14724,21 +15288,24 @@
         <v>384.6133333333334</v>
       </c>
       <c r="T188">
+        <v>384.8333333333333</v>
+      </c>
+      <c r="U188">
         <v>0.1687499999999318</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>6.93775962399279E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>5.20029815043177E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>384.9</v>
@@ -14795,21 +15362,24 @@
         <v>384.6333333333333</v>
       </c>
       <c r="T189">
+        <v>384.8333333333333</v>
+      </c>
+      <c r="U189">
         <v>0.1812499999999773</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>9.538757706883949E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>5.200027733454071E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.000259875259875253</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>384.9</v>
@@ -14866,21 +15436,24 @@
         <v>384.6466666666666</v>
       </c>
       <c r="T190">
+        <v>384.8666666666666</v>
+      </c>
+      <c r="U190">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>9.537847914686814E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>3.46650489644329E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>385</v>
@@ -14937,21 +15510,24 @@
         <v>384.6866666666666</v>
       </c>
       <c r="T191">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="U191">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>8.669943905448285E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0001039915420211202</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0002598077422708567</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>385</v>
@@ -15008,21 +15584,24 @@
         <v>384.7266666666666</v>
       </c>
       <c r="T192">
+        <v>384.9666666666666</v>
+      </c>
+      <c r="U192">
         <v>0.1812500000000909</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>7.802273062229581E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0001039807289049399</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>385.3</v>
@@ -15079,21 +15658,24 @@
         <v>384.8</v>
       </c>
       <c r="T193">
+        <v>385.1000000000001</v>
+      </c>
+      <c r="U193">
         <v>0.1875</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0.000112690707350982</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>0.0001906115164014288</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0.0007792207792207684</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>385.3</v>
@@ -15150,21 +15732,24 @@
         <v>384.8666666666667</v>
       </c>
       <c r="T194">
+        <v>385.2</v>
+      </c>
+      <c r="U194">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>0.0001040104703873279</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>0.0001732501732500946</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>385.6</v>
@@ -15221,21 +15806,24 @@
         <v>384.9466666666667</v>
       </c>
       <c r="T195">
+        <v>385.4</v>
+      </c>
+      <c r="U195">
         <v>0.1874999999999432</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>0.00012133292889005</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0002078641953924265</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.0007786140669607811</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>385.6</v>
@@ -15292,21 +15880,24 @@
         <v>385.0133333333333</v>
       </c>
       <c r="T196">
+        <v>385.5</v>
+      </c>
+      <c r="U196">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>9.532144992596692E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>0.0001731841640397747</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>385.7</v>
@@ -15363,21 +15954,24 @@
         <v>385.08</v>
       </c>
       <c r="T197">
+        <v>385.6333333333334</v>
+      </c>
+      <c r="U197">
         <v>0.2437500000000341</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>0.0001039771250324062</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>0.0001731541764786737</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0002593360995850613</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>385.7</v>
@@ -15434,21 +16028,24 @@
         <v>385.1466666666667</v>
       </c>
       <c r="T198">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="U198">
         <v>0.2812499999999432</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>0.000112630174490258</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>0.0001731241993008226</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>385.6</v>
@@ -15505,21 +16102,24 @@
         <v>385.1933333333333</v>
       </c>
       <c r="T199">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="U199">
         <v>0.2999999999999545</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0.0001039546064884878</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>0.000121165962750025</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0002592688618096028</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>385.5</v>
@@ -15576,21 +16176,24 @@
         <v>385.24</v>
       </c>
       <c r="T200">
+        <v>385.6</v>
+      </c>
+      <c r="U200">
         <v>0.3249999999999886</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>0.0001126057844724748</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0.0001211512833381168</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0002593360995851723</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>385.6</v>
@@ -15647,21 +16250,24 @@
         <v>385.2866666666667</v>
       </c>
       <c r="T201">
+        <v>385.5666666666667</v>
+      </c>
+      <c r="U201">
         <v>0.3125000000000568</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>0.0001385761302614696</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>0.000121136607482919</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.0002594033722438382</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>385.7</v>
@@ -15718,21 +16324,24 @@
         <v>385.3466666666666</v>
       </c>
       <c r="T202">
+        <v>385.6000000000001</v>
+      </c>
+      <c r="U202">
         <v>0.3125</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>0.0001298971214800382</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>0.0001557282023774142</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0002593360995850613</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>385.5</v>
@@ -15789,21 +16398,24 @@
         <v>385.3933333333333</v>
       </c>
       <c r="T203">
+        <v>385.6000000000001</v>
+      </c>
+      <c r="U203">
         <v>0.2562500000000227</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>8.658683360596164E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>0.000121103076018203</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.0005185377236193167</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>385.8</v>
@@ -15860,21 +16472,24 @@
         <v>385.4533333333333</v>
       </c>
       <c r="T204">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="U204">
         <v>0.2187500000000568</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>0.0001038952043703745</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>0.0001556851009358873</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0007782101167315147</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>385.8</v>
@@ -15931,21 +16546,24 @@
         <v>385.5133333333334</v>
       </c>
       <c r="T205">
+        <v>385.7</v>
+      </c>
+      <c r="U205">
         <v>0.1749999999999545</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>9.522737700518036E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>0.0001556608668582538</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>385.8</v>
@@ -16002,21 +16620,24 @@
         <v>385.5666666666667</v>
       </c>
       <c r="T206">
+        <v>385.8</v>
+      </c>
+      <c r="U206">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>0.0001211869395103538</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>0.0001383436802875337</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>385.9</v>
@@ -16073,21 +16694,24 @@
         <v>385.6266666666667</v>
       </c>
       <c r="T207">
+        <v>385.8333333333333</v>
+      </c>
+      <c r="U207">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>0.0001298274160881352</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>0.0001556151119566085</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0002592016588904844</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>386.4</v>
@@ -16144,21 +16768,24 @@
         <v>385.7</v>
       </c>
       <c r="T208">
+        <v>386.0333333333333</v>
+      </c>
+      <c r="U208">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>0.0001903888259069397</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>0.0001901666551411552</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0.001295672454003638</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>386.7</v>
@@ -16215,21 +16842,24 @@
         <v>385.7933333333333</v>
       </c>
       <c r="T209">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="U209">
         <v>0.1875</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>0.0002076573653471137</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>0.0002419842710223996</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0007763975155279379</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>386.8</v>
@@ -16286,21 +16916,24 @@
         <v>385.8733333333333</v>
       </c>
       <c r="T210">
+        <v>386.6333333333333</v>
+      </c>
+      <c r="U210">
         <v>0.2312499999999886</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>0.0002076142527185354</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>0.0002073649104010755</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0002585983966900685</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>386.9</v>
@@ -16357,21 +16990,24 @@
         <v>385.96</v>
       </c>
       <c r="T211">
+        <v>386.8</v>
+      </c>
+      <c r="U211">
         <v>0.3249999999999886</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>0.0001989223597380629</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>0.0002245987457025755</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.0002585315408478728</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>387.5</v>
@@ -16428,21 +17064,24 @@
         <v>386.08</v>
       </c>
       <c r="T212">
+        <v>387.0666666666667</v>
+      </c>
+      <c r="U212">
         <v>0.4187499999999318</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>0.0002421181882641399</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>0.0003109130479843625</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.001550788317394636</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>387.5</v>
@@ -16499,21 +17138,24 @@
         <v>386.2</v>
       </c>
       <c r="T213">
+        <v>387.3</v>
+      </c>
+      <c r="U213">
         <v>0.5187499999999545</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>0.0002420595812369086</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>0.0003108164111063072</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>387.5</v>
@@ -16570,21 +17212,24 @@
         <v>386.3266666666667</v>
       </c>
       <c r="T214">
+        <v>387.5</v>
+      </c>
+      <c r="U214">
         <v>0.6187499999999773</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>0.0002247152166774402</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0.0003279820472985584</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>387.5</v>
@@ -16641,21 +17286,24 @@
         <v>386.46</v>
       </c>
       <c r="T215">
+        <v>387.5</v>
+      </c>
+      <c r="U215">
         <v>0.6999999999999318</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>0.0002333056822894086</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0003451310635214089</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>387.4</v>
@@ -16712,21 +17360,24 @@
         <v>386.58</v>
       </c>
       <c r="T216">
+        <v>387.4666666666666</v>
+      </c>
+      <c r="U216">
         <v>0.7062500000000114</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0.0002159733920781282</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0003105107902499071</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.0002580645161290862</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>387.5</v>
@@ -16783,21 +17434,24 @@
         <v>386.7</v>
       </c>
       <c r="T217">
+        <v>387.4666666666666</v>
+      </c>
+      <c r="U217">
         <v>0.6875</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>0.0002332008982552924</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.0003104144032284317</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0002581311306144585</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>387.4</v>
@@ -16854,21 +17508,24 @@
         <v>386.8266666666667</v>
       </c>
       <c r="T218">
+        <v>387.4333333333333</v>
+      </c>
+      <c r="U218">
         <v>0.6562500000000568</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>0.0002245114716725727</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.000327557969140635</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0002580645161290862</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>387.1</v>
@@ -16925,21 +17582,24 @@
         <v>386.9133333333333</v>
       </c>
       <c r="T219">
+        <v>387.3333333333333</v>
+      </c>
+      <c r="U219">
         <v>0.5812500000000114</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>0.0001899286041111559</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0002240452226665024</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0007743933918429313</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>386.9</v>
@@ -16996,21 +17656,24 @@
         <v>386.9866666666666</v>
       </c>
       <c r="T220">
+        <v>387.1333333333334</v>
+      </c>
+      <c r="U220">
         <v>0.4375000000000568</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>0.000172629580078576</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0001895342626254681</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0005166623611471133</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>386.7</v>
@@ -17067,21 +17730,24 @@
         <v>387.0466666666667</v>
       </c>
       <c r="T221">
+        <v>386.8999999999999</v>
+      </c>
+      <c r="U221">
         <v>0.28125</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>0.0001467098166128</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0001550441014335213</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.0005169294391315082</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>387</v>
@@ -17138,21 +17804,24 @@
         <v>387.1199999999999</v>
       </c>
       <c r="T222">
+        <v>386.8666666666666</v>
+      </c>
+      <c r="U222">
         <v>0.1437499999999545</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>0.0001725744658820361</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0001894689701495977</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0007757951900697613</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>387</v>
@@ -17209,21 +17878,24 @@
         <v>387.16</v>
       </c>
       <c r="T223">
+        <v>386.8999999999999</v>
+      </c>
+      <c r="U223">
         <v>0.01250000000004547</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>0.0001466629857134194</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.000103327133705422</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>387.3</v>
@@ -17280,21 +17952,24 @@
         <v>387.2</v>
       </c>
       <c r="T224">
+        <v>387.1</v>
+      </c>
+      <c r="U224">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>0.0001725193868660213</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0001033164583119639</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0007751937984497026</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>387.7</v>
@@ -17351,21 +18026,24 @@
         <v>387.26</v>
       </c>
       <c r="T225">
+        <v>387.3333333333333</v>
+      </c>
+      <c r="U225">
         <v>-0.09375000000005684</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>0.0001811141105141356</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0001549586776858902</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.001032791117996368</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>387.8</v>
@@ -17422,21 +18100,24 @@
         <v>387.3199999999999</v>
       </c>
       <c r="T226">
+        <v>387.6</v>
+      </c>
+      <c r="U226">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>0.0001897042338534494</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.000154934669214235</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0002579313902502101</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>387.6</v>
@@ -17493,21 +18174,24 @@
         <v>387.3266666666667</v>
       </c>
       <c r="T227">
+        <v>387.7</v>
+      </c>
+      <c r="U227">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>0.0001638044003033912</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>1.721229646478584E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>-0.000515729757606942</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>387</v>
@@ -17564,21 +18248,24 @@
         <v>387.2933333333333</v>
       </c>
       <c r="T228">
+        <v>387.4666666666667</v>
+      </c>
+      <c r="U228">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>0.0001120583392955066</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-8.606000103283939E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.001547987616099089</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>387.1</v>
@@ -17635,21 +18322,24 @@
         <v>387.2666666666667</v>
       </c>
       <c r="T229">
+        <v>387.2333333333333</v>
+      </c>
+      <c r="U229">
         <v>0.03125</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>0.0001292835964972205</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-6.885392639510712E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.0002583979328165675</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>387.3</v>
@@ -17706,21 +18396,24 @@
         <v>387.2533333333333</v>
       </c>
       <c r="T230">
+        <v>387.1333333333334</v>
+      </c>
+      <c r="U230">
         <v>0.08125000000006821</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>0.000155120261291275</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-3.442933379249613E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0.0005166623611470023</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>387.5</v>
@@ -17777,21 +18470,24 @@
         <v>387.26</v>
       </c>
       <c r="T231">
+        <v>387.3</v>
+      </c>
+      <c r="U231">
         <v>0.1437500000000682</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>0.0001637126584352888</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>1.721525960629577E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.0005163955589981839</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>387.7</v>
@@ -17848,21 +18544,24 @@
         <v>387.2733333333334</v>
       </c>
       <c r="T232">
+        <v>387.5</v>
+      </c>
+      <c r="U232">
         <v>0.1749999999999545</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>0.0001723009063028247</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>3.442992649227428E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.0005161290322579504</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>387.7</v>
@@ -17919,21 +18618,24 @@
         <v>387.2933333333334</v>
       </c>
       <c r="T233">
+        <v>387.6333333333334</v>
+      </c>
+      <c r="U233">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>0.000189498346196304</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>5.164311166949709E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>387.6</v>
@@ -17990,21 +18692,24 @@
         <v>387.3266666666667</v>
       </c>
       <c r="T234">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U234">
         <v>0.125</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>0.0001550147263991164</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>8.60674079938839E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.000257931390250099</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>387.7</v>
@@ -18061,21 +18766,24 @@
         <v>387.3800000000001</v>
       </c>
       <c r="T235">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U235">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>0.0001636012950334553</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>0.0001376960016525874</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0.0002579979360164408</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>387.6</v>
@@ -18132,21 +18840,24 @@
         <v>387.4399999999999</v>
       </c>
       <c r="T236">
+        <v>387.6333333333334</v>
+      </c>
+      <c r="U236">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>0.0001549653480263924</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>0.0001548866745828548</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.000257931390250099</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>387.6</v>
@@ -18203,21 +18914,24 @@
         <v>387.4800000000001</v>
       </c>
       <c r="T237">
+        <v>387.6333333333334</v>
+      </c>
+      <c r="U237">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>0.00014633348540527</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>0.0001032417922779416</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>387.5</v>
@@ -18274,21 +18988,24 @@
         <v>387.5133333333334</v>
       </c>
       <c r="T238">
+        <v>387.5666666666667</v>
+      </c>
+      <c r="U238">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>9.467251914951902E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>8.602594542517217E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0002579979360165519</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>387.5</v>
@@ -18345,21 +19062,24 @@
         <v>387.5266666666667</v>
       </c>
       <c r="T239">
+        <v>387.5333333333334</v>
+      </c>
+      <c r="U239">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>6.884622335445734E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>3.44074182392351E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>387.6</v>
@@ -18416,21 +19136,24 @@
         <v>387.52</v>
       </c>
       <c r="T240">
+        <v>387.5333333333333</v>
+      </c>
+      <c r="U240">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>6.884148387809041E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-1.720311720476708E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.0002580645161291972</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>387.7</v>
@@ -18487,21 +19210,24 @@
         <v>387.5133333333334</v>
       </c>
       <c r="T241">
+        <v>387.6</v>
+      </c>
+      <c r="U241">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>6.883674505453463E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-1.72034131571408E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0002579979360164408</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>387.9</v>
@@ -18558,21 +19284,24 @@
         <v>387.5333333333334</v>
       </c>
       <c r="T242">
+        <v>387.7333333333333</v>
+      </c>
+      <c r="U242">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>3.441600344156193E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>5.161112735896367E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.0005158627805004201</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>387.8</v>
@@ -18629,21 +19358,24 @@
         <v>387.5866666666667</v>
       </c>
       <c r="T243">
+        <v>387.8</v>
+      </c>
+      <c r="U243">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>2.581111426569471E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>0.0001376225701015255</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0002577984016498558</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>387.6</v>
@@ -18700,21 +19432,24 @@
         <v>387.6199999999999</v>
       </c>
       <c r="T244">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="U244">
         <v>0.06250000000005684</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>8.603482689828468E-06</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>8.60022704596286E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>-0.000515729757606942</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>387.5</v>
@@ -18771,21 +19506,24 @@
         <v>387.6333333333333</v>
       </c>
       <c r="T245">
+        <v>387.6333333333334</v>
+      </c>
+      <c r="U245">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>0</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>3.439794988224776E-05</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>-0.0002579979360165519</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>387.6</v>
@@ -18842,21 +19580,24 @@
         <v>387.64</v>
       </c>
       <c r="T246">
+        <v>387.5666666666667</v>
+      </c>
+      <c r="U246">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>1.720681734096452E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>1.719838335212387E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0002580645161291972</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>387.6</v>
@@ -18913,21 +19654,24 @@
         <v>387.6333333333333</v>
       </c>
       <c r="T247">
+        <v>387.5666666666667</v>
+      </c>
+      <c r="U247">
         <v>0.02499999999992042</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>8.603260635675625E-06</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-1.719808757283392E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>387.6</v>
@@ -18984,21 +19728,24 @@
         <v>387.6266666666667</v>
       </c>
       <c r="T248">
+        <v>387.6</v>
+      </c>
+      <c r="U248">
         <v>0.03125000000005684</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>1.720637324087448E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-1.719838335190182E-05</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>387.6</v>
@@ -19055,21 +19802,24 @@
         <v>387.6266666666667</v>
       </c>
       <c r="T249">
+        <v>387.6000000000001</v>
+      </c>
+      <c r="U249">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>4.301519296601164E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>387</v>
@@ -19126,21 +19876,24 @@
         <v>387.58</v>
       </c>
       <c r="T250">
+        <v>387.4</v>
+      </c>
+      <c r="U250">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>8.602668547741388E-06</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-0.0001203907539902849</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.001547987616099089</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>387.1</v>
@@ -19197,21 +19950,24 @@
         <v>387.5466666666667</v>
       </c>
       <c r="T251">
+        <v>387.2333333333333</v>
+      </c>
+      <c r="U251">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>3.441037816998005E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-8.600374976330816E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.0002583979328165675</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>387.3</v>
@@ -19268,21 +20024,24 @@
         <v>387.5266666666666</v>
       </c>
       <c r="T252">
+        <v>387.1333333333334</v>
+      </c>
+      <c r="U252">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>2.58068956027202E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-5.160668822701275E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.0005166623611470023</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>387.3</v>
@@ -19339,21 +20098,24 @@
         <v>387.5133333333333</v>
       </c>
       <c r="T253">
+        <v>387.2333333333333</v>
+      </c>
+      <c r="U253">
         <v>-0.125</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>2.580622962389256E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-3.440623440964519E-05</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>387.6</v>
@@ -19410,21 +20172,24 @@
         <v>387.52</v>
       </c>
       <c r="T254">
+        <v>387.4</v>
+      </c>
+      <c r="U254">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>2.580556367970388E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>1.720370911972857E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.0007745933384972759</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>387.5</v>
@@ -19481,21 +20246,24 @@
         <v>387.5133333333334</v>
       </c>
       <c r="T255">
+        <v>387.4666666666667</v>
+      </c>
+      <c r="U255">
         <v>-0.1437499999999545</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-1.720326517984372E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-1.72034131571408E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0002579979360165519</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>387.4</v>
@@ -19552,21 +20320,24 @@
         <v>387.4933333333333</v>
       </c>
       <c r="T256">
+        <v>387.5</v>
+      </c>
+      <c r="U256">
         <v>-0.1562500000000568</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-3.440712227431586E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-5.161112735929674E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>-0.0002580645161290862</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>387.4</v>
@@ -19623,21 +20394,24 @@
         <v>387.46</v>
       </c>
       <c r="T257">
+        <v>387.4333333333333</v>
+      </c>
+      <c r="U257">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-1.720415308248402E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-8.602298534143848E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>387.4</v>
@@ -19694,21 +20468,24 @@
         <v>387.4333333333333</v>
       </c>
       <c r="T258">
+        <v>387.3999999999999</v>
+      </c>
+      <c r="U258">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>3.440889814099179E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-6.882430874588508E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>387.5</v>
@@ -19765,21 +20542,24 @@
         <v>387.4266666666667</v>
       </c>
       <c r="T259">
+        <v>387.4333333333333</v>
+      </c>
+      <c r="U259">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>3.440771420959443E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-1.720726146436924E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0002581311306144585</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>387.4</v>
@@ -19836,21 +20616,24 @@
         <v>387.42</v>
       </c>
       <c r="T260">
+        <v>387.4333333333333</v>
+      </c>
+      <c r="U260">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>8.60163258997737E-06</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-1.720755755929559E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>-0.0002580645161290862</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>387.6</v>
@@ -19907,21 +20690,24 @@
         <v>387.42</v>
       </c>
       <c r="T261">
+        <v>387.5</v>
+      </c>
+      <c r="U261">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>8.601558602272519E-06</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0005162622612289169</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>387.7</v>
@@ -19978,21 +20764,24 @@
         <v>387.4266666666666</v>
       </c>
       <c r="T262">
+        <v>387.5666666666667</v>
+      </c>
+      <c r="U262">
         <v>0.04999999999995453</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>0</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>1.720785366421396E-05</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0.0002579979360164408</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>387.7</v>
@@ -20049,21 +20838,24 @@
         <v>387.4333333333333</v>
       </c>
       <c r="T263">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U263">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>1.720755755951764E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>387.7</v>
@@ -20120,21 +20912,24 @@
         <v>387.44</v>
       </c>
       <c r="T264">
+        <v>387.7</v>
+      </c>
+      <c r="U264">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>8.601484616344024E-06</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>1.720726146436924E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>387.7</v>
@@ -20191,21 +20986,24 @@
         <v>387.4866666666667</v>
       </c>
       <c r="T265">
+        <v>387.7</v>
+      </c>
+      <c r="U265">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>0.0001204487576571545</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>387.8</v>
@@ -20262,21 +21060,24 @@
         <v>387.5333333333334</v>
       </c>
       <c r="T266">
+        <v>387.7333333333333</v>
+      </c>
+      <c r="U266">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>1.720282126260742E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>0.0001204342515011003</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0.0002579313902502101</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>388.2</v>
@@ -20333,21 +21134,24 @@
         <v>387.5933333333334</v>
       </c>
       <c r="T267">
+        <v>387.9</v>
+      </c>
+      <c r="U267">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>5.160757599242949E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>0.0001548253913641329</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0.001031459515213884</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>388.3</v>
@@ -20404,21 +21208,24 @@
         <v>387.66</v>
       </c>
       <c r="T268">
+        <v>388.1</v>
+      </c>
+      <c r="U268">
         <v>0.1999999999999318</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>6.880655038354888E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>0.0001720015824144827</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0.0002575991756827989</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>388.2</v>
@@ -20475,21 +21282,24 @@
         <v>387.7</v>
       </c>
       <c r="T269">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U269">
         <v>0.2187499999999432</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>6.020158932185105E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>0.0001031832017748258</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>-0.0002575328354366135</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>388.3</v>
@@ -20546,21 +21356,24 @@
         <v>387.7533333333333</v>
       </c>
       <c r="T270">
+        <v>388.2666666666667</v>
+      </c>
+      <c r="U270">
         <v>0.2500000000000568</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>6.019796530876143E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>0.0001375634081333121</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.0002575991756827989</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>388.5</v>
@@ -20617,21 +21430,24 @@
         <v>387.8266666666667</v>
       </c>
       <c r="T271">
+        <v>388.3333333333333</v>
+      </c>
+      <c r="U271">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>6.879353340782934E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>0.0001891236696869303</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.000515065670873005</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>388.3</v>
@@ -20688,21 +21504,24 @@
         <v>387.8866666666666</v>
       </c>
       <c r="T272">
+        <v>388.3666666666666</v>
+      </c>
+      <c r="U272">
         <v>0.3062500000000341</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>3.439440059160859E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>0.0001547082889261642</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>-0.000514800514800462</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>388.2</v>
@@ -20759,21 +21578,24 @@
         <v>387.94</v>
       </c>
       <c r="T273">
+        <v>388.3333333333333</v>
+      </c>
+      <c r="U273">
         <v>0.3187500000000227</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>3.439321765741354E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>0.0001374972070882219</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>-0.0002575328354366135</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>388</v>
@@ -20830,21 +21652,24 @@
         <v>387.9733333333334</v>
       </c>
       <c r="T274">
+        <v>388.1666666666667</v>
+      </c>
+      <c r="U274">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>3.439203480470887E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>8.592394012829629E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0005151983513652647</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>388.1</v>
@@ -20901,21 +21726,24 @@
         <v>388.02</v>
       </c>
       <c r="T275">
+        <v>388.1000000000001</v>
+      </c>
+      <c r="U275">
         <v>0.2562500000000227</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>5.158627805013083E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>0.0001202831809745675</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0002577319587628857</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>388.1</v>
@@ -20972,21 +21800,24 @@
         <v>388.0533333333333</v>
       </c>
       <c r="T276">
+        <v>388.0666666666667</v>
+      </c>
+      <c r="U276">
         <v>0.1874999999999432</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>4.298634753596708E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>8.590622476489784E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>388</v>
@@ -21043,21 +21874,24 @@
         <v>388.0733333333334</v>
       </c>
       <c r="T277">
+        <v>388.0666666666667</v>
+      </c>
+      <c r="U277">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>3.438759983143136E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>5.153930731172096E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0002576655501159708</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>388</v>
@@ -21114,21 +21948,24 @@
         <v>388.0933333333334</v>
       </c>
       <c r="T278">
+        <v>388.0333333333333</v>
+      </c>
+      <c r="U278">
         <v>0.08124999999995453</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>3.43864173650843E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>5.153665114843164E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>387.9</v>
@@ -21185,21 +22022,24 @@
         <v>388.1066666666667</v>
       </c>
       <c r="T279">
+        <v>387.9666666666667</v>
+      </c>
+      <c r="U279">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>2.578892623517071E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>3.43559968392082E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0002577319587629967</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>387.9</v>
@@ -21256,21 +22096,24 @@
         <v>388.1199999999999</v>
       </c>
       <c r="T280">
+        <v>387.9333333333333</v>
+      </c>
+      <c r="U280">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>7.736478355035992E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>3.435481654512351E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>387.7</v>
@@ -21327,21 +22170,24 @@
         <v>388.1133333333334</v>
       </c>
       <c r="T281">
+        <v>387.8333333333333</v>
+      </c>
+      <c r="U281">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>5.15725324692351E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-1.717681816593153E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.0005155968032998226</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>387.6</v>
@@ -21398,21 +22244,24 @@
         <v>388.0733333333333</v>
       </c>
       <c r="T282">
+        <v>387.7333333333333</v>
+      </c>
+      <c r="U282">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>2.578493644000979E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-0.000103062679286281</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.000257931390250099</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>387.7</v>
@@ -21469,21 +22318,24 @@
         <v>388.0333333333334</v>
       </c>
       <c r="T283">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U283">
         <v>-0.1874999999999432</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>3.43790287924417E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-0.0001030733022967523</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0.0002579979360164408</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>387.7</v>
@@ -21540,21 +22392,24 @@
         <v>388</v>
       </c>
       <c r="T284">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U284">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>8.594461728961278E-06</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>-8.590327291480016E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>387.8</v>
@@ -21611,21 +22466,24 @@
         <v>387.9666666666666</v>
       </c>
       <c r="T285">
+        <v>387.7333333333333</v>
+      </c>
+      <c r="U285">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>2.578316359391764E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-8.591065292107292E-05</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.0002579313902502101</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>387.8</v>
@@ -21682,21 +22540,24 @@
         <v>387.92</v>
       </c>
       <c r="T286">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="U286">
         <v>-0.1937499999999659</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>3.437666511985071E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0001202852478734417</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>387.7</v>
@@ -21753,21 +22614,24 @@
         <v>387.8800000000001</v>
       </c>
       <c r="T287">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="U287">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>2.57816125539545E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-0.0001031140441327683</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>-0.0002578648788035265</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>387.7</v>
@@ -21824,21 +22688,24 @@
         <v>387.8466666666666</v>
       </c>
       <c r="T288">
+        <v>387.7333333333333</v>
+      </c>
+      <c r="U288">
         <v>-0.1562500000000568</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>2.578094787963892E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-8.593723144634247E-05</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>387.6</v>
@@ -21895,21 +22762,24 @@
         <v>387.82</v>
       </c>
       <c r="T289">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U289">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>8.593427746506066E-06</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-6.875569383080204E-05</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>-0.000257931390250099</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>387.7</v>
@@ -21966,21 +22836,24 @@
         <v>387.7933333333333</v>
       </c>
       <c r="T290">
+        <v>387.6666666666667</v>
+      </c>
+      <c r="U290">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>2.578006170006475E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-6.876042150150141E-05</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>0.0002579979360164408</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>387.8</v>
@@ -22037,21 +22910,24 @@
         <v>387.7733333333333</v>
       </c>
       <c r="T291">
+        <v>387.7</v>
+      </c>
+      <c r="U291">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>1.718626473734552E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-5.157386236653849E-05</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0.0002579313902502101</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>388.2</v>
@@ -22108,21 +22984,24 @@
         <v>387.7866666666666</v>
       </c>
       <c r="T292">
+        <v>387.9</v>
+      </c>
+      <c r="U292">
         <v>-0.01249999999993179</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>4.29649234363616E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>3.438434824465375E-05</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0.001031459515213884</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>388.6</v>
@@ -22179,21 +23058,24 @@
         <v>387.8266666666667</v>
       </c>
       <c r="T293">
+        <v>388.2</v>
+      </c>
+      <c r="U293">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>7.733353955607924E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>0.0001031494980059389</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.001030396702730529</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>388.5</v>
@@ -22250,21 +23132,24 @@
         <v>387.8666666666667</v>
       </c>
       <c r="T294">
+        <v>388.4333333333334</v>
+      </c>
+      <c r="U294">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>6.873560848208449E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>0.0001031388592842575</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0002573340195574092</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>388.5</v>
@@ -22321,21 +23206,24 @@
         <v>387.9066666666667</v>
       </c>
       <c r="T295">
+        <v>388.5333333333333</v>
+      </c>
+      <c r="U295">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>6.873088422265639E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>0.0001031282227570429</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>388.6</v>
@@ -22392,21 +23280,24 @@
         <v>387.9666666666666</v>
       </c>
       <c r="T296">
+        <v>388.5333333333333</v>
+      </c>
+      <c r="U296">
         <v>0.2374999999999545</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>6.872616061315284E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>0.0001546763826347775</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0.0002574002574002865</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>388.3</v>
@@ -22463,21 +23354,24 @@
         <v>388.0133333333334</v>
       </c>
       <c r="T297">
+        <v>388.4666666666667</v>
+      </c>
+      <c r="U297">
         <v>0.2874999999999659</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>8.590179706446932E-06</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>0.0001202852478736638</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>-0.0007720020586722276</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>388.2</v>
@@ -22534,21 +23428,24 @@
         <v>388.0466666666667</v>
       </c>
       <c r="T298">
+        <v>388.3666666666666</v>
+      </c>
+      <c r="U298">
         <v>0.3124999999999432</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-8.590105915806667E-06</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>8.590770076621901E-05</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.0002575328354366135</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>388.1</v>
@@ -22605,21 +23502,24 @@
         <v>388.0733333333333</v>
       </c>
       <c r="T299">
+        <v>388.2</v>
+      </c>
+      <c r="U299">
         <v>0.3249999999999886</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-8.590179706557954E-06</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>6.872025701376572E-05</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>-0.0002575991756825768</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>388.1</v>
@@ -22676,21 +23576,24 @@
         <v>388.0933333333333</v>
       </c>
       <c r="T300">
+        <v>388.1333333333334</v>
+      </c>
+      <c r="U300">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-1.718050699672791E-05</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>5.153665114843164E-05</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>388.5</v>
@@ -22747,21 +23650,24 @@
         <v>388.14</v>
       </c>
       <c r="T301">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U301">
         <v>0.2312500000000455</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>0</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>0.0001202459889375618</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0.001030662200463661</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>388.4</v>
@@ -22818,21 +23724,24 @@
         <v>388.1866666666666</v>
       </c>
       <c r="T302">
+        <v>388.3333333333333</v>
+      </c>
+      <c r="U302">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>8.590401085806221E-06</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>0.000120231531577808</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>-0.0002574002574002865</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>387.8</v>
@@ -22889,21 +23798,24 @@
         <v>388.1933333333333</v>
       </c>
       <c r="T303">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U303">
         <v>0.08750000000003411</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-3.436130916589786E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>1.717386824218181E-05</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>-0.001544799176107059</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>388.1</v>
@@ -22960,21 +23872,24 @@
         <v>388.2266666666667</v>
       </c>
       <c r="T304">
+        <v>388.1</v>
+      </c>
+      <c r="U304">
         <v>0</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>8.590622476489784E-06</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>8.586786652697853E-05</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0.0007735946364104684</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>387.9</v>
@@ -23031,21 +23946,24 @@
         <v>388.24</v>
       </c>
       <c r="T305">
+        <v>387.9333333333333</v>
+      </c>
+      <c r="U305">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-1.718109735682205E-05</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>3.434419754788642E-05</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>-0.0005153311002320526</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>387.7</v>
@@ -23102,21 +24020,24 @@
         <v>388.2333333333333</v>
       </c>
       <c r="T306">
+        <v>387.9</v>
+      </c>
+      <c r="U306">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-3.436278510371427E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-1.717150903224329E-05</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>-0.0005155968032998226</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>387.7</v>
@@ -23173,21 +24094,24 @@
         <v>388.2</v>
       </c>
       <c r="T307">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="U307">
         <v>-0.1750000000000682</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-2.577297445915949E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>-8.585901949009767E-05</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>387.9</v>
@@ -23244,21 +24168,24 @@
         <v>388.1533333333334</v>
       </c>
       <c r="T308">
+        <v>387.7666666666667</v>
+      </c>
+      <c r="U308">
         <v>-0.1812499999999773</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-8.591212907416157E-06</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>-0.0001202129486518322</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0005158627805004201</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>388</v>
@@ -23315,21 +24242,24 @@
         <v>388.12</v>
       </c>
       <c r="T309">
+        <v>387.8666666666666</v>
+      </c>
+      <c r="U309">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>8.591286716930213E-06</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>-8.587671538751174E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>0.0002577984016500778</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>388</v>
@@ -23386,21 +24316,24 @@
         <v>388.0866666666667</v>
       </c>
       <c r="T310">
+        <v>387.9666666666666</v>
+      </c>
+      <c r="U310">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>8.591212907527179E-06</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>-8.588409083098991E-05</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>387.9</v>
@@ -23457,21 +24390,24 @@
         <v>388.04</v>
       </c>
       <c r="T311">
+        <v>387.9666666666667</v>
+      </c>
+      <c r="U311">
         <v>-0.1749999999999545</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>1.718227819824669E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>-0.0001202480545584583</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>-0.0002577319587629967</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>388.1</v>
@@ -23528,21 +24464,24 @@
         <v>388.0266666666666</v>
       </c>
       <c r="T312">
+        <v>388</v>
+      </c>
+      <c r="U312">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>4.295495743145139E-05</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>-3.436071882623182E-05</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>0.0005155968032999336</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>388.1</v>
@@ -23599,21 +24538,24 @@
         <v>388.02</v>
       </c>
       <c r="T313">
+        <v>388.0333333333334</v>
+      </c>
+      <c r="U313">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>3.436248990618118E-05</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>-1.718094976277396E-05</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>388.3</v>
@@ -23670,21 +24612,24 @@
         <v>388.0333333333334</v>
       </c>
       <c r="T314">
+        <v>388.1666666666667</v>
+      </c>
+      <c r="U314">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>5.154196374879128E-05</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>3.436248990595914E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0.0005153311002319416</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>388.3</v>
@@ -23741,15 +24686,18 @@
         <v>388.0466666666667</v>
       </c>
       <c r="T315">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U315">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>4.294942275961944E-05</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>3.436130916578684E-05</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>0</v>
       </c>
     </row>
